--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP_REPO\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F21C150-B57F-4977-8358-88B029538430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$400</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$951</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="309">
   <si>
     <t>lang_code</t>
   </si>
@@ -951,12 +952,15 @@
   </si>
   <si>
     <t>Template for Acknowledgement in Android regclient</t>
+  </si>
+  <si>
+    <t>Biometric correction Consent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,7 +1050,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1324,21 +1328,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A900" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A902" sqref="A902:D913"/>
+    <sheetView tabSelected="1" topLeftCell="A907" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A914" sqref="A914:C919"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -1772,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -2164,7 +2168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>4</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>4</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>4</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>4</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>4</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>4</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>4</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
@@ -2682,7 +2686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>4</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>4</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>4</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>4</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>4</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>4</v>
       </c>
@@ -2808,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>4</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>4</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>4</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>4</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>4</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>4</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>4</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>4</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>4</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>4</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>4</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>4</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>4</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>4</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>4</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>4</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>4</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>4</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>293</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>293</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>293</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>293</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>293</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>293</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>293</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>293</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>293</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>293</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>293</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>293</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>293</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>293</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>293</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>293</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>293</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>293</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>293</v>
       </c>
@@ -3676,7 +3680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>293</v>
       </c>
@@ -3690,7 +3694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>293</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>293</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>293</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>293</v>
       </c>
@@ -3746,7 +3750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>293</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>293</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>293</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>293</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>293</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>293</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>293</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>293</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>293</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>293</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>293</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>293</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>293</v>
       </c>
@@ -3928,7 +3932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>293</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>293</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>293</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>293</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>293</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>293</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>293</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>293</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>293</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>293</v>
       </c>
@@ -4068,7 +4072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>293</v>
       </c>
@@ -4082,7 +4086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>293</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>293</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>293</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>293</v>
       </c>
@@ -4138,7 +4142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>293</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>293</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>293</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>293</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>293</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>293</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>293</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>293</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>293</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>293</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>293</v>
       </c>
@@ -4292,7 +4296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>293</v>
       </c>
@@ -4306,7 +4310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>293</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>293</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>293</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>293</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>293</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>293</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>293</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>293</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>293</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>293</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>293</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>293</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>293</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>293</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>293</v>
       </c>
@@ -4516,7 +4520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>293</v>
       </c>
@@ -4530,7 +4534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>293</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>293</v>
       </c>
@@ -4558,7 +4562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>293</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>293</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>293</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>293</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>293</v>
       </c>
@@ -4628,7 +4632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>293</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>293</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>293</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>293</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>293</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>293</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>293</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>293</v>
       </c>
@@ -4740,7 +4744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>293</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>293</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>293</v>
       </c>
@@ -4782,7 +4786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>293</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>293</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>293</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>293</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>293</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>293</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>293</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>293</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>293</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>293</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>293</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>293</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>293</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>293</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>293</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>293</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>293</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>293</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>293</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>293</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>293</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>293</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>293</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>293</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>293</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>293</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>293</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>293</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>293</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>293</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>293</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>293</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>293</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>293</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>293</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>293</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>293</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>293</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>293</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>293</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>293</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>293</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>293</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>293</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>293</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>293</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>293</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>293</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>293</v>
       </c>
@@ -5468,7 +5472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>294</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>294</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>294</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>294</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>294</v>
       </c>
@@ -5538,7 +5542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>294</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>294</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>294</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>294</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>294</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>294</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>294</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>294</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>294</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>294</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>294</v>
       </c>
@@ -5692,7 +5696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>294</v>
       </c>
@@ -5706,7 +5710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>294</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>294</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>294</v>
       </c>
@@ -5748,7 +5752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>294</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>294</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>294</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>294</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>294</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>294</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>294</v>
       </c>
@@ -5846,7 +5850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>294</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>294</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>294</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>294</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>294</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>294</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>294</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>294</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>294</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>294</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>294</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>294</v>
       </c>
@@ -6014,7 +6018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>294</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>294</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>294</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>294</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>294</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>294</v>
       </c>
@@ -6098,7 +6102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>294</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>294</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>294</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>294</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>294</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>294</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>294</v>
       </c>
@@ -6196,7 +6200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>294</v>
       </c>
@@ -6210,7 +6214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>294</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>294</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>294</v>
       </c>
@@ -6252,7 +6256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>294</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>294</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>294</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>294</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>294</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>294</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>294</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>294</v>
       </c>
@@ -6364,7 +6368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>294</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>294</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>294</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>294</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>294</v>
       </c>
@@ -6434,7 +6438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>294</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>294</v>
       </c>
@@ -6462,7 +6466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>294</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>294</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>294</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>294</v>
       </c>
@@ -6518,7 +6522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>294</v>
       </c>
@@ -6532,7 +6536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>294</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>294</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>294</v>
       </c>
@@ -6574,7 +6578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>294</v>
       </c>
@@ -6588,7 +6592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>294</v>
       </c>
@@ -6602,7 +6606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>294</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>294</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>294</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>294</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>294</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>294</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>294</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>294</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>294</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>294</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>294</v>
       </c>
@@ -6756,7 +6760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>294</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>294</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>294</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>294</v>
       </c>
@@ -6812,7 +6816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>294</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>294</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>294</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>294</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>294</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>294</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>294</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>294</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>294</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>294</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>294</v>
       </c>
@@ -6966,7 +6970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>294</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>294</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>294</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>294</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>294</v>
       </c>
@@ -7036,7 +7040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>294</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>294</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>294</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>294</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>294</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>294</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>294</v>
       </c>
@@ -7134,7 +7138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>294</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>294</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>294</v>
       </c>
@@ -7176,7 +7180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>294</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>294</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>294</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>294</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>294</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>294</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>294</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>294</v>
       </c>
@@ -7288,7 +7292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>294</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>294</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>294</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>294</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>294</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>294</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>294</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>294</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>294</v>
       </c>
@@ -7414,7 +7418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>294</v>
       </c>
@@ -7428,7 +7432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>294</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>294</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>294</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>294</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>294</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>294</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>294</v>
       </c>
@@ -7526,7 +7530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>4</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>4</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>293</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>293</v>
       </c>
@@ -7582,7 +7586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>294</v>
       </c>
@@ -7596,7 +7600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>294</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>4</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>293</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>294</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>301</v>
       </c>
@@ -7666,7 +7670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>301</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>301</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>301</v>
       </c>
@@ -7708,7 +7712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>301</v>
       </c>
@@ -7722,7 +7726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>301</v>
       </c>
@@ -7736,7 +7740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>301</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>301</v>
       </c>
@@ -7764,7 +7768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>301</v>
       </c>
@@ -7778,7 +7782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>301</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>301</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>301</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>301</v>
       </c>
@@ -7834,7 +7838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>301</v>
       </c>
@@ -7848,7 +7852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>301</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>301</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>301</v>
       </c>
@@ -7890,7 +7894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>301</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>301</v>
       </c>
@@ -7918,7 +7922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>301</v>
       </c>
@@ -7932,7 +7936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>301</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>301</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>301</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>301</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>301</v>
       </c>
@@ -8002,7 +8006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>301</v>
       </c>
@@ -8016,7 +8020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>301</v>
       </c>
@@ -8030,7 +8034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
         <v>301</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>301</v>
       </c>
@@ -8058,7 +8062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>301</v>
       </c>
@@ -8072,7 +8076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>301</v>
       </c>
@@ -8086,7 +8090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>301</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>301</v>
       </c>
@@ -8114,7 +8118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>301</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>301</v>
       </c>
@@ -8142,7 +8146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>301</v>
       </c>
@@ -8156,7 +8160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>301</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>301</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>301</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>301</v>
       </c>
@@ -8212,7 +8216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>301</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>301</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>301</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>301</v>
       </c>
@@ -8268,7 +8272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>301</v>
       </c>
@@ -8282,7 +8286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>301</v>
       </c>
@@ -8296,7 +8300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>301</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>301</v>
       </c>
@@ -8324,7 +8328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
         <v>301</v>
       </c>
@@ -8338,7 +8342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
         <v>301</v>
       </c>
@@ -8352,7 +8356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>301</v>
       </c>
@@ -8366,7 +8370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>301</v>
       </c>
@@ -8380,7 +8384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>301</v>
       </c>
@@ -8394,7 +8398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>301</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>301</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>301</v>
       </c>
@@ -8436,7 +8440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
         <v>301</v>
       </c>
@@ -8450,7 +8454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>301</v>
       </c>
@@ -8464,7 +8468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
         <v>301</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>301</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>301</v>
       </c>
@@ -8506,7 +8510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
         <v>301</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
         <v>301</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
         <v>301</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
         <v>301</v>
       </c>
@@ -8562,7 +8566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
         <v>301</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
         <v>301</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
         <v>301</v>
       </c>
@@ -8604,7 +8608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
         <v>301</v>
       </c>
@@ -8618,7 +8622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
         <v>301</v>
       </c>
@@ -8632,7 +8636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
         <v>301</v>
       </c>
@@ -8646,7 +8650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
         <v>301</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
         <v>301</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
         <v>301</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
         <v>301</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
         <v>301</v>
       </c>
@@ -8716,7 +8720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>301</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
         <v>301</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
         <v>301</v>
       </c>
@@ -8758,7 +8762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
         <v>301</v>
       </c>
@@ -8772,7 +8776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
         <v>301</v>
       </c>
@@ -8786,7 +8790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
         <v>301</v>
       </c>
@@ -8800,7 +8804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
         <v>301</v>
       </c>
@@ -8814,7 +8818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>301</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
         <v>301</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
         <v>301</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
         <v>301</v>
       </c>
@@ -8870,7 +8874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
         <v>301</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
         <v>301</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
         <v>301</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
         <v>301</v>
       </c>
@@ -8926,7 +8930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
         <v>301</v>
       </c>
@@ -8940,7 +8944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
         <v>301</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
         <v>301</v>
       </c>
@@ -8968,7 +8972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
         <v>301</v>
       </c>
@@ -8982,7 +8986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
         <v>301</v>
       </c>
@@ -8996,7 +9000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
         <v>301</v>
       </c>
@@ -9010,7 +9014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
         <v>301</v>
       </c>
@@ -9024,7 +9028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
         <v>301</v>
       </c>
@@ -9038,7 +9042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
         <v>301</v>
       </c>
@@ -9052,7 +9056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
         <v>301</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
         <v>301</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
         <v>301</v>
       </c>
@@ -9094,7 +9098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
         <v>301</v>
       </c>
@@ -9108,7 +9112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
         <v>301</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
         <v>301</v>
       </c>
@@ -9136,7 +9140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
         <v>301</v>
       </c>
@@ -9150,7 +9154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
         <v>301</v>
       </c>
@@ -9164,7 +9168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
         <v>301</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>301</v>
       </c>
@@ -9192,7 +9196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>301</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
         <v>301</v>
       </c>
@@ -9220,7 +9224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
         <v>301</v>
       </c>
@@ -9234,7 +9238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
         <v>301</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
         <v>301</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
         <v>301</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
         <v>301</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
         <v>301</v>
       </c>
@@ -9304,7 +9308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
         <v>301</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
         <v>301</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
         <v>301</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
         <v>301</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
         <v>301</v>
       </c>
@@ -9374,7 +9378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
         <v>301</v>
       </c>
@@ -9388,7 +9392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
         <v>301</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
         <v>301</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>301</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
         <v>301</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
         <v>301</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
         <v>301</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>301</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
         <v>301</v>
       </c>
@@ -9500,7 +9504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
         <v>301</v>
       </c>
@@ -9514,7 +9518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
         <v>301</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
         <v>301</v>
       </c>
@@ -9542,7 +9546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
         <v>301</v>
       </c>
@@ -9556,7 +9560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
         <v>301</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
         <v>301</v>
       </c>
@@ -9584,7 +9588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>301</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>301</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
         <v>301</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
         <v>301</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
         <v>301</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
         <v>301</v>
       </c>
@@ -9668,7 +9672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
         <v>301</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>301</v>
       </c>
@@ -9696,7 +9700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
         <v>301</v>
       </c>
@@ -9710,7 +9714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
         <v>301</v>
       </c>
@@ -9724,7 +9728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>301</v>
       </c>
@@ -9738,7 +9742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="4" t="s">
         <v>301</v>
       </c>
@@ -9752,7 +9756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
         <v>302</v>
       </c>
@@ -9766,7 +9770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
         <v>302</v>
       </c>
@@ -9780,7 +9784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
         <v>302</v>
       </c>
@@ -9794,7 +9798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
         <v>302</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
         <v>302</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
         <v>302</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
         <v>302</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
         <v>302</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
         <v>302</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
         <v>302</v>
       </c>
@@ -9892,7 +9896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
         <v>302</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
         <v>302</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="4" t="s">
         <v>302</v>
       </c>
@@ -9934,7 +9938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="4" t="s">
         <v>302</v>
       </c>
@@ -9948,7 +9952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="4" t="s">
         <v>302</v>
       </c>
@@ -9962,7 +9966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="4" t="s">
         <v>302</v>
       </c>
@@ -9976,7 +9980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="4" t="s">
         <v>302</v>
       </c>
@@ -9990,7 +9994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="4" t="s">
         <v>302</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="4" t="s">
         <v>302</v>
       </c>
@@ -10018,7 +10022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
         <v>302</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="4" t="s">
         <v>302</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="4" t="s">
         <v>302</v>
       </c>
@@ -10060,7 +10064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="4" t="s">
         <v>302</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="4" t="s">
         <v>302</v>
       </c>
@@ -10088,7 +10092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="4" t="s">
         <v>302</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="4" t="s">
         <v>302</v>
       </c>
@@ -10116,7 +10120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="4" t="s">
         <v>302</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="4" t="s">
         <v>302</v>
       </c>
@@ -10144,7 +10148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="4" t="s">
         <v>302</v>
       </c>
@@ -10158,7 +10162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
         <v>302</v>
       </c>
@@ -10172,7 +10176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>302</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
         <v>302</v>
       </c>
@@ -10200,7 +10204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
         <v>302</v>
       </c>
@@ -10214,7 +10218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
         <v>302</v>
       </c>
@@ -10228,7 +10232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
         <v>302</v>
       </c>
@@ -10242,7 +10246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
         <v>302</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
         <v>302</v>
       </c>
@@ -10270,7 +10274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
         <v>302</v>
       </c>
@@ -10284,7 +10288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="4" t="s">
         <v>302</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="4" t="s">
         <v>302</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="4" t="s">
         <v>302</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="4" t="s">
         <v>302</v>
       </c>
@@ -10340,7 +10344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="4" t="s">
         <v>302</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="4" t="s">
         <v>302</v>
       </c>
@@ -10368,7 +10372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="4" t="s">
         <v>302</v>
       </c>
@@ -10382,7 +10386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="4" t="s">
         <v>302</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="4" t="s">
         <v>302</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="4" t="s">
         <v>302</v>
       </c>
@@ -10424,7 +10428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="4" t="s">
         <v>302</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="4" t="s">
         <v>302</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="4" t="s">
         <v>302</v>
       </c>
@@ -10466,7 +10470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="4" t="s">
         <v>302</v>
       </c>
@@ -10480,7 +10484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="4" t="s">
         <v>302</v>
       </c>
@@ -10494,7 +10498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="4" t="s">
         <v>302</v>
       </c>
@@ -10508,7 +10512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="4" t="s">
         <v>302</v>
       </c>
@@ -10522,7 +10526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="4" t="s">
         <v>302</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="4" t="s">
         <v>302</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="4" t="s">
         <v>302</v>
       </c>
@@ -10564,7 +10568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="4" t="s">
         <v>302</v>
       </c>
@@ -10578,7 +10582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="4" t="s">
         <v>302</v>
       </c>
@@ -10592,7 +10596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="4" t="s">
         <v>302</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="4" t="s">
         <v>302</v>
       </c>
@@ -10620,7 +10624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="4" t="s">
         <v>302</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="4" t="s">
         <v>302</v>
       </c>
@@ -10648,7 +10652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="4" t="s">
         <v>302</v>
       </c>
@@ -10662,7 +10666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="4" t="s">
         <v>302</v>
       </c>
@@ -10676,7 +10680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="4" t="s">
         <v>302</v>
       </c>
@@ -10690,7 +10694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="4" t="s">
         <v>302</v>
       </c>
@@ -10704,7 +10708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="4" t="s">
         <v>302</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="4" t="s">
         <v>302</v>
       </c>
@@ -10732,7 +10736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="4" t="s">
         <v>302</v>
       </c>
@@ -10746,7 +10750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="4" t="s">
         <v>302</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="4" t="s">
         <v>302</v>
       </c>
@@ -10774,7 +10778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="4" t="s">
         <v>302</v>
       </c>
@@ -10788,7 +10792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="4" t="s">
         <v>302</v>
       </c>
@@ -10802,7 +10806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="4" t="s">
         <v>302</v>
       </c>
@@ -10816,7 +10820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="4" t="s">
         <v>302</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="4" t="s">
         <v>302</v>
       </c>
@@ -10844,7 +10848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="4" t="s">
         <v>302</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="4" t="s">
         <v>302</v>
       </c>
@@ -10872,7 +10876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="4" t="s">
         <v>302</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="4" t="s">
         <v>302</v>
       </c>
@@ -10900,7 +10904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="4" t="s">
         <v>302</v>
       </c>
@@ -10914,7 +10918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="4" t="s">
         <v>302</v>
       </c>
@@ -10928,7 +10932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="4" t="s">
         <v>302</v>
       </c>
@@ -10942,7 +10946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="4" t="s">
         <v>302</v>
       </c>
@@ -10956,7 +10960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="4" t="s">
         <v>302</v>
       </c>
@@ -10970,7 +10974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="4" t="s">
         <v>302</v>
       </c>
@@ -10984,7 +10988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="4" t="s">
         <v>302</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="4" t="s">
         <v>302</v>
       </c>
@@ -11012,7 +11016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="4" t="s">
         <v>302</v>
       </c>
@@ -11026,7 +11030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="4" t="s">
         <v>302</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="4" t="s">
         <v>302</v>
       </c>
@@ -11054,7 +11058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="4" t="s">
         <v>302</v>
       </c>
@@ -11068,7 +11072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="4" t="s">
         <v>302</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="4" t="s">
         <v>302</v>
       </c>
@@ -11096,7 +11100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="4" t="s">
         <v>302</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="4" t="s">
         <v>302</v>
       </c>
@@ -11124,7 +11128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="4" t="s">
         <v>302</v>
       </c>
@@ -11138,7 +11142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="4" t="s">
         <v>302</v>
       </c>
@@ -11152,7 +11156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="4" t="s">
         <v>302</v>
       </c>
@@ -11166,7 +11170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="4" t="s">
         <v>302</v>
       </c>
@@ -11180,7 +11184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="4" t="s">
         <v>302</v>
       </c>
@@ -11194,7 +11198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="4" t="s">
         <v>302</v>
       </c>
@@ -11208,7 +11212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="4" t="s">
         <v>302</v>
       </c>
@@ -11222,7 +11226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="4" t="s">
         <v>302</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="4" t="s">
         <v>302</v>
       </c>
@@ -11250,7 +11254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="4" t="s">
         <v>302</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="4" t="s">
         <v>302</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="4" t="s">
         <v>302</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="4" t="s">
         <v>302</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="4" t="s">
         <v>302</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="4" t="s">
         <v>302</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="4" t="s">
         <v>302</v>
       </c>
@@ -11348,7 +11352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="4" t="s">
         <v>302</v>
       </c>
@@ -11362,7 +11366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="4" t="s">
         <v>302</v>
       </c>
@@ -11376,7 +11380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="4" t="s">
         <v>302</v>
       </c>
@@ -11390,7 +11394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="4" t="s">
         <v>302</v>
       </c>
@@ -11404,7 +11408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="4" t="s">
         <v>302</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="4" t="s">
         <v>302</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="4" t="s">
         <v>302</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="4" t="s">
         <v>302</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="4" t="s">
         <v>302</v>
       </c>
@@ -11474,7 +11478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="4" t="s">
         <v>302</v>
       </c>
@@ -11488,7 +11492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="4" t="s">
         <v>302</v>
       </c>
@@ -11502,7 +11506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="4" t="s">
         <v>302</v>
       </c>
@@ -11516,7 +11520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="4" t="s">
         <v>302</v>
       </c>
@@ -11530,7 +11534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="4" t="s">
         <v>302</v>
       </c>
@@ -11544,7 +11548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="4" t="s">
         <v>302</v>
       </c>
@@ -11558,7 +11562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="4" t="s">
         <v>302</v>
       </c>
@@ -11572,7 +11576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="4" t="s">
         <v>302</v>
       </c>
@@ -11586,7 +11590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="4" t="s">
         <v>302</v>
       </c>
@@ -11600,7 +11604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="4" t="s">
         <v>302</v>
       </c>
@@ -11614,7 +11618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="4" t="s">
         <v>302</v>
       </c>
@@ -11628,7 +11632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="4" t="s">
         <v>302</v>
       </c>
@@ -11642,7 +11646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="4" t="s">
         <v>302</v>
       </c>
@@ -11656,7 +11660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="4" t="s">
         <v>302</v>
       </c>
@@ -11670,7 +11674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="4" t="s">
         <v>302</v>
       </c>
@@ -11684,7 +11688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="4" t="s">
         <v>302</v>
       </c>
@@ -11698,7 +11702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="4" t="s">
         <v>302</v>
       </c>
@@ -11712,7 +11716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="4" t="s">
         <v>302</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="4" t="s">
         <v>302</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="4" t="s">
         <v>302</v>
       </c>
@@ -11754,7 +11758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="4" t="s">
         <v>302</v>
       </c>
@@ -11768,7 +11772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="4" t="s">
         <v>302</v>
       </c>
@@ -11782,7 +11786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="4" t="s">
         <v>302</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="4" t="s">
         <v>302</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="4" t="s">
         <v>302</v>
       </c>
@@ -11824,7 +11828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="4" t="s">
         <v>302</v>
       </c>
@@ -11838,7 +11842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="4" t="s">
         <v>302</v>
       </c>
@@ -11852,7 +11856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="4" t="s">
         <v>303</v>
       </c>
@@ -11866,7 +11870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="4" t="s">
         <v>303</v>
       </c>
@@ -11880,7 +11884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="4" t="s">
         <v>303</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="4" t="s">
         <v>303</v>
       </c>
@@ -11908,7 +11912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="4" t="s">
         <v>303</v>
       </c>
@@ -11922,7 +11926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="4" t="s">
         <v>303</v>
       </c>
@@ -11936,7 +11940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="4" t="s">
         <v>303</v>
       </c>
@@ -11950,7 +11954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="4" t="s">
         <v>303</v>
       </c>
@@ -11964,7 +11968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="4" t="s">
         <v>303</v>
       </c>
@@ -11978,7 +11982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="4" t="s">
         <v>303</v>
       </c>
@@ -11992,7 +11996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="4" t="s">
         <v>303</v>
       </c>
@@ -12006,7 +12010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="4" t="s">
         <v>303</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="4" t="s">
         <v>303</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="4" t="s">
         <v>303</v>
       </c>
@@ -12048,7 +12052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="4" t="s">
         <v>303</v>
       </c>
@@ -12062,7 +12066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="4" t="s">
         <v>303</v>
       </c>
@@ -12076,7 +12080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="4" t="s">
         <v>303</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="4" t="s">
         <v>303</v>
       </c>
@@ -12104,7 +12108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="4" t="s">
         <v>303</v>
       </c>
@@ -12118,7 +12122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="4" t="s">
         <v>303</v>
       </c>
@@ -12132,7 +12136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="4" t="s">
         <v>303</v>
       </c>
@@ -12146,7 +12150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="4" t="s">
         <v>303</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="4" t="s">
         <v>303</v>
       </c>
@@ -12174,7 +12178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="4" t="s">
         <v>303</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="4" t="s">
         <v>303</v>
       </c>
@@ -12202,7 +12206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="4" t="s">
         <v>303</v>
       </c>
@@ -12216,7 +12220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="4" t="s">
         <v>303</v>
       </c>
@@ -12230,7 +12234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="4" t="s">
         <v>303</v>
       </c>
@@ -12244,7 +12248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="4" t="s">
         <v>303</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="4" t="s">
         <v>303</v>
       </c>
@@ -12272,7 +12276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="4" t="s">
         <v>303</v>
       </c>
@@ -12286,7 +12290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="4" t="s">
         <v>303</v>
       </c>
@@ -12300,7 +12304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="4" t="s">
         <v>303</v>
       </c>
@@ -12314,7 +12318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="4" t="s">
         <v>303</v>
       </c>
@@ -12328,7 +12332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="4" t="s">
         <v>303</v>
       </c>
@@ -12342,7 +12346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="4" t="s">
         <v>303</v>
       </c>
@@ -12356,7 +12360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="4" t="s">
         <v>303</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="4" t="s">
         <v>303</v>
       </c>
@@ -12384,7 +12388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="4" t="s">
         <v>303</v>
       </c>
@@ -12398,7 +12402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="4" t="s">
         <v>303</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="4" t="s">
         <v>303</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="4" t="s">
         <v>303</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="4" t="s">
         <v>303</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="4" t="s">
         <v>303</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="4" t="s">
         <v>303</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="4" t="s">
         <v>303</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="4" t="s">
         <v>303</v>
       </c>
@@ -12510,7 +12514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="4" t="s">
         <v>303</v>
       </c>
@@ -12524,7 +12528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="4" t="s">
         <v>303</v>
       </c>
@@ -12538,7 +12542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="4" t="s">
         <v>303</v>
       </c>
@@ -12552,7 +12556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" s="4" t="s">
         <v>303</v>
       </c>
@@ -12566,7 +12570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" s="4" t="s">
         <v>303</v>
       </c>
@@ -12580,7 +12584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" s="4" t="s">
         <v>303</v>
       </c>
@@ -12594,7 +12598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" s="4" t="s">
         <v>303</v>
       </c>
@@ -12608,7 +12612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" s="4" t="s">
         <v>303</v>
       </c>
@@ -12622,7 +12626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" s="4" t="s">
         <v>303</v>
       </c>
@@ -12636,7 +12640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" s="4" t="s">
         <v>303</v>
       </c>
@@ -12650,7 +12654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" s="4" t="s">
         <v>303</v>
       </c>
@@ -12664,7 +12668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" s="4" t="s">
         <v>303</v>
       </c>
@@ -12678,7 +12682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" s="4" t="s">
         <v>303</v>
       </c>
@@ -12692,7 +12696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" s="4" t="s">
         <v>303</v>
       </c>
@@ -12706,7 +12710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" s="4" t="s">
         <v>303</v>
       </c>
@@ -12720,7 +12724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" s="4" t="s">
         <v>303</v>
       </c>
@@ -12734,7 +12738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" s="4" t="s">
         <v>303</v>
       </c>
@@ -12748,7 +12752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" s="4" t="s">
         <v>303</v>
       </c>
@@ -12762,7 +12766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" s="4" t="s">
         <v>303</v>
       </c>
@@ -12776,7 +12780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" s="4" t="s">
         <v>303</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" s="4" t="s">
         <v>303</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" s="4" t="s">
         <v>303</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" s="4" t="s">
         <v>303</v>
       </c>
@@ -12832,7 +12836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" s="4" t="s">
         <v>303</v>
       </c>
@@ -12846,7 +12850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" s="4" t="s">
         <v>303</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" s="4" t="s">
         <v>303</v>
       </c>
@@ -12874,7 +12878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" s="4" t="s">
         <v>303</v>
       </c>
@@ -12888,7 +12892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" s="4" t="s">
         <v>303</v>
       </c>
@@ -12902,7 +12906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" s="4" t="s">
         <v>303</v>
       </c>
@@ -12916,7 +12920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" s="4" t="s">
         <v>303</v>
       </c>
@@ -12930,7 +12934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" s="4" t="s">
         <v>303</v>
       </c>
@@ -12944,7 +12948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" s="4" t="s">
         <v>303</v>
       </c>
@@ -12958,7 +12962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" s="4" t="s">
         <v>303</v>
       </c>
@@ -12972,7 +12976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" s="4" t="s">
         <v>303</v>
       </c>
@@ -12986,7 +12990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" s="4" t="s">
         <v>303</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" s="4" t="s">
         <v>303</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" s="4" t="s">
         <v>303</v>
       </c>
@@ -13028,7 +13032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" s="4" t="s">
         <v>303</v>
       </c>
@@ -13042,7 +13046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" s="4" t="s">
         <v>303</v>
       </c>
@@ -13056,7 +13060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" s="4" t="s">
         <v>303</v>
       </c>
@@ -13070,7 +13074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" s="4" t="s">
         <v>303</v>
       </c>
@@ -13084,7 +13088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" s="4" t="s">
         <v>303</v>
       </c>
@@ -13098,7 +13102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" s="4" t="s">
         <v>303</v>
       </c>
@@ -13112,7 +13116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" s="4" t="s">
         <v>303</v>
       </c>
@@ -13126,7 +13130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" s="4" t="s">
         <v>303</v>
       </c>
@@ -13140,7 +13144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" s="4" t="s">
         <v>303</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" s="4" t="s">
         <v>303</v>
       </c>
@@ -13168,7 +13172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" s="4" t="s">
         <v>303</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" s="4" t="s">
         <v>303</v>
       </c>
@@ -13196,7 +13200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" s="4" t="s">
         <v>303</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" s="4" t="s">
         <v>303</v>
       </c>
@@ -13224,7 +13228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" s="4" t="s">
         <v>303</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" s="4" t="s">
         <v>303</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" s="4" t="s">
         <v>303</v>
       </c>
@@ -13266,7 +13270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" s="4" t="s">
         <v>303</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" s="4" t="s">
         <v>303</v>
       </c>
@@ -13294,7 +13298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" s="4" t="s">
         <v>303</v>
       </c>
@@ -13308,7 +13312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" s="4" t="s">
         <v>303</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" s="4" t="s">
         <v>303</v>
       </c>
@@ -13336,7 +13340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" s="4" t="s">
         <v>303</v>
       </c>
@@ -13350,7 +13354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" s="4" t="s">
         <v>303</v>
       </c>
@@ -13364,7 +13368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" s="4" t="s">
         <v>303</v>
       </c>
@@ -13378,7 +13382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" s="4" t="s">
         <v>303</v>
       </c>
@@ -13392,7 +13396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" s="4" t="s">
         <v>303</v>
       </c>
@@ -13406,7 +13410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" s="4" t="s">
         <v>303</v>
       </c>
@@ -13420,7 +13424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" s="4" t="s">
         <v>303</v>
       </c>
@@ -13434,7 +13438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" s="4" t="s">
         <v>303</v>
       </c>
@@ -13448,7 +13452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" s="4" t="s">
         <v>303</v>
       </c>
@@ -13462,7 +13466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" s="4" t="s">
         <v>303</v>
       </c>
@@ -13476,7 +13480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" s="4" t="s">
         <v>303</v>
       </c>
@@ -13490,7 +13494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" s="4" t="s">
         <v>303</v>
       </c>
@@ -13504,7 +13508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" s="4" t="s">
         <v>303</v>
       </c>
@@ -13518,7 +13522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" s="4" t="s">
         <v>303</v>
       </c>
@@ -13532,7 +13536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" s="4" t="s">
         <v>303</v>
       </c>
@@ -13546,7 +13550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" s="4" t="s">
         <v>303</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" s="4" t="s">
         <v>303</v>
       </c>
@@ -13574,7 +13578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" s="4" t="s">
         <v>303</v>
       </c>
@@ -13588,7 +13592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" s="4" t="s">
         <v>303</v>
       </c>
@@ -13602,7 +13606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" s="4" t="s">
         <v>303</v>
       </c>
@@ -13616,7 +13620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" s="4" t="s">
         <v>303</v>
       </c>
@@ -13630,7 +13634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" s="4" t="s">
         <v>303</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" s="4" t="s">
         <v>303</v>
       </c>
@@ -13658,7 +13662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A881" s="4" t="s">
         <v>303</v>
       </c>
@@ -13672,7 +13676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A882" s="4" t="s">
         <v>303</v>
       </c>
@@ -13686,7 +13690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A883" s="4" t="s">
         <v>303</v>
       </c>
@@ -13700,7 +13704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" s="4" t="s">
         <v>303</v>
       </c>
@@ -13714,7 +13718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A885" s="4" t="s">
         <v>303</v>
       </c>
@@ -13728,7 +13732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A886" s="4" t="s">
         <v>303</v>
       </c>
@@ -13742,7 +13746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A887" s="4" t="s">
         <v>303</v>
       </c>
@@ -13756,7 +13760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A888" s="4" t="s">
         <v>303</v>
       </c>
@@ -13770,7 +13774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A889" s="4" t="s">
         <v>303</v>
       </c>
@@ -13784,7 +13788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A890" s="4" t="s">
         <v>303</v>
       </c>
@@ -13798,7 +13802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A891" s="4" t="s">
         <v>303</v>
       </c>
@@ -13812,7 +13816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A892" s="4" t="s">
         <v>303</v>
       </c>
@@ -13826,7 +13830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A893" s="4" t="s">
         <v>303</v>
       </c>
@@ -13840,7 +13844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A894" s="4" t="s">
         <v>303</v>
       </c>
@@ -13854,7 +13858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A895" s="4" t="s">
         <v>303</v>
       </c>
@@ -13868,7 +13872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A896" s="4" t="s">
         <v>303</v>
       </c>
@@ -13882,7 +13886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A897" s="4" t="s">
         <v>303</v>
       </c>
@@ -13896,7 +13900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A898" s="4" t="s">
         <v>303</v>
       </c>
@@ -13910,7 +13914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A899" s="4" t="s">
         <v>303</v>
       </c>
@@ -13924,7 +13928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A900" s="4" t="s">
         <v>303</v>
       </c>
@@ -13938,7 +13942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" s="4" t="s">
         <v>303</v>
       </c>
@@ -13952,7 +13956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" s="4" t="s">
         <v>4</v>
       </c>
@@ -13966,7 +13970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" s="4" t="s">
         <v>293</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" s="4" t="s">
         <v>294</v>
       </c>
@@ -13994,7 +13998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" s="4" t="s">
         <v>301</v>
       </c>
@@ -14008,7 +14012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" s="4" t="s">
         <v>302</v>
       </c>
@@ -14022,7 +14026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" s="4" t="s">
         <v>303</v>
       </c>
@@ -14036,7 +14040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" s="4" t="s">
         <v>4</v>
       </c>
@@ -14050,7 +14054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" s="4" t="s">
         <v>293</v>
       </c>
@@ -14064,7 +14068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" s="4" t="s">
         <v>294</v>
       </c>
@@ -14078,7 +14082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" s="4" t="s">
         <v>301</v>
       </c>
@@ -14092,7 +14096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" s="4" t="s">
         <v>302</v>
       </c>
@@ -14106,7 +14110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" s="4" t="s">
         <v>303</v>
       </c>
@@ -14120,122 +14124,187 @@
         <v>7</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A914" s="4"/>
-    </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A915" s="4"/>
-    </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A916" s="4"/>
-    </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A917" s="4"/>
-    </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A918" s="4"/>
-    </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A919" s="4"/>
-    </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A914" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B914" t="s">
+        <v>308</v>
+      </c>
+      <c r="C914" t="s">
+        <v>273</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B915" t="s">
+        <v>308</v>
+      </c>
+      <c r="C915" t="s">
+        <v>273</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B916" t="s">
+        <v>308</v>
+      </c>
+      <c r="C916" t="s">
+        <v>273</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B917" t="s">
+        <v>308</v>
+      </c>
+      <c r="C917" t="s">
+        <v>273</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A918" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B918" t="s">
+        <v>308</v>
+      </c>
+      <c r="C918" t="s">
+        <v>273</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A919" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B919" t="s">
+        <v>308</v>
+      </c>
+      <c r="C919" t="s">
+        <v>273</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" s="4"/>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" s="4"/>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" s="4"/>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" s="4"/>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" s="4"/>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" s="4"/>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A926" s="4"/>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A927" s="4"/>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A928" s="4"/>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A929" s="4"/>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A930" s="4"/>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A931" s="4"/>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A932" s="4"/>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A933" s="4"/>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A934" s="4"/>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A935" s="4"/>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A936" s="4"/>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A937" s="4"/>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A938" s="4"/>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A939" s="4"/>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A940" s="4"/>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A941" s="4"/>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A942" s="4"/>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A943" s="4"/>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A944" s="4"/>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A945" s="4"/>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A946" s="4"/>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A947" s="4"/>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A948" s="4"/>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A949" s="4"/>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A950" s="4"/>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A951" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D400"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6836" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6860" uniqueCount="592">
   <si>
     <t>lang_code</t>
   </si>
@@ -1797,6 +1797,12 @@
   </si>
   <si>
     <t>Template for Supervisor Reject SMS</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_EMAIL_SUBJECT</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject Email Subject</t>
   </si>
 </sst>
 </file>
@@ -2177,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1709"/>
+  <dimension ref="A1:D1715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1689" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1709" sqref="K1709"/>
+    <sheetView tabSelected="1" topLeftCell="A1693" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1709" sqref="I1709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26116,6 +26122,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1710" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1711" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1712" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1713" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1714" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1715" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP-Team\mosip-data\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337574ED-1CFC-4A0F-8051-07E976BC82F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6860" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6932" uniqueCount="628">
   <si>
     <t>lang_code</t>
   </si>
@@ -1894,12 +1893,30 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject Email</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_SMS</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject SMS</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_EMAIL_SUBJECT</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject Email Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -2013,7 +2030,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2291,18 +2308,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1715"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1700" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1716" sqref="C1716"/>
+    <sheetView tabSelected="1" topLeftCell="A1711" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1718" sqref="H1718"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26315,8 +26332,260 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1716" spans="1:4">
+      <c r="A1716" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1716" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4">
+      <c r="A1717" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1717" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4">
+      <c r="A1718" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1718" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4">
+      <c r="A1719" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1719" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4">
+      <c r="A1720" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1720" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4">
+      <c r="A1721" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1721" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4">
+      <c r="A1722" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1722" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4">
+      <c r="A1723" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1723" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4">
+      <c r="A1724" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1724" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4">
+      <c r="A1725" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1725" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4">
+      <c r="A1726" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1726" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4">
+      <c r="A1727" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1727" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4">
+      <c r="A1728" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1728" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4">
+      <c r="A1729" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1729" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4">
+      <c r="A1730" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1730" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4">
+      <c r="A1731" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1731" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4">
+      <c r="A1732" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1732" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4">
+      <c r="A1733" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1733" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D400"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP-Team\mosip-data\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B56CD-AB7B-4BD9-A295-CFCA527DC959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6972" uniqueCount="648">
   <si>
     <t>lang_code</t>
   </si>
@@ -1954,12 +1953,30 @@
   </si>
   <si>
     <t>Failure sms to download my VID card</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject Email</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_SMS</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject SMS</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_EMAIL_SUBJECT</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject Email Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -2073,7 +2090,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2351,11 +2368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1725"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1712" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1716" sqref="C1716"/>
+    <sheetView tabSelected="1" topLeftCell="A1724" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1730" sqref="F1730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -26515,8 +26532,260 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1726" spans="1:4">
+      <c r="A1726" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1726" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4">
+      <c r="A1727" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1727" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4">
+      <c r="A1728" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1728" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4">
+      <c r="A1729" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1729" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4">
+      <c r="A1730" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1730" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4">
+      <c r="A1731" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1731" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4">
+      <c r="A1732" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1732" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4">
+      <c r="A1733" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1733" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4">
+      <c r="A1734" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1734" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4">
+      <c r="A1735" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1735" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4">
+      <c r="A1736" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1736" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4">
+      <c r="A1737" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1737" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4">
+      <c r="A1738" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1738" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4">
+      <c r="A1739" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1739" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4">
+      <c r="A1740" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1740" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4">
+      <c r="A1741" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1741" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4">
+      <c r="A1742" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1742" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4">
+      <c r="A1743" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1743" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D400"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP-Team\mosip-data\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ABF47C-ED22-434A-9978-DA641204EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6972" uniqueCount="648">
   <si>
     <t>lang_code</t>
   </si>
@@ -1822,13 +1821,163 @@
   </si>
   <si>
     <t>vid-card-download-negative-purpose</t>
+  </si>
+  <si>
+    <t>mosip.idp.otp.template.property</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>mosip.idp.biometrics.template.property</t>
+  </si>
+  <si>
+    <t>Biometrics</t>
+  </si>
+  <si>
+    <t>mosip.idp.unknown.authentication.template.property</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>mosip.full.name.template.property</t>
+  </si>
+  <si>
+    <t>mosip.date.of.birth.template.property</t>
+  </si>
+  <si>
+    <t>mosip.uin.template.property</t>
+  </si>
+  <si>
+    <t>mosip.perpetual.vid.template.property</t>
+  </si>
+  <si>
+    <t>mosip.phone.template.property</t>
+  </si>
+  <si>
+    <t>mosip.email.template.property</t>
+  </si>
+  <si>
+    <t>mosip.address.template.property</t>
+  </si>
+  <si>
+    <t>mosip.gender.template.property</t>
+  </si>
+  <si>
+    <t>mosip.defualt.template.property</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>UIN</t>
+  </si>
+  <si>
+    <t>Perpetual VID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Defualt</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>vid-card-type</t>
+  </si>
+  <si>
+    <t>Vid Card Type</t>
+  </si>
+  <si>
+    <t>vid-card-download-request-received-email-subject</t>
+  </si>
+  <si>
+    <t>Request received email subject to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-success-email-subject</t>
+  </si>
+  <si>
+    <t>Success email subject to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-failure-email-subject</t>
+  </si>
+  <si>
+    <t>Failure email subject to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-request-received-email-content</t>
+  </si>
+  <si>
+    <t>Request received email to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-success-email-content</t>
+  </si>
+  <si>
+    <t>Success email to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-failure-email-content</t>
+  </si>
+  <si>
+    <t>Failure email to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-request-received_SMS</t>
+  </si>
+  <si>
+    <t>Request received sms to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-success_SMS</t>
+  </si>
+  <si>
+    <t>Success sms to download my VID card</t>
+  </si>
+  <si>
+    <t>vid-card-download-failure_SMS</t>
+  </si>
+  <si>
+    <t>Failure sms to download my VID card</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject Email</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_SMS</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject SMS</t>
+  </si>
+  <si>
+    <t>RPR_SUP_REJECT_EMAIL_SUBJECT</t>
+  </si>
+  <si>
+    <t>Template for Supervisor Reject Email Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1851,6 +2000,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -1890,7 +2045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1901,6 +2056,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1932,7 +2090,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2210,18 +2368,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1703"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1703" sqref="B1703"/>
+    <sheetView tabSelected="1" topLeftCell="A1724" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1730" sqref="F1730"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26066,8 +26224,568 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1704" spans="1:4">
+      <c r="A1704" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1704" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1704" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4">
+      <c r="A1705" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1705" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1705" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4">
+      <c r="A1706" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1706" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1706" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4">
+      <c r="A1707" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1707" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4">
+      <c r="A1708" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1708" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4">
+      <c r="A1709" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1709" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4">
+      <c r="A1710" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1710" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4">
+      <c r="A1711" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1711" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4">
+      <c r="A1712" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1712" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4">
+      <c r="A1713" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1713" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4">
+      <c r="A1714" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1714" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4">
+      <c r="A1715" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1715" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4">
+      <c r="A1716" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1716" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4">
+      <c r="A1717" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1717" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4">
+      <c r="A1718" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1718" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4">
+      <c r="A1719" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1719" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4">
+      <c r="A1720" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1720" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4">
+      <c r="A1721" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1721" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4">
+      <c r="A1722" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1722" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4">
+      <c r="A1723" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>637</v>
+      </c>
+      <c r="D1723" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4">
+      <c r="A1724" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1724" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4">
+      <c r="A1725" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1725" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4">
+      <c r="A1726" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1726" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4">
+      <c r="A1727" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1727" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4">
+      <c r="A1728" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1728" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4">
+      <c r="A1729" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1729" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4">
+      <c r="A1730" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1730" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4">
+      <c r="A1731" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1731" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4">
+      <c r="A1732" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1732" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4">
+      <c r="A1733" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1733" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4">
+      <c r="A1734" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1734" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4">
+      <c r="A1735" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1735" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4">
+      <c r="A1736" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1736" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4">
+      <c r="A1737" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1737" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4">
+      <c r="A1738" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1738" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4">
+      <c r="A1739" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1739" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4">
+      <c r="A1740" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1740" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4">
+      <c r="A1741" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1741" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4">
+      <c r="A1742" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1742" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4">
+      <c r="A1743" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1743" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D400"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP-Team\mosip-data\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87778D35-F03C-4626-B422-D54C36170F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$400</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6972" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6992" uniqueCount="658">
   <si>
     <t>lang_code</t>
   </si>
@@ -1971,12 +1972,42 @@
   </si>
   <si>
     <t>Template for Supervisor Reject Email Subject</t>
+  </si>
+  <si>
+    <t>mosip.province.template.property</t>
+  </si>
+  <si>
+    <t>mosip.city.template.property</t>
+  </si>
+  <si>
+    <t>mosip.zone.template.property</t>
+  </si>
+  <si>
+    <t>mosip.postal.code.template.property</t>
+  </si>
+  <si>
+    <t>mosip.region.template.property</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -2090,7 +2121,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2368,11 +2399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1743"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1724" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1730" sqref="F1730"/>
+    <sheetView tabSelected="1" topLeftCell="A1705" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1718" sqref="C1718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -26369,10 +26400,10 @@
         <v>4</v>
       </c>
       <c r="B1714" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="C1714" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="D1714" s="1" t="s">
         <v>7</v>
@@ -26383,10 +26414,10 @@
         <v>4</v>
       </c>
       <c r="B1715" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="C1715" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="D1715" s="1" t="s">
         <v>7</v>
@@ -26397,10 +26428,10 @@
         <v>4</v>
       </c>
       <c r="B1716" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="C1716" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D1716" s="1" t="s">
         <v>7</v>
@@ -26411,10 +26442,10 @@
         <v>4</v>
       </c>
       <c r="B1717" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="C1717" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="D1717" s="1" t="s">
         <v>7</v>
@@ -26425,10 +26456,10 @@
         <v>4</v>
       </c>
       <c r="B1718" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="C1718" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="D1718" s="1" t="s">
         <v>7</v>
@@ -26439,10 +26470,10 @@
         <v>4</v>
       </c>
       <c r="B1719" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="C1719" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D1719" s="1" t="s">
         <v>7</v>
@@ -26453,10 +26484,10 @@
         <v>4</v>
       </c>
       <c r="B1720" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="C1720" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D1720" s="1" t="s">
         <v>7</v>
@@ -26467,10 +26498,10 @@
         <v>4</v>
       </c>
       <c r="B1721" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C1721" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D1721" s="1" t="s">
         <v>7</v>
@@ -26481,10 +26512,10 @@
         <v>4</v>
       </c>
       <c r="B1722" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C1722" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D1722" s="1" t="s">
         <v>7</v>
@@ -26495,10 +26526,10 @@
         <v>4</v>
       </c>
       <c r="B1723" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C1723" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D1723" s="1" t="s">
         <v>7</v>
@@ -26509,10 +26540,10 @@
         <v>4</v>
       </c>
       <c r="B1724" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C1724" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="D1724" s="1" t="s">
         <v>7</v>
@@ -26523,10 +26554,10 @@
         <v>4</v>
       </c>
       <c r="B1725" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C1725" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D1725" s="1" t="s">
         <v>7</v>
@@ -26537,10 +26568,10 @@
         <v>4</v>
       </c>
       <c r="B1726" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C1726" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D1726" s="1" t="s">
         <v>7</v>
@@ -26551,10 +26582,10 @@
         <v>4</v>
       </c>
       <c r="B1727" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C1727" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D1727" s="1" t="s">
         <v>7</v>
@@ -26562,13 +26593,13 @@
     </row>
     <row r="1728" spans="1:4">
       <c r="A1728" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1728" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C1728" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D1728" s="1" t="s">
         <v>7</v>
@@ -26576,13 +26607,13 @@
     </row>
     <row r="1729" spans="1:4">
       <c r="A1729" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1729" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C1729" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D1729" s="1" t="s">
         <v>7</v>
@@ -26590,13 +26621,13 @@
     </row>
     <row r="1730" spans="1:4">
       <c r="A1730" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B1730" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C1730" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D1730" s="1" t="s">
         <v>7</v>
@@ -26604,13 +26635,13 @@
     </row>
     <row r="1731" spans="1:4">
       <c r="A1731" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B1731" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1731" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1731" s="1" t="s">
         <v>7</v>
@@ -26618,13 +26649,13 @@
     </row>
     <row r="1732" spans="1:4">
       <c r="A1732" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="B1732" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1732" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1732" s="1" t="s">
         <v>7</v>
@@ -26632,13 +26663,13 @@
     </row>
     <row r="1733" spans="1:4">
       <c r="A1733" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B1733" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1733" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1733" s="1" t="s">
         <v>7</v>
@@ -26646,13 +26677,13 @@
     </row>
     <row r="1734" spans="1:4">
       <c r="A1734" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B1734" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1734" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1734" s="1" t="s">
         <v>7</v>
@@ -26660,13 +26691,13 @@
     </row>
     <row r="1735" spans="1:4">
       <c r="A1735" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B1735" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1735" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1735" s="1" t="s">
         <v>7</v>
@@ -26674,13 +26705,13 @@
     </row>
     <row r="1736" spans="1:4">
       <c r="A1736" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B1736" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1736" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1736" s="1" t="s">
         <v>7</v>
@@ -26688,13 +26719,13 @@
     </row>
     <row r="1737" spans="1:4">
       <c r="A1737" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1737" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1737" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1737" s="1" t="s">
         <v>7</v>
@@ -26702,13 +26733,13 @@
     </row>
     <row r="1738" spans="1:4">
       <c r="A1738" t="s">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="B1738" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1738" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1738" s="1" t="s">
         <v>7</v>
@@ -26716,13 +26747,13 @@
     </row>
     <row r="1739" spans="1:4">
       <c r="A1739" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B1739" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1739" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D1739" s="1" t="s">
         <v>7</v>
@@ -26730,13 +26761,13 @@
     </row>
     <row r="1740" spans="1:4">
       <c r="A1740" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B1740" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1740" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1740" s="1" t="s">
         <v>7</v>
@@ -26744,13 +26775,13 @@
     </row>
     <row r="1741" spans="1:4">
       <c r="A1741" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B1741" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1741" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D1741" s="1" t="s">
         <v>7</v>
@@ -26758,13 +26789,13 @@
     </row>
     <row r="1742" spans="1:4">
       <c r="A1742" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B1742" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1742" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1742" s="1" t="s">
         <v>7</v>
@@ -26772,7 +26803,7 @@
     </row>
     <row r="1743" spans="1:4">
       <c r="A1743" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="B1743" t="s">
         <v>646</v>
@@ -26784,8 +26815,78 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1744" spans="1:4">
+      <c r="A1744" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1744" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4">
+      <c r="A1745" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1745" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4">
+      <c r="A1746" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1746" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4">
+      <c r="A1747" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1747" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4">
+      <c r="A1748" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1748" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D400"/>
+  <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87778D35-F03C-4626-B422-D54C36170F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F5D6F-AEEF-4B2A-A358-D97623743B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6992" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7000" uniqueCount="662">
   <si>
     <t>lang_code</t>
   </si>
@@ -2002,6 +2002,18 @@
   </si>
   <si>
     <t>Postal Code</t>
+  </si>
+  <si>
+    <t>mosip.preferred.language.template.property</t>
+  </si>
+  <si>
+    <t>Preferred language</t>
+  </si>
+  <si>
+    <t>mosip.photo.template.property</t>
+  </si>
+  <si>
+    <t>Photo</t>
   </si>
 </sst>
 </file>
@@ -2400,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1748"/>
+  <dimension ref="A1:D1750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1705" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1718" sqref="C1718"/>
+    <sheetView tabSelected="1" topLeftCell="A1716" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1720" sqref="C1720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -26484,10 +26496,10 @@
         <v>4</v>
       </c>
       <c r="B1720" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="C1720" t="s">
-        <v>620</v>
+        <v>661</v>
       </c>
       <c r="D1720" s="1" t="s">
         <v>7</v>
@@ -26498,10 +26510,10 @@
         <v>4</v>
       </c>
       <c r="B1721" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
       <c r="C1721" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="D1721" s="1" t="s">
         <v>7</v>
@@ -26512,10 +26524,10 @@
         <v>4</v>
       </c>
       <c r="B1722" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C1722" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D1722" s="1" t="s">
         <v>7</v>
@@ -26526,10 +26538,10 @@
         <v>4</v>
       </c>
       <c r="B1723" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C1723" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D1723" s="1" t="s">
         <v>7</v>
@@ -26540,10 +26552,10 @@
         <v>4</v>
       </c>
       <c r="B1724" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C1724" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D1724" s="1" t="s">
         <v>7</v>
@@ -26554,10 +26566,10 @@
         <v>4</v>
       </c>
       <c r="B1725" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C1725" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D1725" s="1" t="s">
         <v>7</v>
@@ -26568,10 +26580,10 @@
         <v>4</v>
       </c>
       <c r="B1726" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C1726" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D1726" s="1" t="s">
         <v>7</v>
@@ -26582,10 +26594,10 @@
         <v>4</v>
       </c>
       <c r="B1727" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C1727" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D1727" s="1" t="s">
         <v>7</v>
@@ -26596,10 +26608,10 @@
         <v>4</v>
       </c>
       <c r="B1728" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C1728" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D1728" s="1" t="s">
         <v>7</v>
@@ -26610,10 +26622,10 @@
         <v>4</v>
       </c>
       <c r="B1729" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C1729" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D1729" s="1" t="s">
         <v>7</v>
@@ -26624,10 +26636,10 @@
         <v>4</v>
       </c>
       <c r="B1730" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C1730" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D1730" s="1" t="s">
         <v>7</v>
@@ -26638,10 +26650,10 @@
         <v>4</v>
       </c>
       <c r="B1731" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C1731" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D1731" s="1" t="s">
         <v>7</v>
@@ -26652,10 +26664,10 @@
         <v>4</v>
       </c>
       <c r="B1732" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C1732" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D1732" s="1" t="s">
         <v>7</v>
@@ -26663,7 +26675,7 @@
     </row>
     <row r="1733" spans="1:4">
       <c r="A1733" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1733" t="s">
         <v>642</v>
@@ -26677,7 +26689,7 @@
     </row>
     <row r="1734" spans="1:4">
       <c r="A1734" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1734" t="s">
         <v>644</v>
@@ -26691,7 +26703,7 @@
     </row>
     <row r="1735" spans="1:4">
       <c r="A1735" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1735" t="s">
         <v>642</v>
@@ -26705,7 +26717,7 @@
     </row>
     <row r="1736" spans="1:4">
       <c r="A1736" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1736" t="s">
         <v>644</v>
@@ -26719,7 +26731,7 @@
     </row>
     <row r="1737" spans="1:4">
       <c r="A1737" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B1737" t="s">
         <v>642</v>
@@ -26733,7 +26745,7 @@
     </row>
     <row r="1738" spans="1:4">
       <c r="A1738" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B1738" t="s">
         <v>644</v>
@@ -26747,7 +26759,7 @@
     </row>
     <row r="1739" spans="1:4">
       <c r="A1739" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1739" t="s">
         <v>642</v>
@@ -26761,7 +26773,7 @@
     </row>
     <row r="1740" spans="1:4">
       <c r="A1740" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1740" t="s">
         <v>644</v>
@@ -26775,7 +26787,7 @@
     </row>
     <row r="1741" spans="1:4">
       <c r="A1741" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1741" t="s">
         <v>642</v>
@@ -26789,7 +26801,7 @@
     </row>
     <row r="1742" spans="1:4">
       <c r="A1742" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1742" t="s">
         <v>644</v>
@@ -26803,13 +26815,13 @@
     </row>
     <row r="1743" spans="1:4">
       <c r="A1743" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="B1743" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1743" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D1743" s="1" t="s">
         <v>7</v>
@@ -26817,13 +26829,13 @@
     </row>
     <row r="1744" spans="1:4">
       <c r="A1744" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B1744" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1744" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1744" s="1" t="s">
         <v>7</v>
@@ -26831,7 +26843,7 @@
     </row>
     <row r="1745" spans="1:4">
       <c r="A1745" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B1745" t="s">
         <v>646</v>
@@ -26845,7 +26857,7 @@
     </row>
     <row r="1746" spans="1:4">
       <c r="A1746" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B1746" t="s">
         <v>646</v>
@@ -26859,7 +26871,7 @@
     </row>
     <row r="1747" spans="1:4">
       <c r="A1747" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B1747" t="s">
         <v>646</v>
@@ -26873,7 +26885,7 @@
     </row>
     <row r="1748" spans="1:4">
       <c r="A1748" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1748" t="s">
         <v>646</v>
@@ -26882,6 +26894,34 @@
         <v>647</v>
       </c>
       <c r="D1748" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4">
+      <c r="A1749" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1749" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4">
+      <c r="A1750" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1750" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F5D6F-AEEF-4B2A-A358-D97623743B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E622F0E-CE90-40B5-AE3C-0DC534EC9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7000" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="668">
   <si>
     <t>lang_code</t>
   </si>
@@ -2014,6 +2014,24 @@
   </si>
   <si>
     <t>Photo</t>
+  </si>
+  <si>
+    <t>mosip.address.line1.template.property</t>
+  </si>
+  <si>
+    <t>mosip.address.line2.template.property</t>
+  </si>
+  <si>
+    <t>mosip.address.line3.template.property</t>
+  </si>
+  <si>
+    <t>Address line1</t>
+  </si>
+  <si>
+    <t>Address line2</t>
+  </si>
+  <si>
+    <t>Address line3</t>
   </si>
 </sst>
 </file>
@@ -2412,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1750"/>
+  <dimension ref="A1:D1753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1716" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1720" sqref="C1720"/>
+    <sheetView tabSelected="1" topLeftCell="A1710" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1716" sqref="C1716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -26412,10 +26430,10 @@
         <v>4</v>
       </c>
       <c r="B1714" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C1714" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="D1714" s="1" t="s">
         <v>7</v>
@@ -26426,10 +26444,10 @@
         <v>4</v>
       </c>
       <c r="B1715" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="C1715" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D1715" s="1" t="s">
         <v>7</v>
@@ -26440,10 +26458,10 @@
         <v>4</v>
       </c>
       <c r="B1716" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="C1716" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="D1716" s="1" t="s">
         <v>7</v>
@@ -26454,10 +26472,10 @@
         <v>4</v>
       </c>
       <c r="B1717" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C1717" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D1717" s="1" t="s">
         <v>7</v>
@@ -26468,10 +26486,10 @@
         <v>4</v>
       </c>
       <c r="B1718" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C1718" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D1718" s="1" t="s">
         <v>7</v>
@@ -26482,10 +26500,10 @@
         <v>4</v>
       </c>
       <c r="B1719" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="C1719" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="D1719" s="1" t="s">
         <v>7</v>
@@ -26496,10 +26514,10 @@
         <v>4</v>
       </c>
       <c r="B1720" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C1720" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D1720" s="1" t="s">
         <v>7</v>
@@ -26510,10 +26528,10 @@
         <v>4</v>
       </c>
       <c r="B1721" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C1721" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D1721" s="1" t="s">
         <v>7</v>
@@ -26524,10 +26542,10 @@
         <v>4</v>
       </c>
       <c r="B1722" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C1722" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D1722" s="1" t="s">
         <v>7</v>
@@ -26538,10 +26556,10 @@
         <v>4</v>
       </c>
       <c r="B1723" t="s">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="C1723" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
       <c r="D1723" s="1" t="s">
         <v>7</v>
@@ -26552,10 +26570,10 @@
         <v>4</v>
       </c>
       <c r="B1724" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="C1724" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="D1724" s="1" t="s">
         <v>7</v>
@@ -26566,10 +26584,10 @@
         <v>4</v>
       </c>
       <c r="B1725" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="C1725" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D1725" s="1" t="s">
         <v>7</v>
@@ -26580,10 +26598,10 @@
         <v>4</v>
       </c>
       <c r="B1726" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C1726" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D1726" s="1" t="s">
         <v>7</v>
@@ -26594,10 +26612,10 @@
         <v>4</v>
       </c>
       <c r="B1727" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C1727" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D1727" s="1" t="s">
         <v>7</v>
@@ -26608,10 +26626,10 @@
         <v>4</v>
       </c>
       <c r="B1728" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C1728" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D1728" s="1" t="s">
         <v>7</v>
@@ -26622,10 +26640,10 @@
         <v>4</v>
       </c>
       <c r="B1729" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C1729" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D1729" s="1" t="s">
         <v>7</v>
@@ -26636,10 +26654,10 @@
         <v>4</v>
       </c>
       <c r="B1730" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C1730" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D1730" s="1" t="s">
         <v>7</v>
@@ -26650,10 +26668,10 @@
         <v>4</v>
       </c>
       <c r="B1731" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C1731" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D1731" s="1" t="s">
         <v>7</v>
@@ -26664,10 +26682,10 @@
         <v>4</v>
       </c>
       <c r="B1732" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C1732" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D1732" s="1" t="s">
         <v>7</v>
@@ -26678,10 +26696,10 @@
         <v>4</v>
       </c>
       <c r="B1733" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C1733" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D1733" s="1" t="s">
         <v>7</v>
@@ -26692,10 +26710,10 @@
         <v>4</v>
       </c>
       <c r="B1734" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C1734" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D1734" s="1" t="s">
         <v>7</v>
@@ -26703,13 +26721,13 @@
     </row>
     <row r="1735" spans="1:4">
       <c r="A1735" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1735" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C1735" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D1735" s="1" t="s">
         <v>7</v>
@@ -26717,13 +26735,13 @@
     </row>
     <row r="1736" spans="1:4">
       <c r="A1736" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1736" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1736" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1736" s="1" t="s">
         <v>7</v>
@@ -26731,13 +26749,13 @@
     </row>
     <row r="1737" spans="1:4">
       <c r="A1737" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B1737" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1737" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1737" s="1" t="s">
         <v>7</v>
@@ -26745,13 +26763,13 @@
     </row>
     <row r="1738" spans="1:4">
       <c r="A1738" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1738" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1738" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1738" s="1" t="s">
         <v>7</v>
@@ -26759,13 +26777,13 @@
     </row>
     <row r="1739" spans="1:4">
       <c r="A1739" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B1739" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1739" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1739" s="1" t="s">
         <v>7</v>
@@ -26773,13 +26791,13 @@
     </row>
     <row r="1740" spans="1:4">
       <c r="A1740" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B1740" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1740" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1740" s="1" t="s">
         <v>7</v>
@@ -26787,13 +26805,13 @@
     </row>
     <row r="1741" spans="1:4">
       <c r="A1741" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B1741" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1741" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1741" s="1" t="s">
         <v>7</v>
@@ -26801,13 +26819,13 @@
     </row>
     <row r="1742" spans="1:4">
       <c r="A1742" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1742" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1742" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1742" s="1" t="s">
         <v>7</v>
@@ -26815,13 +26833,13 @@
     </row>
     <row r="1743" spans="1:4">
       <c r="A1743" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1743" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1743" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D1743" s="1" t="s">
         <v>7</v>
@@ -26829,13 +26847,13 @@
     </row>
     <row r="1744" spans="1:4">
       <c r="A1744" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1744" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C1744" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1744" s="1" t="s">
         <v>7</v>
@@ -26843,13 +26861,13 @@
     </row>
     <row r="1745" spans="1:4">
       <c r="A1745" t="s">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="B1745" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1745" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1745" s="1" t="s">
         <v>7</v>
@@ -26857,13 +26875,13 @@
     </row>
     <row r="1746" spans="1:4">
       <c r="A1746" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B1746" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1746" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D1746" s="1" t="s">
         <v>7</v>
@@ -26871,13 +26889,13 @@
     </row>
     <row r="1747" spans="1:4">
       <c r="A1747" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B1747" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1747" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1747" s="1" t="s">
         <v>7</v>
@@ -26885,7 +26903,7 @@
     </row>
     <row r="1748" spans="1:4">
       <c r="A1748" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="B1748" t="s">
         <v>646</v>
@@ -26899,7 +26917,7 @@
     </row>
     <row r="1749" spans="1:4">
       <c r="A1749" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B1749" t="s">
         <v>646</v>
@@ -26913,7 +26931,7 @@
     </row>
     <row r="1750" spans="1:4">
       <c r="A1750" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B1750" t="s">
         <v>646</v>
@@ -26922,6 +26940,48 @@
         <v>647</v>
       </c>
       <c r="D1750" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4">
+      <c r="A1751" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1751" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4">
+      <c r="A1752" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1752" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4">
+      <c r="A1753" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1753" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E622F0E-CE90-40B5-AE3C-0DC534EC9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494A80A-3FC8-490A-AFFC-9AF3F37FB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="684">
   <si>
     <t>lang_code</t>
   </si>
@@ -2032,6 +2032,54 @@
   </si>
   <si>
     <t>Address line3</t>
+  </si>
+  <si>
+    <t>mosip.otp-email.template.property</t>
+  </si>
+  <si>
+    <t>mosip.otp-phone.template.property</t>
+  </si>
+  <si>
+    <t>mosip.demo.template.property</t>
+  </si>
+  <si>
+    <t>mosip.bio-finger.template.property</t>
+  </si>
+  <si>
+    <t>mosip.bio-iris.template.property</t>
+  </si>
+  <si>
+    <t>mosip.bio-face.template.property</t>
+  </si>
+  <si>
+    <t>Email otp</t>
+  </si>
+  <si>
+    <t>Phone otp</t>
+  </si>
+  <si>
+    <t>Demographic</t>
+  </si>
+  <si>
+    <t>Finger bio</t>
+  </si>
+  <si>
+    <t>Iris bio</t>
+  </si>
+  <si>
+    <t>Face bio</t>
+  </si>
+  <si>
+    <t>mosip.locked.template.property</t>
+  </si>
+  <si>
+    <t>mosip.unlocked.template.property</t>
+  </si>
+  <si>
+    <t>Unlocked status</t>
+  </si>
+  <si>
+    <t>Locked status</t>
   </si>
 </sst>
 </file>
@@ -2430,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1753"/>
+  <dimension ref="A1:D1761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1710" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1716" sqref="C1716"/>
+    <sheetView tabSelected="1" topLeftCell="A1752" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1763" sqref="C1763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -26985,6 +27033,118 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1754" spans="1:4">
+      <c r="A1754" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1754" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4">
+      <c r="A1755" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1755" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4">
+      <c r="A1756" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>670</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>676</v>
+      </c>
+      <c r="D1756" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4">
+      <c r="A1757" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1757" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4">
+      <c r="A1758" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1758" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4">
+      <c r="A1759" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1759" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4">
+      <c r="A1760" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1760" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4">
+      <c r="A1761" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1761" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494A80A-3FC8-490A-AFFC-9AF3F37FB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536BDB59-3B88-491A-9ED7-3FE2320E4B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="684">
   <si>
     <t>lang_code</t>
   </si>
@@ -2478,17 +2478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1761"/>
+  <dimension ref="A1:D1779"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1752" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1763" sqref="C1763"/>
+      <selection activeCell="C1759" sqref="C1759"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -27142,6 +27142,258 @@
         <v>683</v>
       </c>
       <c r="D1761" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4">
+      <c r="A1762" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1762" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4">
+      <c r="A1763" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1763" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4">
+      <c r="A1764" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1764" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4">
+      <c r="A1765" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1765" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4">
+      <c r="A1766" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1766" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4">
+      <c r="A1767" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1767" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4">
+      <c r="A1768" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1768" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4">
+      <c r="A1769" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1769" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4">
+      <c r="A1770" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1770" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4">
+      <c r="A1771" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1771" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4">
+      <c r="A1772" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1772" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4">
+      <c r="A1773" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1773" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4">
+      <c r="A1774" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1774" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4">
+      <c r="A1775" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1775" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4">
+      <c r="A1776" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1776" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4">
+      <c r="A1777" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1777" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4">
+      <c r="A1778" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1778" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4">
+      <c r="A1779" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1779" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP-Team\mosip-data\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536BDB59-3B88-491A-9ED7-3FE2320E4B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$400</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6972" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="684">
   <si>
     <t>lang_code</t>
   </si>
@@ -1971,12 +1972,120 @@
   </si>
   <si>
     <t>Template for Supervisor Reject Email Subject</t>
+  </si>
+  <si>
+    <t>mosip.province.template.property</t>
+  </si>
+  <si>
+    <t>mosip.city.template.property</t>
+  </si>
+  <si>
+    <t>mosip.zone.template.property</t>
+  </si>
+  <si>
+    <t>mosip.postal.code.template.property</t>
+  </si>
+  <si>
+    <t>mosip.region.template.property</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>mosip.preferred.language.template.property</t>
+  </si>
+  <si>
+    <t>Preferred language</t>
+  </si>
+  <si>
+    <t>mosip.photo.template.property</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>mosip.address.line1.template.property</t>
+  </si>
+  <si>
+    <t>mosip.address.line2.template.property</t>
+  </si>
+  <si>
+    <t>mosip.address.line3.template.property</t>
+  </si>
+  <si>
+    <t>Address line1</t>
+  </si>
+  <si>
+    <t>Address line2</t>
+  </si>
+  <si>
+    <t>Address line3</t>
+  </si>
+  <si>
+    <t>mosip.otp-email.template.property</t>
+  </si>
+  <si>
+    <t>mosip.otp-phone.template.property</t>
+  </si>
+  <si>
+    <t>mosip.demo.template.property</t>
+  </si>
+  <si>
+    <t>mosip.bio-finger.template.property</t>
+  </si>
+  <si>
+    <t>mosip.bio-iris.template.property</t>
+  </si>
+  <si>
+    <t>mosip.bio-face.template.property</t>
+  </si>
+  <si>
+    <t>Email otp</t>
+  </si>
+  <si>
+    <t>Phone otp</t>
+  </si>
+  <si>
+    <t>Demographic</t>
+  </si>
+  <si>
+    <t>Finger bio</t>
+  </si>
+  <si>
+    <t>Iris bio</t>
+  </si>
+  <si>
+    <t>Face bio</t>
+  </si>
+  <si>
+    <t>mosip.locked.template.property</t>
+  </si>
+  <si>
+    <t>mosip.unlocked.template.property</t>
+  </si>
+  <si>
+    <t>Unlocked status</t>
+  </si>
+  <si>
+    <t>Locked status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -2090,7 +2199,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2368,18 +2477,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1743"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1724" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1730" sqref="F1730"/>
+    <sheetView tabSelected="1" topLeftCell="A1752" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1759" sqref="C1759"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26369,10 +26478,10 @@
         <v>4</v>
       </c>
       <c r="B1714" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="C1714" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="D1714" s="1" t="s">
         <v>7</v>
@@ -26383,10 +26492,10 @@
         <v>4</v>
       </c>
       <c r="B1715" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="C1715" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="D1715" s="1" t="s">
         <v>7</v>
@@ -26397,10 +26506,10 @@
         <v>4</v>
       </c>
       <c r="B1716" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="C1716" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
       <c r="D1716" s="1" t="s">
         <v>7</v>
@@ -26411,10 +26520,10 @@
         <v>4</v>
       </c>
       <c r="B1717" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="C1717" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="D1717" s="1" t="s">
         <v>7</v>
@@ -26425,10 +26534,10 @@
         <v>4</v>
       </c>
       <c r="B1718" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="C1718" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="D1718" s="1" t="s">
         <v>7</v>
@@ -26439,10 +26548,10 @@
         <v>4</v>
       </c>
       <c r="B1719" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="C1719" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="D1719" s="1" t="s">
         <v>7</v>
@@ -26453,10 +26562,10 @@
         <v>4</v>
       </c>
       <c r="B1720" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="C1720" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="D1720" s="1" t="s">
         <v>7</v>
@@ -26467,10 +26576,10 @@
         <v>4</v>
       </c>
       <c r="B1721" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="C1721" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="D1721" s="1" t="s">
         <v>7</v>
@@ -26481,10 +26590,10 @@
         <v>4</v>
       </c>
       <c r="B1722" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="C1722" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D1722" s="1" t="s">
         <v>7</v>
@@ -26495,10 +26604,10 @@
         <v>4</v>
       </c>
       <c r="B1723" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C1723" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="D1723" s="1" t="s">
         <v>7</v>
@@ -26509,10 +26618,10 @@
         <v>4</v>
       </c>
       <c r="B1724" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="C1724" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="D1724" s="1" t="s">
         <v>7</v>
@@ -26523,10 +26632,10 @@
         <v>4</v>
       </c>
       <c r="B1725" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="C1725" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D1725" s="1" t="s">
         <v>7</v>
@@ -26537,10 +26646,10 @@
         <v>4</v>
       </c>
       <c r="B1726" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="C1726" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="D1726" s="1" t="s">
         <v>7</v>
@@ -26551,10 +26660,10 @@
         <v>4</v>
       </c>
       <c r="B1727" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="C1727" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="D1727" s="1" t="s">
         <v>7</v>
@@ -26562,13 +26671,13 @@
     </row>
     <row r="1728" spans="1:4">
       <c r="A1728" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1728" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C1728" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="D1728" s="1" t="s">
         <v>7</v>
@@ -26576,13 +26685,13 @@
     </row>
     <row r="1729" spans="1:4">
       <c r="A1729" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="B1729" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="C1729" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D1729" s="1" t="s">
         <v>7</v>
@@ -26590,13 +26699,13 @@
     </row>
     <row r="1730" spans="1:4">
       <c r="A1730" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B1730" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="C1730" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="D1730" s="1" t="s">
         <v>7</v>
@@ -26604,13 +26713,13 @@
     </row>
     <row r="1731" spans="1:4">
       <c r="A1731" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B1731" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C1731" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D1731" s="1" t="s">
         <v>7</v>
@@ -26618,13 +26727,13 @@
     </row>
     <row r="1732" spans="1:4">
       <c r="A1732" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="B1732" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C1732" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D1732" s="1" t="s">
         <v>7</v>
@@ -26632,13 +26741,13 @@
     </row>
     <row r="1733" spans="1:4">
       <c r="A1733" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="B1733" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C1733" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D1733" s="1" t="s">
         <v>7</v>
@@ -26646,13 +26755,13 @@
     </row>
     <row r="1734" spans="1:4">
       <c r="A1734" t="s">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="B1734" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C1734" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D1734" s="1" t="s">
         <v>7</v>
@@ -26660,13 +26769,13 @@
     </row>
     <row r="1735" spans="1:4">
       <c r="A1735" t="s">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="B1735" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C1735" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D1735" s="1" t="s">
         <v>7</v>
@@ -26674,7 +26783,7 @@
     </row>
     <row r="1736" spans="1:4">
       <c r="A1736" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="B1736" t="s">
         <v>642</v>
@@ -26688,7 +26797,7 @@
     </row>
     <row r="1737" spans="1:4">
       <c r="A1737" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="B1737" t="s">
         <v>644</v>
@@ -26702,13 +26811,13 @@
     </row>
     <row r="1738" spans="1:4">
       <c r="A1738" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="B1738" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1738" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D1738" s="1" t="s">
         <v>7</v>
@@ -26719,10 +26828,10 @@
         <v>293</v>
       </c>
       <c r="B1739" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1739" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1739" s="1" t="s">
         <v>7</v>
@@ -26733,10 +26842,10 @@
         <v>294</v>
       </c>
       <c r="B1740" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1740" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D1740" s="1" t="s">
         <v>7</v>
@@ -26744,13 +26853,13 @@
     </row>
     <row r="1741" spans="1:4">
       <c r="A1741" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B1741" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1741" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1741" s="1" t="s">
         <v>7</v>
@@ -26758,13 +26867,13 @@
     </row>
     <row r="1742" spans="1:4">
       <c r="A1742" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1742" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1742" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D1742" s="1" t="s">
         <v>7</v>
@@ -26772,20 +26881,524 @@
     </row>
     <row r="1743" spans="1:4">
       <c r="A1743" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1743" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1743" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4">
+      <c r="A1744" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1744" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4">
+      <c r="A1745" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1745" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4">
+      <c r="A1746" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1746" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4">
+      <c r="A1747" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1747" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4">
+      <c r="A1748" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1748" t="s">
         <v>646</v>
       </c>
-      <c r="C1743" t="s">
+      <c r="C1748" t="s">
         <v>647</v>
       </c>
-      <c r="D1743" s="1" t="s">
+      <c r="D1748" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4">
+      <c r="A1749" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1749" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4">
+      <c r="A1750" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1750" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4">
+      <c r="A1751" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1751" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4">
+      <c r="A1752" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1752" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4">
+      <c r="A1753" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1753" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4">
+      <c r="A1754" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1754" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4">
+      <c r="A1755" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1755" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4">
+      <c r="A1756" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>670</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>676</v>
+      </c>
+      <c r="D1756" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4">
+      <c r="A1757" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1757" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4">
+      <c r="A1758" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1758" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4">
+      <c r="A1759" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1759" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4">
+      <c r="A1760" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1760" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4">
+      <c r="A1761" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1761" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4">
+      <c r="A1762" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1762" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4">
+      <c r="A1763" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1763" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4">
+      <c r="A1764" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1764" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4">
+      <c r="A1765" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1765" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4">
+      <c r="A1766" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1766" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4">
+      <c r="A1767" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1767" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4">
+      <c r="A1768" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1768" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4">
+      <c r="A1769" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1769" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4">
+      <c r="A1770" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1770" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4">
+      <c r="A1771" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1771" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4">
+      <c r="A1772" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1772" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4">
+      <c r="A1773" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1773" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4">
+      <c r="A1774" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1774" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4">
+      <c r="A1775" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1775" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4">
+      <c r="A1776" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1776" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4">
+      <c r="A1777" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1777" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4">
+      <c r="A1778" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1778" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4">
+      <c r="A1779" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1779" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D400"/>
+  <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E92173D-F462-49D4-A0E1-04E09237AA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E8D824-C08A-4C44-9480-149ED5502CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8904" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8988" uniqueCount="691">
   <si>
     <t>lang_code</t>
   </si>
@@ -2078,6 +2078,24 @@
   </si>
   <si>
     <t>spa</t>
+  </si>
+  <si>
+    <t>mosip.event.status.success.template</t>
+  </si>
+  <si>
+    <t>mosip.event.status.failed.template</t>
+  </si>
+  <si>
+    <t>mosip.event.status.inprogress.template</t>
+  </si>
+  <si>
+    <t>Success event status</t>
+  </si>
+  <si>
+    <t>Failed event status</t>
+  </si>
+  <si>
+    <t>In progress event status</t>
   </si>
 </sst>
 </file>
@@ -2497,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2226"/>
+  <dimension ref="A1:D2247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2227" sqref="A2227"/>
+    <sheetView tabSelected="1" topLeftCell="A2235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2248" sqref="A2248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -33674,6 +33692,300 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2227" spans="1:4">
+      <c r="A2227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2227" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4">
+      <c r="A2228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2228" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4">
+      <c r="A2229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2229" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:4">
+      <c r="A2230" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2230" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:4">
+      <c r="A2231" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2231" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:4">
+      <c r="A2232" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2232" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:4">
+      <c r="A2233" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2233" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:4">
+      <c r="A2234" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2234" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:4">
+      <c r="A2235" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2235" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:4">
+      <c r="A2236" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2236" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:4">
+      <c r="A2237" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2237" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:4">
+      <c r="A2238" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2238" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:4">
+      <c r="A2239" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2239" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:4">
+      <c r="A2240" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2240" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:4">
+      <c r="A2241" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:4">
+      <c r="A2242" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2242" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:4">
+      <c r="A2243" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2243" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:4">
+      <c r="A2244" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2244" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:4">
+      <c r="A2245" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2245" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:4">
+      <c r="A2246" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2246" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:4">
+      <c r="A2247" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E8D824-C08A-4C44-9480-149ED5502CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB5609-948E-4530-9863-17363723231D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8988" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9772" uniqueCount="747">
   <si>
     <t>lang_code</t>
   </si>
@@ -2096,6 +2096,174 @@
   </si>
   <si>
     <t>In progress event status</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-REQUEST.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.DEMO-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FINGERPRINT-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IRIS-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FACE-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-STORAGE.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.EKYC-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-EXCHANGE.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IDENTITY-KEY-BINDING.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-REQUEST.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-AUTH.Y</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-REQUEST.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.DEMO-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FINGERPRINT-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IRIS-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FACE-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-STORAGE.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.EKYC-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-AUTH.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-EXCHANGE.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IDENTITY-KEY-BINDING.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-REQUEST.N</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-AUTH.N</t>
+  </si>
+  <si>
+    <t>OTP Request Success</t>
+  </si>
+  <si>
+    <t>OTP Authentication Success</t>
+  </si>
+  <si>
+    <t>Demo Authentication Success</t>
+  </si>
+  <si>
+    <t>Finger Authentication Success</t>
+  </si>
+  <si>
+    <t>Iris  Authentication Success</t>
+  </si>
+  <si>
+    <t>Face Authentication Success</t>
+  </si>
+  <si>
+    <t>Pin Authentication Success</t>
+  </si>
+  <si>
+    <t>Static Pin Store Request Success</t>
+  </si>
+  <si>
+    <t>EKYC Authentication Request Success</t>
+  </si>
+  <si>
+    <t>KYC Authentication Request Success</t>
+  </si>
+  <si>
+    <t>KYC Exchange Request Success</t>
+  </si>
+  <si>
+    <t>Identity Key Binding Request Success</t>
+  </si>
+  <si>
+    <t>Token Request Success</t>
+  </si>
+  <si>
+    <t>Token based Authentication Success</t>
+  </si>
+  <si>
+    <t>OTP Request Failed</t>
+  </si>
+  <si>
+    <t>OTP Authentication Failed</t>
+  </si>
+  <si>
+    <t>Demo Authentication Failed</t>
+  </si>
+  <si>
+    <t>Finger Authentication Failed</t>
+  </si>
+  <si>
+    <t>Iris  Authentication Failed</t>
+  </si>
+  <si>
+    <t>Face Authentication Failed</t>
+  </si>
+  <si>
+    <t>Pin Authentication Failed</t>
+  </si>
+  <si>
+    <t>Static Pin Store Request Failed</t>
+  </si>
+  <si>
+    <t>EKYC Authentication Request Failed</t>
+  </si>
+  <si>
+    <t>KYC Authentication Request Failed</t>
+  </si>
+  <si>
+    <t>KYC Exchange Request Failed</t>
+  </si>
+  <si>
+    <t>Identity Key Binding Request Failed</t>
+  </si>
+  <si>
+    <t>Token Request Failed</t>
+  </si>
+  <si>
+    <t>Token based Authentication Failed</t>
   </si>
 </sst>
 </file>
@@ -2515,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2247"/>
+  <dimension ref="A1:D2443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2248" sqref="A2248"/>
+    <sheetView tabSelected="1" topLeftCell="A2430" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2444" sqref="A2444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -33986,6 +34154,2750 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2248" spans="1:4">
+      <c r="A2248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2248" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:4">
+      <c r="A2249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2249" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:4">
+      <c r="A2250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2250" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:4">
+      <c r="A2251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2251" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:4">
+      <c r="A2252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:4">
+      <c r="A2253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2253" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:4">
+      <c r="A2254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2254" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:4">
+      <c r="A2255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2255" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:4">
+      <c r="A2256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2256" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:4">
+      <c r="A2257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2257" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:4">
+      <c r="A2258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2258" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:4">
+      <c r="A2259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2259" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:4">
+      <c r="A2260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:4">
+      <c r="A2261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2261" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:4">
+      <c r="A2262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2262" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:4">
+      <c r="A2263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2263" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:4">
+      <c r="A2264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:4">
+      <c r="A2265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2265" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:4">
+      <c r="A2266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2266" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:4">
+      <c r="A2267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2267" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:4">
+      <c r="A2268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2268" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:4">
+      <c r="A2269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:4">
+      <c r="A2270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2270" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:4">
+      <c r="A2271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2271" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:4">
+      <c r="A2272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2272" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:4">
+      <c r="A2273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2273" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:4">
+      <c r="A2274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2274" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:4">
+      <c r="A2275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2275" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:4">
+      <c r="A2276" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2276" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:4">
+      <c r="A2277" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2277" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:4">
+      <c r="A2278" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2278" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:4">
+      <c r="A2279" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:4">
+      <c r="A2280" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2280" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:4">
+      <c r="A2281" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2281" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:4">
+      <c r="A2282" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2282" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:4">
+      <c r="A2283" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2283" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:4">
+      <c r="A2284" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2284" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:4">
+      <c r="A2285" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2285" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:4">
+      <c r="A2286" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2286" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:4">
+      <c r="A2287" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2287" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:4">
+      <c r="A2288" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2288" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:4">
+      <c r="A2289" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2289" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:4">
+      <c r="A2290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2290" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:4">
+      <c r="A2291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2291" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:4">
+      <c r="A2292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2292" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:4">
+      <c r="A2293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2293" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:4">
+      <c r="A2294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2294" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:4">
+      <c r="A2295" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2295" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:4">
+      <c r="A2296" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2296" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:4">
+      <c r="A2297" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2297" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:4">
+      <c r="A2298" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2298" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:4">
+      <c r="A2299" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2299" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:4">
+      <c r="A2300" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:4">
+      <c r="A2301" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2301" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:4">
+      <c r="A2302" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2302" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:4">
+      <c r="A2303" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2303" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:4">
+      <c r="A2304" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2304" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:4">
+      <c r="A2305" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2305" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:4">
+      <c r="A2306" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2306" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:4">
+      <c r="A2307" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2307" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:4">
+      <c r="A2308" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:4">
+      <c r="A2309" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:4">
+      <c r="A2310" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2310" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:4">
+      <c r="A2311" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2311" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:4">
+      <c r="A2312" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2312" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:4">
+      <c r="A2313" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2313" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:4">
+      <c r="A2314" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:4">
+      <c r="A2315" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2315" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:4">
+      <c r="A2316" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:4">
+      <c r="A2317" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2317" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:4">
+      <c r="A2318" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2318" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:4">
+      <c r="A2319" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2319" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:4">
+      <c r="A2320" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2320" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:4">
+      <c r="A2321" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2321" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:4">
+      <c r="A2322" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2322" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:4">
+      <c r="A2323" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2323" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:4">
+      <c r="A2324" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2324" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:4">
+      <c r="A2325" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2325" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:4">
+      <c r="A2326" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2326" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:4">
+      <c r="A2327" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2327" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:4">
+      <c r="A2328" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2328" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:4">
+      <c r="A2329" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2329" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:4">
+      <c r="A2330" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:4">
+      <c r="A2331" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2331" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:4">
+      <c r="A2332" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2332" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:4">
+      <c r="A2333" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2333" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:4">
+      <c r="A2334" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2334" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:4">
+      <c r="A2335" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2335" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:4">
+      <c r="A2336" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2336" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:4">
+      <c r="A2337" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2337" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:4">
+      <c r="A2338" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2338" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:4">
+      <c r="A2339" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2339" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:4">
+      <c r="A2340" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2340" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:4">
+      <c r="A2341" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2341" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:4">
+      <c r="A2342" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2342" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:4">
+      <c r="A2343" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2343" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:4">
+      <c r="A2344" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2344" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:4">
+      <c r="A2345" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2345" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:4">
+      <c r="A2346" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2346" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:4">
+      <c r="A2347" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2347" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:4">
+      <c r="A2348" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2348" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:4">
+      <c r="A2349" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2349" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:4">
+      <c r="A2350" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2350" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:4">
+      <c r="A2351" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2351" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:4">
+      <c r="A2352" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2352" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:4">
+      <c r="A2353" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2353" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:4">
+      <c r="A2354" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2354" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:4">
+      <c r="A2355" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2355" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:4">
+      <c r="A2356" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2356" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:4">
+      <c r="A2357" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2357" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:4">
+      <c r="A2358" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2358" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:4">
+      <c r="A2359" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2359" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:4">
+      <c r="A2360" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2360" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:4">
+      <c r="A2361" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2361" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:4">
+      <c r="A2362" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2362" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:4">
+      <c r="A2363" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2363" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:4">
+      <c r="A2364" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2364" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:4">
+      <c r="A2365" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2365" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:4">
+      <c r="A2366" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2366" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:4">
+      <c r="A2367" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2367" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:4">
+      <c r="A2368" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2368" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:4">
+      <c r="A2369" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2369" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:4">
+      <c r="A2370" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2370" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:4">
+      <c r="A2371" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2371" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:4">
+      <c r="A2372" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2372" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:4">
+      <c r="A2373" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2373" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:4">
+      <c r="A2374" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2374" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:4">
+      <c r="A2375" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2375" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:4">
+      <c r="A2376" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2376" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:4">
+      <c r="A2377" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2377" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:4">
+      <c r="A2378" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2378" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:4">
+      <c r="A2379" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2379" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:4">
+      <c r="A2380" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2380" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:4">
+      <c r="A2381" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2381" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:4">
+      <c r="A2382" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2382" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:4">
+      <c r="A2383" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2383" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:4">
+      <c r="A2384" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2384" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:4">
+      <c r="A2385" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2385" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:4">
+      <c r="A2386" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2386" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:4">
+      <c r="A2387" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2387" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:4">
+      <c r="A2388" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2388" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:4">
+      <c r="A2389" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2389" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:4">
+      <c r="A2390" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2390" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:4">
+      <c r="A2391" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2391" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:4">
+      <c r="A2392" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2392" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:4">
+      <c r="A2393" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2393" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:4">
+      <c r="A2394" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2394" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:4">
+      <c r="A2395" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2395" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:4">
+      <c r="A2396" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2396" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:4">
+      <c r="A2397" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2397" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:4">
+      <c r="A2398" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2398" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4">
+      <c r="A2399" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2399" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:4">
+      <c r="A2400" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2400" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4">
+      <c r="A2401" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2401" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:4">
+      <c r="A2402" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2402" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4">
+      <c r="A2403" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2403" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4">
+      <c r="A2404" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2404" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4">
+      <c r="A2405" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2405" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4">
+      <c r="A2406" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2406" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4">
+      <c r="A2407" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2407" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4">
+      <c r="A2408" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2408" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4">
+      <c r="A2409" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2409" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4">
+      <c r="A2410" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2410" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4">
+      <c r="A2411" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2411" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4">
+      <c r="A2412" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2412" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4">
+      <c r="A2413" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2413" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4">
+      <c r="A2414" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2414" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4">
+      <c r="A2415" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2415" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4">
+      <c r="A2416" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2416" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:4">
+      <c r="A2417" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2417" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4">
+      <c r="A2418" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2418" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4">
+      <c r="A2419" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2419" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4">
+      <c r="A2420" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2420" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4">
+      <c r="A2421" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2421" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4">
+      <c r="A2422" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2422" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4">
+      <c r="A2423" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2423" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4">
+      <c r="A2424" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4">
+      <c r="A2425" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2425" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4">
+      <c r="A2426" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2426" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4">
+      <c r="A2427" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2427" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4">
+      <c r="A2428" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2428" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4">
+      <c r="A2429" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2429" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4">
+      <c r="A2430" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2430" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4">
+      <c r="A2431" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2431" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4">
+      <c r="A2432" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>707</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2432" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4">
+      <c r="A2433" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4">
+      <c r="A2434" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2434" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4">
+      <c r="A2435" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2435" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4">
+      <c r="A2436" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2436" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4">
+      <c r="A2437" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2437" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4">
+      <c r="A2438" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2438" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4">
+      <c r="A2439" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2439" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4">
+      <c r="A2440" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2440" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4">
+      <c r="A2441" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2441" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4">
+      <c r="A2442" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2442" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4">
+      <c r="A2443" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2443" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB5609-948E-4530-9863-17363723231D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47532A-C573-4679-B035-A1344A948F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9772" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10388" uniqueCount="790">
   <si>
     <t>lang_code</t>
   </si>
@@ -2098,90 +2098,6 @@
     <t>In progress event status</t>
   </si>
   <si>
-    <t>mosip.ida.auth-request.OTP-REQUEST.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.OTP-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.DEMO-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.FINGERPRINT-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.IRIS-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.FACE-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.STATIC-PIN-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.STATIC-PIN-STORAGE.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.EKYC-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.KYC-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.KYC-EXCHANGE.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.IDENTITY-KEY-BINDING.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.TOKEN-REQUEST.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.TOKEN-AUTH.Y</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.OTP-REQUEST.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.OTP-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.DEMO-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.FINGERPRINT-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.IRIS-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.FACE-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.STATIC-PIN-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.STATIC-PIN-STORAGE.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.EKYC-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.KYC-AUTH.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.KYC-EXCHANGE.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.IDENTITY-KEY-BINDING.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.TOKEN-REQUEST.N</t>
-  </si>
-  <si>
-    <t>mosip.ida.auth-request.TOKEN-AUTH.N</t>
-  </si>
-  <si>
     <t>OTP Request Success</t>
   </si>
   <si>
@@ -2264,6 +2180,219 @@
   </si>
   <si>
     <t>Token based Authentication Failed</t>
+  </si>
+  <si>
+    <t>Unknown Request/Authentication Success</t>
+  </si>
+  <si>
+    <t>Unknown Request/Authentication Failed</t>
+  </si>
+  <si>
+    <t>OTP Request</t>
+  </si>
+  <si>
+    <t>OTP Authentication</t>
+  </si>
+  <si>
+    <t>Demo Authentication</t>
+  </si>
+  <si>
+    <t>Finger Authentication</t>
+  </si>
+  <si>
+    <t>Iris  Authentication</t>
+  </si>
+  <si>
+    <t>Face Authentication</t>
+  </si>
+  <si>
+    <t>Pin Authentication</t>
+  </si>
+  <si>
+    <t>Static Pin Store Request</t>
+  </si>
+  <si>
+    <t>EKYC Authentication Request</t>
+  </si>
+  <si>
+    <t>KYC Authentication Request</t>
+  </si>
+  <si>
+    <t>KYC Exchange Request</t>
+  </si>
+  <si>
+    <t>Identity Key Binding Request</t>
+  </si>
+  <si>
+    <t>Token Request</t>
+  </si>
+  <si>
+    <t>Token based Authentication</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>L1-bio-device</t>
+  </si>
+  <si>
+    <t>Unknown Request/Authentication</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-REQUEST.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.DEMO-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FINGERPRINT-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IRIS-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FACE-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-STORAGE.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.EKYC-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-EXCHANGE.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IDENTITY-KEY-BINDING.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-REQUEST.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-AUTH.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-REQUEST.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.OTP-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.DEMO-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FINGERPRINT-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IRIS-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.FACE-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.STATIC-PIN-STORAGE.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.EKYC-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.KYC-EXCHANGE.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.IDENTITY-KEY-BINDING.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-REQUEST.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.TOKEN-AUTH.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.UNKNOWN.Y.descr</t>
+  </si>
+  <si>
+    <t>mosip.ida.auth-request.UNKNOWN.N.descr</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.OTP-REQUEST</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.OTP-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.DEMO-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.FINGERPRINT-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.IRIS-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.FACE-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.STATIC-PIN-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.STATIC-PIN-STORAGE</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.EKYC-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.KYC-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.KYC-EXCHANGE</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.IDENTITY-KEY-BINDING</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.TOKEN-REQUEST</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.TOKEN-AUTH</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.PWD</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.PIN</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.OTP</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.Wallet</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.L1-bio-device</t>
+  </si>
+  <si>
+    <t>mosip.auth-type-code.UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -2683,10 +2812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2443"/>
+  <dimension ref="A1:D2597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2430" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2444" sqref="A2444"/>
+    <sheetView tabSelected="1" topLeftCell="A2589" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2598" sqref="A2598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -34159,10 +34288,10 @@
         <v>4</v>
       </c>
       <c r="B2248" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2248" t="s">
         <v>691</v>
-      </c>
-      <c r="C2248" t="s">
-        <v>719</v>
       </c>
       <c r="D2248" s="1" t="s">
         <v>7</v>
@@ -34173,10 +34302,10 @@
         <v>4</v>
       </c>
       <c r="B2249" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2249" t="s">
         <v>692</v>
-      </c>
-      <c r="C2249" t="s">
-        <v>720</v>
       </c>
       <c r="D2249" s="1" t="s">
         <v>7</v>
@@ -34187,10 +34316,10 @@
         <v>4</v>
       </c>
       <c r="B2250" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2250" t="s">
         <v>693</v>
-      </c>
-      <c r="C2250" t="s">
-        <v>721</v>
       </c>
       <c r="D2250" s="1" t="s">
         <v>7</v>
@@ -34201,10 +34330,10 @@
         <v>4</v>
       </c>
       <c r="B2251" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2251" t="s">
         <v>694</v>
-      </c>
-      <c r="C2251" t="s">
-        <v>722</v>
       </c>
       <c r="D2251" s="1" t="s">
         <v>7</v>
@@ -34215,10 +34344,10 @@
         <v>4</v>
       </c>
       <c r="B2252" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2252" t="s">
         <v>695</v>
-      </c>
-      <c r="C2252" t="s">
-        <v>723</v>
       </c>
       <c r="D2252" s="1" t="s">
         <v>7</v>
@@ -34229,10 +34358,10 @@
         <v>4</v>
       </c>
       <c r="B2253" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2253" t="s">
         <v>696</v>
-      </c>
-      <c r="C2253" t="s">
-        <v>724</v>
       </c>
       <c r="D2253" s="1" t="s">
         <v>7</v>
@@ -34243,10 +34372,10 @@
         <v>4</v>
       </c>
       <c r="B2254" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2254" t="s">
         <v>697</v>
-      </c>
-      <c r="C2254" t="s">
-        <v>725</v>
       </c>
       <c r="D2254" s="1" t="s">
         <v>7</v>
@@ -34257,10 +34386,10 @@
         <v>4</v>
       </c>
       <c r="B2255" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2255" t="s">
         <v>698</v>
-      </c>
-      <c r="C2255" t="s">
-        <v>726</v>
       </c>
       <c r="D2255" s="1" t="s">
         <v>7</v>
@@ -34271,10 +34400,10 @@
         <v>4</v>
       </c>
       <c r="B2256" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2256" t="s">
         <v>699</v>
-      </c>
-      <c r="C2256" t="s">
-        <v>727</v>
       </c>
       <c r="D2256" s="1" t="s">
         <v>7</v>
@@ -34285,10 +34414,10 @@
         <v>4</v>
       </c>
       <c r="B2257" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2257" t="s">
         <v>700</v>
-      </c>
-      <c r="C2257" t="s">
-        <v>728</v>
       </c>
       <c r="D2257" s="1" t="s">
         <v>7</v>
@@ -34299,10 +34428,10 @@
         <v>4</v>
       </c>
       <c r="B2258" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2258" t="s">
         <v>701</v>
-      </c>
-      <c r="C2258" t="s">
-        <v>729</v>
       </c>
       <c r="D2258" s="1" t="s">
         <v>7</v>
@@ -34313,10 +34442,10 @@
         <v>4</v>
       </c>
       <c r="B2259" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2259" t="s">
         <v>702</v>
-      </c>
-      <c r="C2259" t="s">
-        <v>730</v>
       </c>
       <c r="D2259" s="1" t="s">
         <v>7</v>
@@ -34327,10 +34456,10 @@
         <v>4</v>
       </c>
       <c r="B2260" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2260" t="s">
         <v>703</v>
-      </c>
-      <c r="C2260" t="s">
-        <v>731</v>
       </c>
       <c r="D2260" s="1" t="s">
         <v>7</v>
@@ -34341,10 +34470,10 @@
         <v>4</v>
       </c>
       <c r="B2261" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2261" t="s">
         <v>704</v>
-      </c>
-      <c r="C2261" t="s">
-        <v>732</v>
       </c>
       <c r="D2261" s="1" t="s">
         <v>7</v>
@@ -34355,10 +34484,10 @@
         <v>4</v>
       </c>
       <c r="B2262" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2262" t="s">
         <v>705</v>
-      </c>
-      <c r="C2262" t="s">
-        <v>733</v>
       </c>
       <c r="D2262" s="1" t="s">
         <v>7</v>
@@ -34369,10 +34498,10 @@
         <v>4</v>
       </c>
       <c r="B2263" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2263" t="s">
         <v>706</v>
-      </c>
-      <c r="C2263" t="s">
-        <v>734</v>
       </c>
       <c r="D2263" s="1" t="s">
         <v>7</v>
@@ -34383,10 +34512,10 @@
         <v>4</v>
       </c>
       <c r="B2264" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2264" t="s">
         <v>707</v>
-      </c>
-      <c r="C2264" t="s">
-        <v>735</v>
       </c>
       <c r="D2264" s="1" t="s">
         <v>7</v>
@@ -34397,10 +34526,10 @@
         <v>4</v>
       </c>
       <c r="B2265" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2265" t="s">
         <v>708</v>
-      </c>
-      <c r="C2265" t="s">
-        <v>736</v>
       </c>
       <c r="D2265" s="1" t="s">
         <v>7</v>
@@ -34411,10 +34540,10 @@
         <v>4</v>
       </c>
       <c r="B2266" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2266" t="s">
         <v>709</v>
-      </c>
-      <c r="C2266" t="s">
-        <v>737</v>
       </c>
       <c r="D2266" s="1" t="s">
         <v>7</v>
@@ -34425,10 +34554,10 @@
         <v>4</v>
       </c>
       <c r="B2267" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2267" t="s">
         <v>710</v>
-      </c>
-      <c r="C2267" t="s">
-        <v>738</v>
       </c>
       <c r="D2267" s="1" t="s">
         <v>7</v>
@@ -34439,10 +34568,10 @@
         <v>4</v>
       </c>
       <c r="B2268" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2268" t="s">
         <v>711</v>
-      </c>
-      <c r="C2268" t="s">
-        <v>739</v>
       </c>
       <c r="D2268" s="1" t="s">
         <v>7</v>
@@ -34453,10 +34582,10 @@
         <v>4</v>
       </c>
       <c r="B2269" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2269" t="s">
         <v>712</v>
-      </c>
-      <c r="C2269" t="s">
-        <v>740</v>
       </c>
       <c r="D2269" s="1" t="s">
         <v>7</v>
@@ -34467,10 +34596,10 @@
         <v>4</v>
       </c>
       <c r="B2270" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2270" t="s">
         <v>713</v>
-      </c>
-      <c r="C2270" t="s">
-        <v>741</v>
       </c>
       <c r="D2270" s="1" t="s">
         <v>7</v>
@@ -34481,10 +34610,10 @@
         <v>4</v>
       </c>
       <c r="B2271" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2271" t="s">
         <v>714</v>
-      </c>
-      <c r="C2271" t="s">
-        <v>742</v>
       </c>
       <c r="D2271" s="1" t="s">
         <v>7</v>
@@ -34495,10 +34624,10 @@
         <v>4</v>
       </c>
       <c r="B2272" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2272" t="s">
         <v>715</v>
-      </c>
-      <c r="C2272" t="s">
-        <v>743</v>
       </c>
       <c r="D2272" s="1" t="s">
         <v>7</v>
@@ -34509,10 +34638,10 @@
         <v>4</v>
       </c>
       <c r="B2273" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2273" t="s">
         <v>716</v>
-      </c>
-      <c r="C2273" t="s">
-        <v>744</v>
       </c>
       <c r="D2273" s="1" t="s">
         <v>7</v>
@@ -34523,10 +34652,10 @@
         <v>4</v>
       </c>
       <c r="B2274" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2274" t="s">
         <v>717</v>
-      </c>
-      <c r="C2274" t="s">
-        <v>745</v>
       </c>
       <c r="D2274" s="1" t="s">
         <v>7</v>
@@ -34537,10 +34666,10 @@
         <v>4</v>
       </c>
       <c r="B2275" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2275" t="s">
         <v>718</v>
-      </c>
-      <c r="C2275" t="s">
-        <v>746</v>
       </c>
       <c r="D2275" s="1" t="s">
         <v>7</v>
@@ -34551,10 +34680,10 @@
         <v>293</v>
       </c>
       <c r="B2276" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2276" t="s">
         <v>691</v>
-      </c>
-      <c r="C2276" t="s">
-        <v>719</v>
       </c>
       <c r="D2276" s="1" t="s">
         <v>7</v>
@@ -34565,10 +34694,10 @@
         <v>293</v>
       </c>
       <c r="B2277" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2277" t="s">
         <v>692</v>
-      </c>
-      <c r="C2277" t="s">
-        <v>720</v>
       </c>
       <c r="D2277" s="1" t="s">
         <v>7</v>
@@ -34579,10 +34708,10 @@
         <v>293</v>
       </c>
       <c r="B2278" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2278" t="s">
         <v>693</v>
-      </c>
-      <c r="C2278" t="s">
-        <v>721</v>
       </c>
       <c r="D2278" s="1" t="s">
         <v>7</v>
@@ -34593,10 +34722,10 @@
         <v>293</v>
       </c>
       <c r="B2279" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2279" t="s">
         <v>694</v>
-      </c>
-      <c r="C2279" t="s">
-        <v>722</v>
       </c>
       <c r="D2279" s="1" t="s">
         <v>7</v>
@@ -34607,10 +34736,10 @@
         <v>293</v>
       </c>
       <c r="B2280" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2280" t="s">
         <v>695</v>
-      </c>
-      <c r="C2280" t="s">
-        <v>723</v>
       </c>
       <c r="D2280" s="1" t="s">
         <v>7</v>
@@ -34621,10 +34750,10 @@
         <v>293</v>
       </c>
       <c r="B2281" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2281" t="s">
         <v>696</v>
-      </c>
-      <c r="C2281" t="s">
-        <v>724</v>
       </c>
       <c r="D2281" s="1" t="s">
         <v>7</v>
@@ -34635,10 +34764,10 @@
         <v>293</v>
       </c>
       <c r="B2282" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2282" t="s">
         <v>697</v>
-      </c>
-      <c r="C2282" t="s">
-        <v>725</v>
       </c>
       <c r="D2282" s="1" t="s">
         <v>7</v>
@@ -34649,10 +34778,10 @@
         <v>293</v>
       </c>
       <c r="B2283" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2283" t="s">
         <v>698</v>
-      </c>
-      <c r="C2283" t="s">
-        <v>726</v>
       </c>
       <c r="D2283" s="1" t="s">
         <v>7</v>
@@ -34663,10 +34792,10 @@
         <v>293</v>
       </c>
       <c r="B2284" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2284" t="s">
         <v>699</v>
-      </c>
-      <c r="C2284" t="s">
-        <v>727</v>
       </c>
       <c r="D2284" s="1" t="s">
         <v>7</v>
@@ -34677,10 +34806,10 @@
         <v>293</v>
       </c>
       <c r="B2285" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2285" t="s">
         <v>700</v>
-      </c>
-      <c r="C2285" t="s">
-        <v>728</v>
       </c>
       <c r="D2285" s="1" t="s">
         <v>7</v>
@@ -34691,10 +34820,10 @@
         <v>293</v>
       </c>
       <c r="B2286" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2286" t="s">
         <v>701</v>
-      </c>
-      <c r="C2286" t="s">
-        <v>729</v>
       </c>
       <c r="D2286" s="1" t="s">
         <v>7</v>
@@ -34705,10 +34834,10 @@
         <v>293</v>
       </c>
       <c r="B2287" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2287" t="s">
         <v>702</v>
-      </c>
-      <c r="C2287" t="s">
-        <v>730</v>
       </c>
       <c r="D2287" s="1" t="s">
         <v>7</v>
@@ -34719,10 +34848,10 @@
         <v>293</v>
       </c>
       <c r="B2288" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2288" t="s">
         <v>703</v>
-      </c>
-      <c r="C2288" t="s">
-        <v>731</v>
       </c>
       <c r="D2288" s="1" t="s">
         <v>7</v>
@@ -34733,10 +34862,10 @@
         <v>293</v>
       </c>
       <c r="B2289" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2289" t="s">
         <v>704</v>
-      </c>
-      <c r="C2289" t="s">
-        <v>732</v>
       </c>
       <c r="D2289" s="1" t="s">
         <v>7</v>
@@ -34747,10 +34876,10 @@
         <v>293</v>
       </c>
       <c r="B2290" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2290" t="s">
         <v>705</v>
-      </c>
-      <c r="C2290" t="s">
-        <v>733</v>
       </c>
       <c r="D2290" s="1" t="s">
         <v>7</v>
@@ -34761,10 +34890,10 @@
         <v>293</v>
       </c>
       <c r="B2291" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2291" t="s">
         <v>706</v>
-      </c>
-      <c r="C2291" t="s">
-        <v>734</v>
       </c>
       <c r="D2291" s="1" t="s">
         <v>7</v>
@@ -34775,10 +34904,10 @@
         <v>293</v>
       </c>
       <c r="B2292" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2292" t="s">
         <v>707</v>
-      </c>
-      <c r="C2292" t="s">
-        <v>735</v>
       </c>
       <c r="D2292" s="1" t="s">
         <v>7</v>
@@ -34789,10 +34918,10 @@
         <v>293</v>
       </c>
       <c r="B2293" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2293" t="s">
         <v>708</v>
-      </c>
-      <c r="C2293" t="s">
-        <v>736</v>
       </c>
       <c r="D2293" s="1" t="s">
         <v>7</v>
@@ -34803,10 +34932,10 @@
         <v>293</v>
       </c>
       <c r="B2294" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2294" t="s">
         <v>709</v>
-      </c>
-      <c r="C2294" t="s">
-        <v>737</v>
       </c>
       <c r="D2294" s="1" t="s">
         <v>7</v>
@@ -34817,10 +34946,10 @@
         <v>293</v>
       </c>
       <c r="B2295" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2295" t="s">
         <v>710</v>
-      </c>
-      <c r="C2295" t="s">
-        <v>738</v>
       </c>
       <c r="D2295" s="1" t="s">
         <v>7</v>
@@ -34831,10 +34960,10 @@
         <v>293</v>
       </c>
       <c r="B2296" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2296" t="s">
         <v>711</v>
-      </c>
-      <c r="C2296" t="s">
-        <v>739</v>
       </c>
       <c r="D2296" s="1" t="s">
         <v>7</v>
@@ -34845,10 +34974,10 @@
         <v>293</v>
       </c>
       <c r="B2297" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2297" t="s">
         <v>712</v>
-      </c>
-      <c r="C2297" t="s">
-        <v>740</v>
       </c>
       <c r="D2297" s="1" t="s">
         <v>7</v>
@@ -34859,10 +34988,10 @@
         <v>293</v>
       </c>
       <c r="B2298" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2298" t="s">
         <v>713</v>
-      </c>
-      <c r="C2298" t="s">
-        <v>741</v>
       </c>
       <c r="D2298" s="1" t="s">
         <v>7</v>
@@ -34873,10 +35002,10 @@
         <v>293</v>
       </c>
       <c r="B2299" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2299" t="s">
         <v>714</v>
-      </c>
-      <c r="C2299" t="s">
-        <v>742</v>
       </c>
       <c r="D2299" s="1" t="s">
         <v>7</v>
@@ -34887,10 +35016,10 @@
         <v>293</v>
       </c>
       <c r="B2300" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2300" t="s">
         <v>715</v>
-      </c>
-      <c r="C2300" t="s">
-        <v>743</v>
       </c>
       <c r="D2300" s="1" t="s">
         <v>7</v>
@@ -34901,10 +35030,10 @@
         <v>293</v>
       </c>
       <c r="B2301" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2301" t="s">
         <v>716</v>
-      </c>
-      <c r="C2301" t="s">
-        <v>744</v>
       </c>
       <c r="D2301" s="1" t="s">
         <v>7</v>
@@ -34915,10 +35044,10 @@
         <v>293</v>
       </c>
       <c r="B2302" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2302" t="s">
         <v>717</v>
-      </c>
-      <c r="C2302" t="s">
-        <v>745</v>
       </c>
       <c r="D2302" s="1" t="s">
         <v>7</v>
@@ -34929,10 +35058,10 @@
         <v>293</v>
       </c>
       <c r="B2303" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2303" t="s">
         <v>718</v>
-      </c>
-      <c r="C2303" t="s">
-        <v>746</v>
       </c>
       <c r="D2303" s="1" t="s">
         <v>7</v>
@@ -34943,10 +35072,10 @@
         <v>294</v>
       </c>
       <c r="B2304" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2304" t="s">
         <v>691</v>
-      </c>
-      <c r="C2304" t="s">
-        <v>719</v>
       </c>
       <c r="D2304" s="1" t="s">
         <v>7</v>
@@ -34957,10 +35086,10 @@
         <v>294</v>
       </c>
       <c r="B2305" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2305" t="s">
         <v>692</v>
-      </c>
-      <c r="C2305" t="s">
-        <v>720</v>
       </c>
       <c r="D2305" s="1" t="s">
         <v>7</v>
@@ -34971,10 +35100,10 @@
         <v>294</v>
       </c>
       <c r="B2306" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2306" t="s">
         <v>693</v>
-      </c>
-      <c r="C2306" t="s">
-        <v>721</v>
       </c>
       <c r="D2306" s="1" t="s">
         <v>7</v>
@@ -34985,10 +35114,10 @@
         <v>294</v>
       </c>
       <c r="B2307" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2307" t="s">
         <v>694</v>
-      </c>
-      <c r="C2307" t="s">
-        <v>722</v>
       </c>
       <c r="D2307" s="1" t="s">
         <v>7</v>
@@ -34999,10 +35128,10 @@
         <v>294</v>
       </c>
       <c r="B2308" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2308" t="s">
         <v>695</v>
-      </c>
-      <c r="C2308" t="s">
-        <v>723</v>
       </c>
       <c r="D2308" s="1" t="s">
         <v>7</v>
@@ -35013,10 +35142,10 @@
         <v>294</v>
       </c>
       <c r="B2309" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2309" t="s">
         <v>696</v>
-      </c>
-      <c r="C2309" t="s">
-        <v>724</v>
       </c>
       <c r="D2309" s="1" t="s">
         <v>7</v>
@@ -35027,10 +35156,10 @@
         <v>294</v>
       </c>
       <c r="B2310" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2310" t="s">
         <v>697</v>
-      </c>
-      <c r="C2310" t="s">
-        <v>725</v>
       </c>
       <c r="D2310" s="1" t="s">
         <v>7</v>
@@ -35041,10 +35170,10 @@
         <v>294</v>
       </c>
       <c r="B2311" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2311" t="s">
         <v>698</v>
-      </c>
-      <c r="C2311" t="s">
-        <v>726</v>
       </c>
       <c r="D2311" s="1" t="s">
         <v>7</v>
@@ -35055,10 +35184,10 @@
         <v>294</v>
       </c>
       <c r="B2312" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2312" t="s">
         <v>699</v>
-      </c>
-      <c r="C2312" t="s">
-        <v>727</v>
       </c>
       <c r="D2312" s="1" t="s">
         <v>7</v>
@@ -35069,10 +35198,10 @@
         <v>294</v>
       </c>
       <c r="B2313" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2313" t="s">
         <v>700</v>
-      </c>
-      <c r="C2313" t="s">
-        <v>728</v>
       </c>
       <c r="D2313" s="1" t="s">
         <v>7</v>
@@ -35083,10 +35212,10 @@
         <v>294</v>
       </c>
       <c r="B2314" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2314" t="s">
         <v>701</v>
-      </c>
-      <c r="C2314" t="s">
-        <v>729</v>
       </c>
       <c r="D2314" s="1" t="s">
         <v>7</v>
@@ -35097,10 +35226,10 @@
         <v>294</v>
       </c>
       <c r="B2315" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2315" t="s">
         <v>702</v>
-      </c>
-      <c r="C2315" t="s">
-        <v>730</v>
       </c>
       <c r="D2315" s="1" t="s">
         <v>7</v>
@@ -35111,10 +35240,10 @@
         <v>294</v>
       </c>
       <c r="B2316" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2316" t="s">
         <v>703</v>
-      </c>
-      <c r="C2316" t="s">
-        <v>731</v>
       </c>
       <c r="D2316" s="1" t="s">
         <v>7</v>
@@ -35125,10 +35254,10 @@
         <v>294</v>
       </c>
       <c r="B2317" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2317" t="s">
         <v>704</v>
-      </c>
-      <c r="C2317" t="s">
-        <v>732</v>
       </c>
       <c r="D2317" s="1" t="s">
         <v>7</v>
@@ -35139,10 +35268,10 @@
         <v>294</v>
       </c>
       <c r="B2318" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2318" t="s">
         <v>705</v>
-      </c>
-      <c r="C2318" t="s">
-        <v>733</v>
       </c>
       <c r="D2318" s="1" t="s">
         <v>7</v>
@@ -35153,10 +35282,10 @@
         <v>294</v>
       </c>
       <c r="B2319" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2319" t="s">
         <v>706</v>
-      </c>
-      <c r="C2319" t="s">
-        <v>734</v>
       </c>
       <c r="D2319" s="1" t="s">
         <v>7</v>
@@ -35167,10 +35296,10 @@
         <v>294</v>
       </c>
       <c r="B2320" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2320" t="s">
         <v>707</v>
-      </c>
-      <c r="C2320" t="s">
-        <v>735</v>
       </c>
       <c r="D2320" s="1" t="s">
         <v>7</v>
@@ -35181,10 +35310,10 @@
         <v>294</v>
       </c>
       <c r="B2321" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2321" t="s">
         <v>708</v>
-      </c>
-      <c r="C2321" t="s">
-        <v>736</v>
       </c>
       <c r="D2321" s="1" t="s">
         <v>7</v>
@@ -35195,10 +35324,10 @@
         <v>294</v>
       </c>
       <c r="B2322" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2322" t="s">
         <v>709</v>
-      </c>
-      <c r="C2322" t="s">
-        <v>737</v>
       </c>
       <c r="D2322" s="1" t="s">
         <v>7</v>
@@ -35209,10 +35338,10 @@
         <v>294</v>
       </c>
       <c r="B2323" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2323" t="s">
         <v>710</v>
-      </c>
-      <c r="C2323" t="s">
-        <v>738</v>
       </c>
       <c r="D2323" s="1" t="s">
         <v>7</v>
@@ -35223,10 +35352,10 @@
         <v>294</v>
       </c>
       <c r="B2324" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2324" t="s">
         <v>711</v>
-      </c>
-      <c r="C2324" t="s">
-        <v>739</v>
       </c>
       <c r="D2324" s="1" t="s">
         <v>7</v>
@@ -35237,10 +35366,10 @@
         <v>294</v>
       </c>
       <c r="B2325" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2325" t="s">
         <v>712</v>
-      </c>
-      <c r="C2325" t="s">
-        <v>740</v>
       </c>
       <c r="D2325" s="1" t="s">
         <v>7</v>
@@ -35251,10 +35380,10 @@
         <v>294</v>
       </c>
       <c r="B2326" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2326" t="s">
         <v>713</v>
-      </c>
-      <c r="C2326" t="s">
-        <v>741</v>
       </c>
       <c r="D2326" s="1" t="s">
         <v>7</v>
@@ -35265,10 +35394,10 @@
         <v>294</v>
       </c>
       <c r="B2327" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2327" t="s">
         <v>714</v>
-      </c>
-      <c r="C2327" t="s">
-        <v>742</v>
       </c>
       <c r="D2327" s="1" t="s">
         <v>7</v>
@@ -35279,10 +35408,10 @@
         <v>294</v>
       </c>
       <c r="B2328" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2328" t="s">
         <v>715</v>
-      </c>
-      <c r="C2328" t="s">
-        <v>743</v>
       </c>
       <c r="D2328" s="1" t="s">
         <v>7</v>
@@ -35293,10 +35422,10 @@
         <v>294</v>
       </c>
       <c r="B2329" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2329" t="s">
         <v>716</v>
-      </c>
-      <c r="C2329" t="s">
-        <v>744</v>
       </c>
       <c r="D2329" s="1" t="s">
         <v>7</v>
@@ -35307,10 +35436,10 @@
         <v>294</v>
       </c>
       <c r="B2330" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2330" t="s">
         <v>717</v>
-      </c>
-      <c r="C2330" t="s">
-        <v>745</v>
       </c>
       <c r="D2330" s="1" t="s">
         <v>7</v>
@@ -35321,10 +35450,10 @@
         <v>294</v>
       </c>
       <c r="B2331" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2331" t="s">
         <v>718</v>
-      </c>
-      <c r="C2331" t="s">
-        <v>746</v>
       </c>
       <c r="D2331" s="1" t="s">
         <v>7</v>
@@ -35335,10 +35464,10 @@
         <v>302</v>
       </c>
       <c r="B2332" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2332" t="s">
         <v>691</v>
-      </c>
-      <c r="C2332" t="s">
-        <v>719</v>
       </c>
       <c r="D2332" s="1" t="s">
         <v>7</v>
@@ -35349,10 +35478,10 @@
         <v>302</v>
       </c>
       <c r="B2333" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2333" t="s">
         <v>692</v>
-      </c>
-      <c r="C2333" t="s">
-        <v>720</v>
       </c>
       <c r="D2333" s="1" t="s">
         <v>7</v>
@@ -35363,10 +35492,10 @@
         <v>302</v>
       </c>
       <c r="B2334" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2334" t="s">
         <v>693</v>
-      </c>
-      <c r="C2334" t="s">
-        <v>721</v>
       </c>
       <c r="D2334" s="1" t="s">
         <v>7</v>
@@ -35377,10 +35506,10 @@
         <v>302</v>
       </c>
       <c r="B2335" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2335" t="s">
         <v>694</v>
-      </c>
-      <c r="C2335" t="s">
-        <v>722</v>
       </c>
       <c r="D2335" s="1" t="s">
         <v>7</v>
@@ -35391,10 +35520,10 @@
         <v>302</v>
       </c>
       <c r="B2336" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2336" t="s">
         <v>695</v>
-      </c>
-      <c r="C2336" t="s">
-        <v>723</v>
       </c>
       <c r="D2336" s="1" t="s">
         <v>7</v>
@@ -35405,10 +35534,10 @@
         <v>302</v>
       </c>
       <c r="B2337" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2337" t="s">
         <v>696</v>
-      </c>
-      <c r="C2337" t="s">
-        <v>724</v>
       </c>
       <c r="D2337" s="1" t="s">
         <v>7</v>
@@ -35419,10 +35548,10 @@
         <v>302</v>
       </c>
       <c r="B2338" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2338" t="s">
         <v>697</v>
-      </c>
-      <c r="C2338" t="s">
-        <v>725</v>
       </c>
       <c r="D2338" s="1" t="s">
         <v>7</v>
@@ -35433,10 +35562,10 @@
         <v>302</v>
       </c>
       <c r="B2339" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2339" t="s">
         <v>698</v>
-      </c>
-      <c r="C2339" t="s">
-        <v>726</v>
       </c>
       <c r="D2339" s="1" t="s">
         <v>7</v>
@@ -35447,10 +35576,10 @@
         <v>302</v>
       </c>
       <c r="B2340" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2340" t="s">
         <v>699</v>
-      </c>
-      <c r="C2340" t="s">
-        <v>727</v>
       </c>
       <c r="D2340" s="1" t="s">
         <v>7</v>
@@ -35461,10 +35590,10 @@
         <v>302</v>
       </c>
       <c r="B2341" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2341" t="s">
         <v>700</v>
-      </c>
-      <c r="C2341" t="s">
-        <v>728</v>
       </c>
       <c r="D2341" s="1" t="s">
         <v>7</v>
@@ -35475,10 +35604,10 @@
         <v>302</v>
       </c>
       <c r="B2342" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2342" t="s">
         <v>701</v>
-      </c>
-      <c r="C2342" t="s">
-        <v>729</v>
       </c>
       <c r="D2342" s="1" t="s">
         <v>7</v>
@@ -35489,10 +35618,10 @@
         <v>302</v>
       </c>
       <c r="B2343" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2343" t="s">
         <v>702</v>
-      </c>
-      <c r="C2343" t="s">
-        <v>730</v>
       </c>
       <c r="D2343" s="1" t="s">
         <v>7</v>
@@ -35503,10 +35632,10 @@
         <v>302</v>
       </c>
       <c r="B2344" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2344" t="s">
         <v>703</v>
-      </c>
-      <c r="C2344" t="s">
-        <v>731</v>
       </c>
       <c r="D2344" s="1" t="s">
         <v>7</v>
@@ -35517,10 +35646,10 @@
         <v>302</v>
       </c>
       <c r="B2345" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2345" t="s">
         <v>704</v>
-      </c>
-      <c r="C2345" t="s">
-        <v>732</v>
       </c>
       <c r="D2345" s="1" t="s">
         <v>7</v>
@@ -35531,10 +35660,10 @@
         <v>302</v>
       </c>
       <c r="B2346" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2346" t="s">
         <v>705</v>
-      </c>
-      <c r="C2346" t="s">
-        <v>733</v>
       </c>
       <c r="D2346" s="1" t="s">
         <v>7</v>
@@ -35545,10 +35674,10 @@
         <v>302</v>
       </c>
       <c r="B2347" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2347" t="s">
         <v>706</v>
-      </c>
-      <c r="C2347" t="s">
-        <v>734</v>
       </c>
       <c r="D2347" s="1" t="s">
         <v>7</v>
@@ -35559,10 +35688,10 @@
         <v>302</v>
       </c>
       <c r="B2348" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2348" t="s">
         <v>707</v>
-      </c>
-      <c r="C2348" t="s">
-        <v>735</v>
       </c>
       <c r="D2348" s="1" t="s">
         <v>7</v>
@@ -35573,10 +35702,10 @@
         <v>302</v>
       </c>
       <c r="B2349" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2349" t="s">
         <v>708</v>
-      </c>
-      <c r="C2349" t="s">
-        <v>736</v>
       </c>
       <c r="D2349" s="1" t="s">
         <v>7</v>
@@ -35587,10 +35716,10 @@
         <v>302</v>
       </c>
       <c r="B2350" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2350" t="s">
         <v>709</v>
-      </c>
-      <c r="C2350" t="s">
-        <v>737</v>
       </c>
       <c r="D2350" s="1" t="s">
         <v>7</v>
@@ -35601,10 +35730,10 @@
         <v>302</v>
       </c>
       <c r="B2351" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2351" t="s">
         <v>710</v>
-      </c>
-      <c r="C2351" t="s">
-        <v>738</v>
       </c>
       <c r="D2351" s="1" t="s">
         <v>7</v>
@@ -35615,10 +35744,10 @@
         <v>302</v>
       </c>
       <c r="B2352" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2352" t="s">
         <v>711</v>
-      </c>
-      <c r="C2352" t="s">
-        <v>739</v>
       </c>
       <c r="D2352" s="1" t="s">
         <v>7</v>
@@ -35629,10 +35758,10 @@
         <v>302</v>
       </c>
       <c r="B2353" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2353" t="s">
         <v>712</v>
-      </c>
-      <c r="C2353" t="s">
-        <v>740</v>
       </c>
       <c r="D2353" s="1" t="s">
         <v>7</v>
@@ -35643,10 +35772,10 @@
         <v>302</v>
       </c>
       <c r="B2354" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2354" t="s">
         <v>713</v>
-      </c>
-      <c r="C2354" t="s">
-        <v>741</v>
       </c>
       <c r="D2354" s="1" t="s">
         <v>7</v>
@@ -35657,10 +35786,10 @@
         <v>302</v>
       </c>
       <c r="B2355" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2355" t="s">
         <v>714</v>
-      </c>
-      <c r="C2355" t="s">
-        <v>742</v>
       </c>
       <c r="D2355" s="1" t="s">
         <v>7</v>
@@ -35671,10 +35800,10 @@
         <v>302</v>
       </c>
       <c r="B2356" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2356" t="s">
         <v>715</v>
-      </c>
-      <c r="C2356" t="s">
-        <v>743</v>
       </c>
       <c r="D2356" s="1" t="s">
         <v>7</v>
@@ -35685,10 +35814,10 @@
         <v>302</v>
       </c>
       <c r="B2357" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2357" t="s">
         <v>716</v>
-      </c>
-      <c r="C2357" t="s">
-        <v>744</v>
       </c>
       <c r="D2357" s="1" t="s">
         <v>7</v>
@@ -35699,10 +35828,10 @@
         <v>302</v>
       </c>
       <c r="B2358" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2358" t="s">
         <v>717</v>
-      </c>
-      <c r="C2358" t="s">
-        <v>745</v>
       </c>
       <c r="D2358" s="1" t="s">
         <v>7</v>
@@ -35713,10 +35842,10 @@
         <v>302</v>
       </c>
       <c r="B2359" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2359" t="s">
         <v>718</v>
-      </c>
-      <c r="C2359" t="s">
-        <v>746</v>
       </c>
       <c r="D2359" s="1" t="s">
         <v>7</v>
@@ -35727,10 +35856,10 @@
         <v>303</v>
       </c>
       <c r="B2360" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2360" t="s">
         <v>691</v>
-      </c>
-      <c r="C2360" t="s">
-        <v>719</v>
       </c>
       <c r="D2360" s="1" t="s">
         <v>7</v>
@@ -35741,10 +35870,10 @@
         <v>303</v>
       </c>
       <c r="B2361" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2361" t="s">
         <v>692</v>
-      </c>
-      <c r="C2361" t="s">
-        <v>720</v>
       </c>
       <c r="D2361" s="1" t="s">
         <v>7</v>
@@ -35755,10 +35884,10 @@
         <v>303</v>
       </c>
       <c r="B2362" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2362" t="s">
         <v>693</v>
-      </c>
-      <c r="C2362" t="s">
-        <v>721</v>
       </c>
       <c r="D2362" s="1" t="s">
         <v>7</v>
@@ -35769,10 +35898,10 @@
         <v>303</v>
       </c>
       <c r="B2363" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2363" t="s">
         <v>694</v>
-      </c>
-      <c r="C2363" t="s">
-        <v>722</v>
       </c>
       <c r="D2363" s="1" t="s">
         <v>7</v>
@@ -35783,10 +35912,10 @@
         <v>303</v>
       </c>
       <c r="B2364" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2364" t="s">
         <v>695</v>
-      </c>
-      <c r="C2364" t="s">
-        <v>723</v>
       </c>
       <c r="D2364" s="1" t="s">
         <v>7</v>
@@ -35797,10 +35926,10 @@
         <v>303</v>
       </c>
       <c r="B2365" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2365" t="s">
         <v>696</v>
-      </c>
-      <c r="C2365" t="s">
-        <v>724</v>
       </c>
       <c r="D2365" s="1" t="s">
         <v>7</v>
@@ -35811,10 +35940,10 @@
         <v>303</v>
       </c>
       <c r="B2366" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2366" t="s">
         <v>697</v>
-      </c>
-      <c r="C2366" t="s">
-        <v>725</v>
       </c>
       <c r="D2366" s="1" t="s">
         <v>7</v>
@@ -35825,10 +35954,10 @@
         <v>303</v>
       </c>
       <c r="B2367" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2367" t="s">
         <v>698</v>
-      </c>
-      <c r="C2367" t="s">
-        <v>726</v>
       </c>
       <c r="D2367" s="1" t="s">
         <v>7</v>
@@ -35839,10 +35968,10 @@
         <v>303</v>
       </c>
       <c r="B2368" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2368" t="s">
         <v>699</v>
-      </c>
-      <c r="C2368" t="s">
-        <v>727</v>
       </c>
       <c r="D2368" s="1" t="s">
         <v>7</v>
@@ -35853,10 +35982,10 @@
         <v>303</v>
       </c>
       <c r="B2369" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2369" t="s">
         <v>700</v>
-      </c>
-      <c r="C2369" t="s">
-        <v>728</v>
       </c>
       <c r="D2369" s="1" t="s">
         <v>7</v>
@@ -35867,10 +35996,10 @@
         <v>303</v>
       </c>
       <c r="B2370" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2370" t="s">
         <v>701</v>
-      </c>
-      <c r="C2370" t="s">
-        <v>729</v>
       </c>
       <c r="D2370" s="1" t="s">
         <v>7</v>
@@ -35881,10 +36010,10 @@
         <v>303</v>
       </c>
       <c r="B2371" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2371" t="s">
         <v>702</v>
-      </c>
-      <c r="C2371" t="s">
-        <v>730</v>
       </c>
       <c r="D2371" s="1" t="s">
         <v>7</v>
@@ -35895,10 +36024,10 @@
         <v>303</v>
       </c>
       <c r="B2372" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2372" t="s">
         <v>703</v>
-      </c>
-      <c r="C2372" t="s">
-        <v>731</v>
       </c>
       <c r="D2372" s="1" t="s">
         <v>7</v>
@@ -35909,10 +36038,10 @@
         <v>303</v>
       </c>
       <c r="B2373" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2373" t="s">
         <v>704</v>
-      </c>
-      <c r="C2373" t="s">
-        <v>732</v>
       </c>
       <c r="D2373" s="1" t="s">
         <v>7</v>
@@ -35923,10 +36052,10 @@
         <v>303</v>
       </c>
       <c r="B2374" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2374" t="s">
         <v>705</v>
-      </c>
-      <c r="C2374" t="s">
-        <v>733</v>
       </c>
       <c r="D2374" s="1" t="s">
         <v>7</v>
@@ -35937,10 +36066,10 @@
         <v>303</v>
       </c>
       <c r="B2375" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2375" t="s">
         <v>706</v>
-      </c>
-      <c r="C2375" t="s">
-        <v>734</v>
       </c>
       <c r="D2375" s="1" t="s">
         <v>7</v>
@@ -35951,10 +36080,10 @@
         <v>303</v>
       </c>
       <c r="B2376" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2376" t="s">
         <v>707</v>
-      </c>
-      <c r="C2376" t="s">
-        <v>735</v>
       </c>
       <c r="D2376" s="1" t="s">
         <v>7</v>
@@ -35965,10 +36094,10 @@
         <v>303</v>
       </c>
       <c r="B2377" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2377" t="s">
         <v>708</v>
-      </c>
-      <c r="C2377" t="s">
-        <v>736</v>
       </c>
       <c r="D2377" s="1" t="s">
         <v>7</v>
@@ -35979,10 +36108,10 @@
         <v>303</v>
       </c>
       <c r="B2378" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2378" t="s">
         <v>709</v>
-      </c>
-      <c r="C2378" t="s">
-        <v>737</v>
       </c>
       <c r="D2378" s="1" t="s">
         <v>7</v>
@@ -35993,10 +36122,10 @@
         <v>303</v>
       </c>
       <c r="B2379" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2379" t="s">
         <v>710</v>
-      </c>
-      <c r="C2379" t="s">
-        <v>738</v>
       </c>
       <c r="D2379" s="1" t="s">
         <v>7</v>
@@ -36007,10 +36136,10 @@
         <v>303</v>
       </c>
       <c r="B2380" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2380" t="s">
         <v>711</v>
-      </c>
-      <c r="C2380" t="s">
-        <v>739</v>
       </c>
       <c r="D2380" s="1" t="s">
         <v>7</v>
@@ -36021,10 +36150,10 @@
         <v>303</v>
       </c>
       <c r="B2381" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2381" t="s">
         <v>712</v>
-      </c>
-      <c r="C2381" t="s">
-        <v>740</v>
       </c>
       <c r="D2381" s="1" t="s">
         <v>7</v>
@@ -36035,10 +36164,10 @@
         <v>303</v>
       </c>
       <c r="B2382" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2382" t="s">
         <v>713</v>
-      </c>
-      <c r="C2382" t="s">
-        <v>741</v>
       </c>
       <c r="D2382" s="1" t="s">
         <v>7</v>
@@ -36049,10 +36178,10 @@
         <v>303</v>
       </c>
       <c r="B2383" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2383" t="s">
         <v>714</v>
-      </c>
-      <c r="C2383" t="s">
-        <v>742</v>
       </c>
       <c r="D2383" s="1" t="s">
         <v>7</v>
@@ -36063,10 +36192,10 @@
         <v>303</v>
       </c>
       <c r="B2384" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2384" t="s">
         <v>715</v>
-      </c>
-      <c r="C2384" t="s">
-        <v>743</v>
       </c>
       <c r="D2384" s="1" t="s">
         <v>7</v>
@@ -36077,10 +36206,10 @@
         <v>303</v>
       </c>
       <c r="B2385" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2385" t="s">
         <v>716</v>
-      </c>
-      <c r="C2385" t="s">
-        <v>744</v>
       </c>
       <c r="D2385" s="1" t="s">
         <v>7</v>
@@ -36091,10 +36220,10 @@
         <v>303</v>
       </c>
       <c r="B2386" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2386" t="s">
         <v>717</v>
-      </c>
-      <c r="C2386" t="s">
-        <v>745</v>
       </c>
       <c r="D2386" s="1" t="s">
         <v>7</v>
@@ -36105,10 +36234,10 @@
         <v>303</v>
       </c>
       <c r="B2387" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2387" t="s">
         <v>718</v>
-      </c>
-      <c r="C2387" t="s">
-        <v>746</v>
       </c>
       <c r="D2387" s="1" t="s">
         <v>7</v>
@@ -36119,10 +36248,10 @@
         <v>301</v>
       </c>
       <c r="B2388" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2388" t="s">
         <v>691</v>
-      </c>
-      <c r="C2388" t="s">
-        <v>719</v>
       </c>
       <c r="D2388" s="1" t="s">
         <v>7</v>
@@ -36133,10 +36262,10 @@
         <v>301</v>
       </c>
       <c r="B2389" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2389" t="s">
         <v>692</v>
-      </c>
-      <c r="C2389" t="s">
-        <v>720</v>
       </c>
       <c r="D2389" s="1" t="s">
         <v>7</v>
@@ -36147,10 +36276,10 @@
         <v>301</v>
       </c>
       <c r="B2390" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2390" t="s">
         <v>693</v>
-      </c>
-      <c r="C2390" t="s">
-        <v>721</v>
       </c>
       <c r="D2390" s="1" t="s">
         <v>7</v>
@@ -36161,10 +36290,10 @@
         <v>301</v>
       </c>
       <c r="B2391" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2391" t="s">
         <v>694</v>
-      </c>
-      <c r="C2391" t="s">
-        <v>722</v>
       </c>
       <c r="D2391" s="1" t="s">
         <v>7</v>
@@ -36175,10 +36304,10 @@
         <v>301</v>
       </c>
       <c r="B2392" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2392" t="s">
         <v>695</v>
-      </c>
-      <c r="C2392" t="s">
-        <v>723</v>
       </c>
       <c r="D2392" s="1" t="s">
         <v>7</v>
@@ -36189,10 +36318,10 @@
         <v>301</v>
       </c>
       <c r="B2393" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2393" t="s">
         <v>696</v>
-      </c>
-      <c r="C2393" t="s">
-        <v>724</v>
       </c>
       <c r="D2393" s="1" t="s">
         <v>7</v>
@@ -36203,10 +36332,10 @@
         <v>301</v>
       </c>
       <c r="B2394" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2394" t="s">
         <v>697</v>
-      </c>
-      <c r="C2394" t="s">
-        <v>725</v>
       </c>
       <c r="D2394" s="1" t="s">
         <v>7</v>
@@ -36217,10 +36346,10 @@
         <v>301</v>
       </c>
       <c r="B2395" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2395" t="s">
         <v>698</v>
-      </c>
-      <c r="C2395" t="s">
-        <v>726</v>
       </c>
       <c r="D2395" s="1" t="s">
         <v>7</v>
@@ -36231,10 +36360,10 @@
         <v>301</v>
       </c>
       <c r="B2396" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2396" t="s">
         <v>699</v>
-      </c>
-      <c r="C2396" t="s">
-        <v>727</v>
       </c>
       <c r="D2396" s="1" t="s">
         <v>7</v>
@@ -36245,10 +36374,10 @@
         <v>301</v>
       </c>
       <c r="B2397" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2397" t="s">
         <v>700</v>
-      </c>
-      <c r="C2397" t="s">
-        <v>728</v>
       </c>
       <c r="D2397" s="1" t="s">
         <v>7</v>
@@ -36259,10 +36388,10 @@
         <v>301</v>
       </c>
       <c r="B2398" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2398" t="s">
         <v>701</v>
-      </c>
-      <c r="C2398" t="s">
-        <v>729</v>
       </c>
       <c r="D2398" s="1" t="s">
         <v>7</v>
@@ -36273,10 +36402,10 @@
         <v>301</v>
       </c>
       <c r="B2399" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2399" t="s">
         <v>702</v>
-      </c>
-      <c r="C2399" t="s">
-        <v>730</v>
       </c>
       <c r="D2399" s="1" t="s">
         <v>7</v>
@@ -36287,10 +36416,10 @@
         <v>301</v>
       </c>
       <c r="B2400" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2400" t="s">
         <v>703</v>
-      </c>
-      <c r="C2400" t="s">
-        <v>731</v>
       </c>
       <c r="D2400" s="1" t="s">
         <v>7</v>
@@ -36301,10 +36430,10 @@
         <v>301</v>
       </c>
       <c r="B2401" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2401" t="s">
         <v>704</v>
-      </c>
-      <c r="C2401" t="s">
-        <v>732</v>
       </c>
       <c r="D2401" s="1" t="s">
         <v>7</v>
@@ -36315,10 +36444,10 @@
         <v>301</v>
       </c>
       <c r="B2402" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2402" t="s">
         <v>705</v>
-      </c>
-      <c r="C2402" t="s">
-        <v>733</v>
       </c>
       <c r="D2402" s="1" t="s">
         <v>7</v>
@@ -36329,10 +36458,10 @@
         <v>301</v>
       </c>
       <c r="B2403" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2403" t="s">
         <v>706</v>
-      </c>
-      <c r="C2403" t="s">
-        <v>734</v>
       </c>
       <c r="D2403" s="1" t="s">
         <v>7</v>
@@ -36343,10 +36472,10 @@
         <v>301</v>
       </c>
       <c r="B2404" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2404" t="s">
         <v>707</v>
-      </c>
-      <c r="C2404" t="s">
-        <v>735</v>
       </c>
       <c r="D2404" s="1" t="s">
         <v>7</v>
@@ -36357,10 +36486,10 @@
         <v>301</v>
       </c>
       <c r="B2405" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2405" t="s">
         <v>708</v>
-      </c>
-      <c r="C2405" t="s">
-        <v>736</v>
       </c>
       <c r="D2405" s="1" t="s">
         <v>7</v>
@@ -36371,10 +36500,10 @@
         <v>301</v>
       </c>
       <c r="B2406" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2406" t="s">
         <v>709</v>
-      </c>
-      <c r="C2406" t="s">
-        <v>737</v>
       </c>
       <c r="D2406" s="1" t="s">
         <v>7</v>
@@ -36385,10 +36514,10 @@
         <v>301</v>
       </c>
       <c r="B2407" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2407" t="s">
         <v>710</v>
-      </c>
-      <c r="C2407" t="s">
-        <v>738</v>
       </c>
       <c r="D2407" s="1" t="s">
         <v>7</v>
@@ -36399,10 +36528,10 @@
         <v>301</v>
       </c>
       <c r="B2408" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2408" t="s">
         <v>711</v>
-      </c>
-      <c r="C2408" t="s">
-        <v>739</v>
       </c>
       <c r="D2408" s="1" t="s">
         <v>7</v>
@@ -36413,10 +36542,10 @@
         <v>301</v>
       </c>
       <c r="B2409" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2409" t="s">
         <v>712</v>
-      </c>
-      <c r="C2409" t="s">
-        <v>740</v>
       </c>
       <c r="D2409" s="1" t="s">
         <v>7</v>
@@ -36427,10 +36556,10 @@
         <v>301</v>
       </c>
       <c r="B2410" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2410" t="s">
         <v>713</v>
-      </c>
-      <c r="C2410" t="s">
-        <v>741</v>
       </c>
       <c r="D2410" s="1" t="s">
         <v>7</v>
@@ -36441,10 +36570,10 @@
         <v>301</v>
       </c>
       <c r="B2411" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2411" t="s">
         <v>714</v>
-      </c>
-      <c r="C2411" t="s">
-        <v>742</v>
       </c>
       <c r="D2411" s="1" t="s">
         <v>7</v>
@@ -36455,10 +36584,10 @@
         <v>301</v>
       </c>
       <c r="B2412" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2412" t="s">
         <v>715</v>
-      </c>
-      <c r="C2412" t="s">
-        <v>743</v>
       </c>
       <c r="D2412" s="1" t="s">
         <v>7</v>
@@ -36469,10 +36598,10 @@
         <v>301</v>
       </c>
       <c r="B2413" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2413" t="s">
         <v>716</v>
-      </c>
-      <c r="C2413" t="s">
-        <v>744</v>
       </c>
       <c r="D2413" s="1" t="s">
         <v>7</v>
@@ -36483,10 +36612,10 @@
         <v>301</v>
       </c>
       <c r="B2414" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2414" t="s">
         <v>717</v>
-      </c>
-      <c r="C2414" t="s">
-        <v>745</v>
       </c>
       <c r="D2414" s="1" t="s">
         <v>7</v>
@@ -36497,10 +36626,10 @@
         <v>301</v>
       </c>
       <c r="B2415" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2415" t="s">
         <v>718</v>
-      </c>
-      <c r="C2415" t="s">
-        <v>746</v>
       </c>
       <c r="D2415" s="1" t="s">
         <v>7</v>
@@ -36511,10 +36640,10 @@
         <v>684</v>
       </c>
       <c r="B2416" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2416" t="s">
         <v>691</v>
-      </c>
-      <c r="C2416" t="s">
-        <v>719</v>
       </c>
       <c r="D2416" s="1" t="s">
         <v>7</v>
@@ -36525,10 +36654,10 @@
         <v>684</v>
       </c>
       <c r="B2417" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2417" t="s">
         <v>692</v>
-      </c>
-      <c r="C2417" t="s">
-        <v>720</v>
       </c>
       <c r="D2417" s="1" t="s">
         <v>7</v>
@@ -36539,10 +36668,10 @@
         <v>684</v>
       </c>
       <c r="B2418" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2418" t="s">
         <v>693</v>
-      </c>
-      <c r="C2418" t="s">
-        <v>721</v>
       </c>
       <c r="D2418" s="1" t="s">
         <v>7</v>
@@ -36553,10 +36682,10 @@
         <v>684</v>
       </c>
       <c r="B2419" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2419" t="s">
         <v>694</v>
-      </c>
-      <c r="C2419" t="s">
-        <v>722</v>
       </c>
       <c r="D2419" s="1" t="s">
         <v>7</v>
@@ -36567,10 +36696,10 @@
         <v>684</v>
       </c>
       <c r="B2420" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2420" t="s">
         <v>695</v>
-      </c>
-      <c r="C2420" t="s">
-        <v>723</v>
       </c>
       <c r="D2420" s="1" t="s">
         <v>7</v>
@@ -36581,10 +36710,10 @@
         <v>684</v>
       </c>
       <c r="B2421" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2421" t="s">
         <v>696</v>
-      </c>
-      <c r="C2421" t="s">
-        <v>724</v>
       </c>
       <c r="D2421" s="1" t="s">
         <v>7</v>
@@ -36595,10 +36724,10 @@
         <v>684</v>
       </c>
       <c r="B2422" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2422" t="s">
         <v>697</v>
-      </c>
-      <c r="C2422" t="s">
-        <v>725</v>
       </c>
       <c r="D2422" s="1" t="s">
         <v>7</v>
@@ -36609,10 +36738,10 @@
         <v>684</v>
       </c>
       <c r="B2423" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2423" t="s">
         <v>698</v>
-      </c>
-      <c r="C2423" t="s">
-        <v>726</v>
       </c>
       <c r="D2423" s="1" t="s">
         <v>7</v>
@@ -36623,10 +36752,10 @@
         <v>684</v>
       </c>
       <c r="B2424" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2424" t="s">
         <v>699</v>
-      </c>
-      <c r="C2424" t="s">
-        <v>727</v>
       </c>
       <c r="D2424" s="1" t="s">
         <v>7</v>
@@ -36637,10 +36766,10 @@
         <v>684</v>
       </c>
       <c r="B2425" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2425" t="s">
         <v>700</v>
-      </c>
-      <c r="C2425" t="s">
-        <v>728</v>
       </c>
       <c r="D2425" s="1" t="s">
         <v>7</v>
@@ -36651,10 +36780,10 @@
         <v>684</v>
       </c>
       <c r="B2426" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2426" t="s">
         <v>701</v>
-      </c>
-      <c r="C2426" t="s">
-        <v>729</v>
       </c>
       <c r="D2426" s="1" t="s">
         <v>7</v>
@@ -36665,10 +36794,10 @@
         <v>684</v>
       </c>
       <c r="B2427" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2427" t="s">
         <v>702</v>
-      </c>
-      <c r="C2427" t="s">
-        <v>730</v>
       </c>
       <c r="D2427" s="1" t="s">
         <v>7</v>
@@ -36679,10 +36808,10 @@
         <v>684</v>
       </c>
       <c r="B2428" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2428" t="s">
         <v>703</v>
-      </c>
-      <c r="C2428" t="s">
-        <v>731</v>
       </c>
       <c r="D2428" s="1" t="s">
         <v>7</v>
@@ -36693,10 +36822,10 @@
         <v>684</v>
       </c>
       <c r="B2429" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2429" t="s">
         <v>704</v>
-      </c>
-      <c r="C2429" t="s">
-        <v>732</v>
       </c>
       <c r="D2429" s="1" t="s">
         <v>7</v>
@@ -36707,10 +36836,10 @@
         <v>684</v>
       </c>
       <c r="B2430" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2430" t="s">
         <v>705</v>
-      </c>
-      <c r="C2430" t="s">
-        <v>733</v>
       </c>
       <c r="D2430" s="1" t="s">
         <v>7</v>
@@ -36721,10 +36850,10 @@
         <v>684</v>
       </c>
       <c r="B2431" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2431" t="s">
         <v>706</v>
-      </c>
-      <c r="C2431" t="s">
-        <v>734</v>
       </c>
       <c r="D2431" s="1" t="s">
         <v>7</v>
@@ -36735,10 +36864,10 @@
         <v>684</v>
       </c>
       <c r="B2432" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2432" t="s">
         <v>707</v>
-      </c>
-      <c r="C2432" t="s">
-        <v>735</v>
       </c>
       <c r="D2432" s="1" t="s">
         <v>7</v>
@@ -36749,10 +36878,10 @@
         <v>684</v>
       </c>
       <c r="B2433" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2433" t="s">
         <v>708</v>
-      </c>
-      <c r="C2433" t="s">
-        <v>736</v>
       </c>
       <c r="D2433" s="1" t="s">
         <v>7</v>
@@ -36763,10 +36892,10 @@
         <v>684</v>
       </c>
       <c r="B2434" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2434" t="s">
         <v>709</v>
-      </c>
-      <c r="C2434" t="s">
-        <v>737</v>
       </c>
       <c r="D2434" s="1" t="s">
         <v>7</v>
@@ -36777,10 +36906,10 @@
         <v>684</v>
       </c>
       <c r="B2435" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2435" t="s">
         <v>710</v>
-      </c>
-      <c r="C2435" t="s">
-        <v>738</v>
       </c>
       <c r="D2435" s="1" t="s">
         <v>7</v>
@@ -36791,10 +36920,10 @@
         <v>684</v>
       </c>
       <c r="B2436" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2436" t="s">
         <v>711</v>
-      </c>
-      <c r="C2436" t="s">
-        <v>739</v>
       </c>
       <c r="D2436" s="1" t="s">
         <v>7</v>
@@ -36805,10 +36934,10 @@
         <v>684</v>
       </c>
       <c r="B2437" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2437" t="s">
         <v>712</v>
-      </c>
-      <c r="C2437" t="s">
-        <v>740</v>
       </c>
       <c r="D2437" s="1" t="s">
         <v>7</v>
@@ -36819,10 +36948,10 @@
         <v>684</v>
       </c>
       <c r="B2438" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2438" t="s">
         <v>713</v>
-      </c>
-      <c r="C2438" t="s">
-        <v>741</v>
       </c>
       <c r="D2438" s="1" t="s">
         <v>7</v>
@@ -36833,10 +36962,10 @@
         <v>684</v>
       </c>
       <c r="B2439" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2439" t="s">
         <v>714</v>
-      </c>
-      <c r="C2439" t="s">
-        <v>742</v>
       </c>
       <c r="D2439" s="1" t="s">
         <v>7</v>
@@ -36847,10 +36976,10 @@
         <v>684</v>
       </c>
       <c r="B2440" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2440" t="s">
         <v>715</v>
-      </c>
-      <c r="C2440" t="s">
-        <v>743</v>
       </c>
       <c r="D2440" s="1" t="s">
         <v>7</v>
@@ -36861,10 +36990,10 @@
         <v>684</v>
       </c>
       <c r="B2441" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2441" t="s">
         <v>716</v>
-      </c>
-      <c r="C2441" t="s">
-        <v>744</v>
       </c>
       <c r="D2441" s="1" t="s">
         <v>7</v>
@@ -36875,10 +37004,10 @@
         <v>684</v>
       </c>
       <c r="B2442" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2442" t="s">
         <v>717</v>
-      </c>
-      <c r="C2442" t="s">
-        <v>745</v>
       </c>
       <c r="D2442" s="1" t="s">
         <v>7</v>
@@ -36889,12 +37018,2168 @@
         <v>684</v>
       </c>
       <c r="B2443" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2443" t="s">
         <v>718</v>
       </c>
-      <c r="C2443" t="s">
-        <v>746</v>
-      </c>
       <c r="D2443" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:4">
+      <c r="A2444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2444" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4">
+      <c r="A2445" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2445" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4">
+      <c r="A2446" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2446" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:4">
+      <c r="A2447" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2447" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4">
+      <c r="A2448" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2448" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4">
+      <c r="A2449" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2449" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4">
+      <c r="A2450" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2450" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4">
+      <c r="A2451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2451" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4">
+      <c r="A2452" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2452" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4">
+      <c r="A2453" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2453" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4">
+      <c r="A2454" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2454" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4">
+      <c r="A2455" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2455" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4">
+      <c r="A2456" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2456" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4">
+      <c r="A2457" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2457" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4">
+      <c r="A2458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2458" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4">
+      <c r="A2459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2459" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4">
+      <c r="A2460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2460" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4">
+      <c r="A2461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2461" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4">
+      <c r="A2462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2462" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4">
+      <c r="A2463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2463" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4">
+      <c r="A2464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2464" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4">
+      <c r="A2465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2465" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4">
+      <c r="A2466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2466" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:4">
+      <c r="A2467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2467" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:4">
+      <c r="A2468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2468" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:4">
+      <c r="A2469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2469" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:4">
+      <c r="A2470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2470" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:4">
+      <c r="A2471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2471" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:4">
+      <c r="A2472" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2472" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:4">
+      <c r="A2473" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2473" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:4">
+      <c r="A2474" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2474" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:4">
+      <c r="A2475" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2475" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:4">
+      <c r="A2476" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2476" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:4">
+      <c r="A2477" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2477" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:4">
+      <c r="A2478" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2478" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:4">
+      <c r="A2479" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2479" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:4">
+      <c r="A2480" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2480" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:4">
+      <c r="A2481" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2481" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:4">
+      <c r="A2482" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2482" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:4">
+      <c r="A2483" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2483" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:4">
+      <c r="A2484" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2484" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:4">
+      <c r="A2485" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2485" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:4">
+      <c r="A2486" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2486" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:4">
+      <c r="A2487" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2487" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:4">
+      <c r="A2488" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2488" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:4">
+      <c r="A2489" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2489" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:4">
+      <c r="A2490" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2490" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:4">
+      <c r="A2491" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2491" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:4">
+      <c r="A2492" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2492" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:4">
+      <c r="A2493" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2493" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:4">
+      <c r="A2494" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2494" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:4">
+      <c r="A2495" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2495" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:4">
+      <c r="A2496" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2496" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:4">
+      <c r="A2497" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2497" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:4">
+      <c r="A2498" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2498" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:4">
+      <c r="A2499" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2499" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:4">
+      <c r="A2500" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2500" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:4">
+      <c r="A2501" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2501" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:4">
+      <c r="A2502" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2502" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:4">
+      <c r="A2503" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2503" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:4">
+      <c r="A2504" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2504" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:4">
+      <c r="A2505" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2505" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:4">
+      <c r="A2506" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2506" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:4">
+      <c r="A2507" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2507" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:4">
+      <c r="A2508" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2508" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:4">
+      <c r="A2509" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2509" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:4">
+      <c r="A2510" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2510" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:4">
+      <c r="A2511" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2511" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:4">
+      <c r="A2512" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2512" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:4">
+      <c r="A2513" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2513" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:4">
+      <c r="A2514" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2514" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:4">
+      <c r="A2515" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2515" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:4">
+      <c r="A2516" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2516" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:4">
+      <c r="A2517" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2517" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:4">
+      <c r="A2518" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2518" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:4">
+      <c r="A2519" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2519" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:4">
+      <c r="A2520" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2520" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:4">
+      <c r="A2521" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2521" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:4">
+      <c r="A2522" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2522" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:4">
+      <c r="A2523" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2523" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:4">
+      <c r="A2524" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2524" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:4">
+      <c r="A2525" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2525" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:4">
+      <c r="A2526" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2526" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:4">
+      <c r="A2527" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2527" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4">
+      <c r="A2528" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2528" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4">
+      <c r="A2529" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2529" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4">
+      <c r="A2530" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2530" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4">
+      <c r="A2531" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2531" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4">
+      <c r="A2532" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2532" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4">
+      <c r="A2533" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2533" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:4">
+      <c r="A2534" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2534" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4">
+      <c r="A2535" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2535" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4">
+      <c r="A2536" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2536" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4">
+      <c r="A2537" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2537" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4">
+      <c r="A2538" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2538" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4">
+      <c r="A2539" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2539" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4">
+      <c r="A2540" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2540" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4">
+      <c r="A2541" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2541" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4">
+      <c r="A2542" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2542" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4">
+      <c r="A2543" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2543" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4">
+      <c r="A2544" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2544" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4">
+      <c r="A2545" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2545" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4">
+      <c r="A2546" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2546" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4">
+      <c r="A2547" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2547" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:4">
+      <c r="A2548" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2548" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:4">
+      <c r="A2549" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2549" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4">
+      <c r="A2550" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2550" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4">
+      <c r="A2551" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2551" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4">
+      <c r="A2552" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2552" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4">
+      <c r="A2553" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2553" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4">
+      <c r="A2554" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2554" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4">
+      <c r="A2555" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2555" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:4">
+      <c r="A2556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2556" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4">
+      <c r="A2557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2557" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4">
+      <c r="A2558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2558" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4">
+      <c r="A2559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2559" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4">
+      <c r="A2560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2560" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4">
+      <c r="A2561" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2561" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4">
+      <c r="A2562" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2562" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4">
+      <c r="A2563" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2563" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4">
+      <c r="A2564" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2564" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4">
+      <c r="A2565" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2565" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4">
+      <c r="A2566" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2566" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4">
+      <c r="A2567" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2567" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4">
+      <c r="A2568" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2568" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4">
+      <c r="A2569" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2569" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4">
+      <c r="A2570" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2570" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4">
+      <c r="A2571" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2571" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4">
+      <c r="A2572" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2572" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4">
+      <c r="A2573" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2573" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4">
+      <c r="A2574" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2574" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4">
+      <c r="A2575" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2575" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4">
+      <c r="A2576" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2576" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4">
+      <c r="A2577" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2577" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4">
+      <c r="A2578" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2578" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4">
+      <c r="A2579" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2579" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4">
+      <c r="A2580" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2580" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4">
+      <c r="A2581" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2581" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4">
+      <c r="A2582" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2582" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4">
+      <c r="A2583" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2583" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4">
+      <c r="A2584" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2584" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4">
+      <c r="A2585" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2585" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4">
+      <c r="A2586" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>735</v>
+      </c>
+      <c r="D2586" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4">
+      <c r="A2587" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2587" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4">
+      <c r="A2588" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2588" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4">
+      <c r="A2589" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2589" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4">
+      <c r="A2590" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2590" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4">
+      <c r="A2591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2591" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:4">
+      <c r="A2592" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2592" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4">
+      <c r="A2593" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2593" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4">
+      <c r="A2594" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2594" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4">
+      <c r="A2595" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2595" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4">
+      <c r="A2596" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2596" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4">
+      <c r="A2597" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2597" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47532A-C573-4679-B035-A1344A948F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9686E3A6-2E78-4136-89FD-57B1FCDF1DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10388" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10780" uniqueCount="818">
   <si>
     <t>lang_code</t>
   </si>
@@ -2393,6 +2393,90 @@
   </si>
   <si>
     <t>mosip.auth-type-code.UNKNOWN</t>
+  </si>
+  <si>
+    <t>Authentication Request event type</t>
+  </si>
+  <si>
+    <t>Share Credential With Partner event type</t>
+  </si>
+  <si>
+    <t>Download Personalized Card event type</t>
+  </si>
+  <si>
+    <t>Order a Physical Card event type</t>
+  </si>
+  <si>
+    <t>Get UIN Card event type</t>
+  </si>
+  <si>
+    <t>Book An Appointment event type</t>
+  </si>
+  <si>
+    <t>Update UIN Data event type</t>
+  </si>
+  <si>
+    <t>Generate VID event type</t>
+  </si>
+  <si>
+    <t>Revoke VID event type</t>
+  </si>
+  <si>
+    <t>Secure My ID event type</t>
+  </si>
+  <si>
+    <t>Download VID Card event type</t>
+  </si>
+  <si>
+    <t>Send OTP event type</t>
+  </si>
+  <si>
+    <t>Verify My Phone/Email event type</t>
+  </si>
+  <si>
+    <t>Default event type</t>
+  </si>
+  <si>
+    <t>mosip.event.type.AUTHENTICATION_REQUEST</t>
+  </si>
+  <si>
+    <t>mosip.event.type.SHARE_CRED_WITH_PARTNER</t>
+  </si>
+  <si>
+    <t>mosip.event.type.DOWNLOAD_PERSONALIZED_CARD</t>
+  </si>
+  <si>
+    <t>mosip.event.type.ORDER_PHYSICAL_CARD</t>
+  </si>
+  <si>
+    <t>mosip.event.type.GET_MY_ID</t>
+  </si>
+  <si>
+    <t>mosip.event.type.BOOK_AN_APPOINTMENT</t>
+  </si>
+  <si>
+    <t>mosip.event.type.UPDATE_MY_UIN</t>
+  </si>
+  <si>
+    <t>mosip.event.type.GENERATE_VID</t>
+  </si>
+  <si>
+    <t>mosip.event.type.REVOKE_VID</t>
+  </si>
+  <si>
+    <t>mosip.event.type.AUTH_TYPE_LOCK_UNLOCK</t>
+  </si>
+  <si>
+    <t>mosip.event.type.VID_CARD_DOWNLOAD</t>
+  </si>
+  <si>
+    <t>mosip.event.type.SEND_OTP</t>
+  </si>
+  <si>
+    <t>mosip.event.type.VALIDATE_OTP</t>
+  </si>
+  <si>
+    <t>mosip.event.type.DEFAULT</t>
   </si>
 </sst>
 </file>
@@ -2812,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2597"/>
+  <dimension ref="A1:D2695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2589" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2598" sqref="A2598"/>
+    <sheetView tabSelected="1" topLeftCell="A2687" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2696" sqref="A2696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -39183,6 +39267,1378 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2598" spans="1:4">
+      <c r="A2598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2598" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4">
+      <c r="A2599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2599" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4">
+      <c r="A2600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2600" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4">
+      <c r="A2601" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2601" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4">
+      <c r="A2602" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2602" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4">
+      <c r="A2603" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2603" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4">
+      <c r="A2604" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2604" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4">
+      <c r="A2605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2605" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4">
+      <c r="A2606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2606" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4">
+      <c r="A2607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2607" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4">
+      <c r="A2608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2608" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4">
+      <c r="A2609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2609" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4">
+      <c r="A2610" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2610" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4">
+      <c r="A2611" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2611" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4">
+      <c r="A2612" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2612" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4">
+      <c r="A2613" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2613" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4">
+      <c r="A2614" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2614" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4">
+      <c r="A2615" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2615" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4">
+      <c r="A2616" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2616" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4">
+      <c r="A2617" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2617" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2617" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4">
+      <c r="A2618" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2618" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4">
+      <c r="A2619" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2619" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4">
+      <c r="A2620" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2620" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2620" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4">
+      <c r="A2621" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2621" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4">
+      <c r="A2622" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2622" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4">
+      <c r="A2623" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2623" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4">
+      <c r="A2624" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2624" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4">
+      <c r="A2625" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2625" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4">
+      <c r="A2626" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2626" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4">
+      <c r="A2627" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2627" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4">
+      <c r="A2628" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2628" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2628" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4">
+      <c r="A2629" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2629" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2629" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4">
+      <c r="A2630" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2630" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2630" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4">
+      <c r="A2631" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2631" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4">
+      <c r="A2632" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2632" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2632" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4">
+      <c r="A2633" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2633" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4">
+      <c r="A2634" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2634" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4">
+      <c r="A2635" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2635" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2635" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4">
+      <c r="A2636" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2636" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4">
+      <c r="A2637" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2637" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2637" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4">
+      <c r="A2638" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2638" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2638" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2638" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4">
+      <c r="A2639" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2639" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2639" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2639" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4">
+      <c r="A2640" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2640" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2640" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4">
+      <c r="A2641" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2641" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2641" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4">
+      <c r="A2642" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2642" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2642" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4">
+      <c r="A2643" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2643" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2643" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4">
+      <c r="A2644" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2644" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2644" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4">
+      <c r="A2645" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2645" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4">
+      <c r="A2646" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2646" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4">
+      <c r="A2647" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2647" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4">
+      <c r="A2648" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2648" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2648" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4">
+      <c r="A2649" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2649" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4">
+      <c r="A2650" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2650" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4">
+      <c r="A2651" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2651" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2651" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4">
+      <c r="A2652" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2652" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4">
+      <c r="A2653" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2653" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4">
+      <c r="A2654" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2654" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4">
+      <c r="A2655" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2655" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4">
+      <c r="A2656" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2656" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4">
+      <c r="A2657" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2657" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4">
+      <c r="A2658" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2658" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4">
+      <c r="A2659" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2659" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4">
+      <c r="A2660" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2660" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4">
+      <c r="A2661" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2661" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:4">
+      <c r="A2662" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2662" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:4">
+      <c r="A2663" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2663" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4">
+      <c r="A2664" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2664" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4">
+      <c r="A2665" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2665" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:4">
+      <c r="A2666" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2666" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:4">
+      <c r="A2667" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2667" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:4">
+      <c r="A2668" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2668" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:4">
+      <c r="A2669" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2669" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:4">
+      <c r="A2670" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2670" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:4">
+      <c r="A2671" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2671" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:4">
+      <c r="A2672" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2672" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4">
+      <c r="A2673" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2673" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4">
+      <c r="A2674" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2674" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:4">
+      <c r="A2675" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2675" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:4">
+      <c r="A2676" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2676" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:4">
+      <c r="A2677" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2677" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:4">
+      <c r="A2678" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2678" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2678" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4">
+      <c r="A2679" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2679" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4">
+      <c r="A2680" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2680" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4">
+      <c r="A2681" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2681" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2681" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:4">
+      <c r="A2682" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2682" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2682" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:4">
+      <c r="A2683" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2683" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2683" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:4">
+      <c r="A2684" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2684" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2684" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:4">
+      <c r="A2685" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2685" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2685" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:4">
+      <c r="A2686" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2686" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2686" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:4">
+      <c r="A2687" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2687" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2687" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:4">
+      <c r="A2688" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2688" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2688" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:4">
+      <c r="A2689" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2689" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2689" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:4">
+      <c r="A2690" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2690" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2690" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:4">
+      <c r="A2691" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2691" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2691" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:4">
+      <c r="A2692" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2692" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2692" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:4">
+      <c r="A2693" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2693" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2693" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:4">
+      <c r="A2694" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2694" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2694" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:4">
+      <c r="A2695" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2695" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2695" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B0F94-DE08-4F06-9012-ECBBD5913697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35702D44-441F-4065-9FC9-1FCAC9389F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9548" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9604" uniqueCount="735">
   <si>
     <t>lang_code</t>
   </si>
@@ -2216,6 +2216,18 @@
   </si>
   <si>
     <t>Unknown attribute</t>
+  </si>
+  <si>
+    <t>mosip.generated.template.property</t>
+  </si>
+  <si>
+    <t>mosip.revoked.template.property</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>Revoked</t>
   </si>
 </sst>
 </file>
@@ -2622,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2387"/>
+  <dimension ref="A1:D2401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2380" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2388" sqref="A2388"/>
+    <sheetView tabSelected="1" topLeftCell="A2386" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2402" sqref="A2402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -36053,6 +36065,202 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2388" spans="1:4">
+      <c r="A2388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2388" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2388" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2388" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:4">
+      <c r="A2389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2389" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2389" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2389" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:4">
+      <c r="A2390" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2390" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2390" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2390" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:4">
+      <c r="A2391" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2391" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2391" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2391" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:4">
+      <c r="A2392" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2392" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2392" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2392" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:4">
+      <c r="A2393" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2393" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2393" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2393" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:4">
+      <c r="A2394" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2394" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2394" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2394" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:4">
+      <c r="A2395" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2395" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2395" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2395" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:4">
+      <c r="A2396" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2396" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2396" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2396" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:4">
+      <c r="A2397" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2397" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2397" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2397" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:4">
+      <c r="A2398" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2398" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2398" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2398" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4">
+      <c r="A2399" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2399" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2399" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2399" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:4">
+      <c r="A2400" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2400" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2400" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2400" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4">
+      <c r="A2401" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2401" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2401" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2401" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A72B4D-BA1A-4992-9B77-3DB127B7494C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D67A2A-6DCA-4473-9B8D-71040041915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1773</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1767</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7092" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="684">
   <si>
     <t>lang_code</t>
   </si>
@@ -2478,17 +2478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1773"/>
+  <dimension ref="A1:D1767"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A1753" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1762" sqref="E1762"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1"/>
+    <col min="4" max="4" width="8.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -27150,10 +27150,10 @@
         <v>4</v>
       </c>
       <c r="B1762" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1762" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1762" s="1" t="s">
         <v>7</v>
@@ -27164,10 +27164,10 @@
         <v>293</v>
       </c>
       <c r="B1763" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1763" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1763" s="1" t="s">
         <v>7</v>
@@ -27178,10 +27178,10 @@
         <v>294</v>
       </c>
       <c r="B1764" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1764" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1764" s="1" t="s">
         <v>7</v>
@@ -27192,10 +27192,10 @@
         <v>302</v>
       </c>
       <c r="B1765" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1765" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1765" s="1" t="s">
         <v>7</v>
@@ -27206,10 +27206,10 @@
         <v>301</v>
       </c>
       <c r="B1766" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1766" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1766" s="1" t="s">
         <v>7</v>
@@ -27220,101 +27220,17 @@
         <v>303</v>
       </c>
       <c r="B1767" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C1767" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1767" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1768" spans="1:4">
-      <c r="A1768" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1768" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1768" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1768" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:4">
-      <c r="A1769" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1769" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1769" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1769" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:4">
-      <c r="A1770" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1770" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1770" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1770" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:4">
-      <c r="A1771" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1771" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1771" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1771" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:4">
-      <c r="A1772" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1772" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1772" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1772" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:4">
-      <c r="A1773" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1773" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1773" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1773" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D1773" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1767" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D67A2A-6DCA-4473-9B8D-71040041915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A25E7-F483-4FEC-9FF5-FDD52262045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1767</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1761</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7044" uniqueCount="684">
   <si>
     <t>lang_code</t>
   </si>
@@ -2478,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1767"/>
+  <dimension ref="A1:D1761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1753" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1762" sqref="E1762"/>
+    <sheetView tabSelected="1" topLeftCell="A1743" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1750" sqref="B1750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -27145,92 +27145,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1762" spans="1:4">
-      <c r="A1762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1762" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1762" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1762" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:4">
-      <c r="A1763" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1763" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1763" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:4">
-      <c r="A1764" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1764" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1764" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1764" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:4">
-      <c r="A1765" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1765" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:4">
-      <c r="A1766" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1766" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1766" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1766" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:4">
-      <c r="A1767" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1767" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1767" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1767" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D1767" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1761" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBD232-C82B-47AC-B317-F76556C5A17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2569C69-C9F3-4645-BAB1-9AE72E65D57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14964" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15108" uniqueCount="1431">
   <si>
     <t>lang_code</t>
   </si>
@@ -5837,6 +5837,102 @@
   </si>
   <si>
     <t>Authentication positive summary</t>
+  </si>
+  <si>
+    <t>ROOT_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>PARTNER_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>WEEKLY_SUMMARY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>ROOT_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>PARTNER_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>WEEKLY_SUMMARY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Template for root certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration du certificat racine</t>
+  </si>
+  <si>
+    <t>نموذج لانتهاء صلاحية شهادة الجذر</t>
+  </si>
+  <si>
+    <t>Template for intermediate certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration de certificat intermédiaire</t>
+  </si>
+  <si>
+    <t>نموذج انتهاء صلاحية الشهادة المتوسطة</t>
+  </si>
+  <si>
+    <t>Template for partner certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration du certificat de partenaire</t>
+  </si>
+  <si>
+    <t>نموذج انتهاء صلاحية شهادة الشريك</t>
+  </si>
+  <si>
+    <t>Template for weekly summary notifications</t>
+  </si>
+  <si>
+    <t>Modèle pour les notifications récapitulatives hebdomadaires</t>
+  </si>
+  <si>
+    <t>نموذج لإشعارات الملخص الأسبوعية</t>
+  </si>
+  <si>
+    <t>Subject template for root certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat racine</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية شهادة الجذر</t>
+  </si>
+  <si>
+    <t>Subject template for intermediate certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat intermédiaire</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية الشهادة المتوسطة</t>
+  </si>
+  <si>
+    <t>Subject template for partner certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat du partenaire</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية شهادة الشريك</t>
+  </si>
+  <si>
+    <t>Subject template for weekly summary notifications</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour les notifications récapitulatives hebdomadaires</t>
+  </si>
+  <si>
+    <t>قالب موضوعي لإشعارات الملخص الأسبوعي</t>
   </si>
 </sst>
 </file>
@@ -6305,17 +6401,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2494"/>
+  <dimension ref="A1:F2518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2478" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2493" sqref="B2493"/>
+    <sheetView tabSelected="1" topLeftCell="A2510" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2518" sqref="D2518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6879,7 +6975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.5">
+    <row r="29" spans="1:6" ht="29.25">
       <c r="A29" t="s">
         <v>291</v>
       </c>
@@ -6919,7 +7015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="29.25">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -6959,7 +7055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.5">
+    <row r="33" spans="1:6" ht="29.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7359,7 +7455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.5">
+    <row r="53" spans="1:6" ht="29.25">
       <c r="A53" t="s">
         <v>291</v>
       </c>
@@ -7379,7 +7475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.5">
+    <row r="54" spans="1:6" ht="29.25">
       <c r="A54" t="s">
         <v>291</v>
       </c>
@@ -7419,7 +7515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.5">
+    <row r="56" spans="1:6" ht="29.25">
       <c r="A56" t="s">
         <v>291</v>
       </c>
@@ -7439,7 +7535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="29">
+    <row r="57" spans="1:6" ht="30">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -7479,7 +7575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.5">
+    <row r="59" spans="1:6" ht="29.25">
       <c r="A59" t="s">
         <v>291</v>
       </c>
@@ -7499,7 +7595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.5">
+    <row r="60" spans="1:6" ht="29.25">
       <c r="A60" t="s">
         <v>291</v>
       </c>
@@ -7799,7 +7895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="29.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -7819,7 +7915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.5">
+    <row r="76" spans="1:6" ht="29.25">
       <c r="A76" t="s">
         <v>291</v>
       </c>
@@ -7839,7 +7935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.5">
+    <row r="77" spans="1:6" ht="29.25">
       <c r="A77" t="s">
         <v>291</v>
       </c>
@@ -7939,7 +8035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.5">
+    <row r="82" spans="1:6" ht="29.25">
       <c r="A82" t="s">
         <v>291</v>
       </c>
@@ -8119,7 +8215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.5">
+    <row r="91" spans="1:6" ht="29.25">
       <c r="A91" t="s">
         <v>291</v>
       </c>
@@ -8239,7 +8335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29">
+    <row r="97" spans="1:6" ht="30">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -8479,7 +8575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.5">
+    <row r="109" spans="1:6" ht="29.25">
       <c r="A109" t="s">
         <v>291</v>
       </c>
@@ -8539,7 +8635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="28.5">
+    <row r="112" spans="1:6" ht="29.25">
       <c r="A112" t="s">
         <v>291</v>
       </c>
@@ -8719,7 +8815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="30">
       <c r="A121" t="s">
         <v>291</v>
       </c>
@@ -9199,7 +9295,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="29">
+    <row r="145" spans="1:6" ht="30">
       <c r="A145" t="s">
         <v>291</v>
       </c>
@@ -9259,7 +9355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="28.5">
+    <row r="148" spans="1:6" ht="29.25">
       <c r="A148" t="s">
         <v>291</v>
       </c>
@@ -9319,7 +9415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="29">
+    <row r="151" spans="1:6" ht="30">
       <c r="A151" t="s">
         <v>291</v>
       </c>
@@ -9379,7 +9475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="28.5">
+    <row r="154" spans="1:6" ht="29.25">
       <c r="A154" t="s">
         <v>291</v>
       </c>
@@ -9439,7 +9535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28.5">
+    <row r="157" spans="1:6" ht="29.25">
       <c r="A157" t="s">
         <v>291</v>
       </c>
@@ -9499,7 +9595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="28.5">
+    <row r="160" spans="1:6" ht="29.25">
       <c r="A160" t="s">
         <v>291</v>
       </c>
@@ -9559,7 +9655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="29">
+    <row r="163" spans="1:6" ht="30">
       <c r="A163" t="s">
         <v>291</v>
       </c>
@@ -9619,7 +9715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="28.5">
+    <row r="166" spans="1:6" ht="29.25">
       <c r="A166" t="s">
         <v>291</v>
       </c>
@@ -9679,7 +9775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="29">
+    <row r="169" spans="1:6" ht="30">
       <c r="A169" t="s">
         <v>291</v>
       </c>
@@ -9739,7 +9835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="42.5">
+    <row r="172" spans="1:6" ht="43.5">
       <c r="A172" t="s">
         <v>291</v>
       </c>
@@ -9799,7 +9895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="29">
+    <row r="175" spans="1:6" ht="30">
       <c r="A175" t="s">
         <v>291</v>
       </c>
@@ -9859,7 +9955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="28.5">
+    <row r="178" spans="1:6" ht="29.25">
       <c r="A178" t="s">
         <v>291</v>
       </c>
@@ -9919,7 +10015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="29">
+    <row r="181" spans="1:6" ht="30">
       <c r="A181" t="s">
         <v>291</v>
       </c>
@@ -9979,7 +10075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="28.5">
+    <row r="184" spans="1:6" ht="29.25">
       <c r="A184" t="s">
         <v>291</v>
       </c>
@@ -10039,7 +10135,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="43">
+    <row r="187" spans="1:6" ht="44.25">
       <c r="A187" t="s">
         <v>291</v>
       </c>
@@ -10099,7 +10195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="28.5">
+    <row r="190" spans="1:6" ht="29.25">
       <c r="A190" t="s">
         <v>291</v>
       </c>
@@ -10159,7 +10255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="28.5">
+    <row r="193" spans="1:6" ht="29.25">
       <c r="A193" t="s">
         <v>291</v>
       </c>
@@ -10219,7 +10315,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="28.5">
+    <row r="196" spans="1:6" ht="29.25">
       <c r="A196" t="s">
         <v>291</v>
       </c>
@@ -10279,7 +10375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="42.5">
+    <row r="199" spans="1:6" ht="43.5">
       <c r="A199" t="s">
         <v>291</v>
       </c>
@@ -10339,7 +10435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="42.5">
+    <row r="202" spans="1:6" ht="43.5">
       <c r="A202" t="s">
         <v>291</v>
       </c>
@@ -10399,7 +10495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="28.5">
+    <row r="205" spans="1:6" ht="29.25">
       <c r="A205" t="s">
         <v>291</v>
       </c>
@@ -10459,7 +10555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="42.5">
+    <row r="208" spans="1:6" ht="43.5">
       <c r="A208" t="s">
         <v>291</v>
       </c>
@@ -10999,7 +11095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="28.5">
+    <row r="235" spans="1:6" ht="29.25">
       <c r="A235" t="s">
         <v>291</v>
       </c>
@@ -11059,7 +11155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="28.5">
+    <row r="238" spans="1:6" ht="29.25">
       <c r="A238" t="s">
         <v>291</v>
       </c>
@@ -11119,7 +11215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="28.5">
+    <row r="241" spans="1:6" ht="29.25">
       <c r="A241" t="s">
         <v>291</v>
       </c>
@@ -11179,7 +11275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" ht="29.25">
       <c r="A244" t="s">
         <v>291</v>
       </c>
@@ -11479,7 +11575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="28.5">
+    <row r="259" spans="1:6" ht="29.25">
       <c r="A259" t="s">
         <v>291</v>
       </c>
@@ -11559,7 +11655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="29">
+    <row r="263" spans="1:6" ht="30">
       <c r="A263" t="s">
         <v>297</v>
       </c>
@@ -11579,7 +11675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="29">
+    <row r="264" spans="1:6" ht="30">
       <c r="A264" t="s">
         <v>297</v>
       </c>
@@ -11599,7 +11695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="29">
+    <row r="265" spans="1:6" ht="30">
       <c r="A265" t="s">
         <v>297</v>
       </c>
@@ -11619,7 +11715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="29">
+    <row r="266" spans="1:6" ht="30">
       <c r="A266" t="s">
         <v>297</v>
       </c>
@@ -11639,7 +11735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="29">
+    <row r="267" spans="1:6" ht="30">
       <c r="A267" t="s">
         <v>297</v>
       </c>
@@ -11659,7 +11755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="29">
+    <row r="268" spans="1:6" ht="30">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -11679,7 +11775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="29">
+    <row r="269" spans="1:6" ht="30">
       <c r="A269" t="s">
         <v>297</v>
       </c>
@@ -11699,7 +11795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="29">
+    <row r="270" spans="1:6" ht="30">
       <c r="A270" t="s">
         <v>297</v>
       </c>
@@ -11719,7 +11815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="29">
+    <row r="271" spans="1:6" ht="30">
       <c r="A271" t="s">
         <v>297</v>
       </c>
@@ -11739,7 +11835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="29">
+    <row r="272" spans="1:6" ht="45">
       <c r="A272" t="s">
         <v>297</v>
       </c>
@@ -11759,7 +11855,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="29">
+    <row r="273" spans="1:6" ht="45">
       <c r="A273" t="s">
         <v>297</v>
       </c>
@@ -11779,7 +11875,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="43.5">
+    <row r="274" spans="1:6" ht="45">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -11799,7 +11895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="43.5">
+    <row r="275" spans="1:6" ht="45">
       <c r="A275" t="s">
         <v>297</v>
       </c>
@@ -11819,7 +11915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="29">
+    <row r="276" spans="1:6" ht="30">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -11839,7 +11935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="29">
+    <row r="277" spans="1:6" ht="30">
       <c r="A277" t="s">
         <v>297</v>
       </c>
@@ -11859,7 +11955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="29">
+    <row r="278" spans="1:6" ht="30">
       <c r="A278" t="s">
         <v>297</v>
       </c>
@@ -11899,7 +11995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="43.5">
+    <row r="280" spans="1:6" ht="60">
       <c r="A280" t="s">
         <v>297</v>
       </c>
@@ -11919,7 +12015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="43.5">
+    <row r="281" spans="1:6" ht="60">
       <c r="A281" t="s">
         <v>297</v>
       </c>
@@ -11939,7 +12035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="43.5">
+    <row r="282" spans="1:6" ht="45">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -11959,7 +12055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="29">
+    <row r="283" spans="1:6" ht="30">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -11979,7 +12075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="29">
+    <row r="284" spans="1:6" ht="30">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -11999,7 +12095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="29">
+    <row r="285" spans="1:6" ht="30">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -12019,7 +12115,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="29">
+    <row r="286" spans="1:6" ht="30">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -12059,7 +12155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="29">
+    <row r="288" spans="1:6" ht="30">
       <c r="A288" t="s">
         <v>297</v>
       </c>
@@ -12079,7 +12175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="29">
+    <row r="289" spans="1:6" ht="30">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -12099,7 +12195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15">
+    <row r="290" spans="1:6">
       <c r="A290" s="5" t="s">
         <v>297</v>
       </c>
@@ -12119,7 +12215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="29">
+    <row r="291" spans="1:6" ht="45">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -12139,7 +12235,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="29">
+    <row r="292" spans="1:6" ht="30">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -12159,7 +12255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="29">
+    <row r="293" spans="1:6" ht="45">
       <c r="A293" t="s">
         <v>297</v>
       </c>
@@ -12179,7 +12275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="43.5">
+    <row r="294" spans="1:6" ht="45">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -12239,7 +12335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="29">
+    <row r="297" spans="1:6" ht="30">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -12259,7 +12355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="29">
+    <row r="298" spans="1:6" ht="30">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12279,7 +12375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="29">
+    <row r="299" spans="1:6" ht="30">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -12299,7 +12395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="29">
+    <row r="300" spans="1:6" ht="30">
       <c r="A300" t="s">
         <v>297</v>
       </c>
@@ -12319,7 +12415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="29">
+    <row r="301" spans="1:6" ht="30">
       <c r="A301" t="s">
         <v>297</v>
       </c>
@@ -12339,7 +12435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="29">
+    <row r="302" spans="1:6" ht="30">
       <c r="A302" t="s">
         <v>297</v>
       </c>
@@ -12459,7 +12555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="29">
+    <row r="308" spans="1:6" ht="45">
       <c r="A308" t="s">
         <v>297</v>
       </c>
@@ -12479,7 +12575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="29">
+    <row r="309" spans="1:6" ht="30">
       <c r="A309" t="s">
         <v>297</v>
       </c>
@@ -12499,7 +12595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="29">
+    <row r="310" spans="1:6" ht="30">
       <c r="A310" t="s">
         <v>297</v>
       </c>
@@ -12519,7 +12615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="43.5">
+    <row r="311" spans="1:6" ht="45">
       <c r="A311" t="s">
         <v>297</v>
       </c>
@@ -12539,7 +12635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="43.5">
+    <row r="312" spans="1:6" ht="45">
       <c r="A312" t="s">
         <v>297</v>
       </c>
@@ -12559,7 +12655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="43.5">
+    <row r="313" spans="1:6" ht="60">
       <c r="A313" t="s">
         <v>297</v>
       </c>
@@ -12579,7 +12675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="43.5">
+    <row r="314" spans="1:6" ht="60">
       <c r="A314" t="s">
         <v>297</v>
       </c>
@@ -12599,7 +12695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="43.5">
+    <row r="315" spans="1:6" ht="45">
       <c r="A315" t="s">
         <v>297</v>
       </c>
@@ -12619,7 +12715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="43.5">
+    <row r="316" spans="1:6" ht="45">
       <c r="A316" t="s">
         <v>297</v>
       </c>
@@ -12639,7 +12735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="43.5">
+    <row r="317" spans="1:6" ht="60">
       <c r="A317" t="s">
         <v>297</v>
       </c>
@@ -12659,7 +12755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="43.5">
+    <row r="318" spans="1:6" ht="45">
       <c r="A318" t="s">
         <v>297</v>
       </c>
@@ -12679,7 +12775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="43.5">
+    <row r="319" spans="1:6" ht="60">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -12719,7 +12815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="43.5">
+    <row r="321" spans="1:6" ht="60">
       <c r="A321" t="s">
         <v>297</v>
       </c>
@@ -12739,7 +12835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="43.5">
+    <row r="322" spans="1:6" ht="60">
       <c r="A322" t="s">
         <v>297</v>
       </c>
@@ -12759,7 +12855,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="43.5">
+    <row r="323" spans="1:6" ht="60">
       <c r="A323" t="s">
         <v>297</v>
       </c>
@@ -12779,7 +12875,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="43.5">
+    <row r="324" spans="1:6" ht="45">
       <c r="A324" t="s">
         <v>297</v>
       </c>
@@ -12799,7 +12895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="43.5">
+    <row r="325" spans="1:6" ht="45">
       <c r="A325" t="s">
         <v>297</v>
       </c>
@@ -12819,7 +12915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="43.5">
+    <row r="326" spans="1:6" ht="60">
       <c r="A326" t="s">
         <v>297</v>
       </c>
@@ -12839,7 +12935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="43.5">
+    <row r="327" spans="1:6" ht="45">
       <c r="A327" t="s">
         <v>297</v>
       </c>
@@ -12859,7 +12955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="43.5">
+    <row r="328" spans="1:6" ht="60">
       <c r="A328" t="s">
         <v>297</v>
       </c>
@@ -12879,7 +12975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="43.5">
+    <row r="329" spans="1:6" ht="60">
       <c r="A329" t="s">
         <v>297</v>
       </c>
@@ -12899,7 +12995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="43.5">
+    <row r="330" spans="1:6" ht="60">
       <c r="A330" t="s">
         <v>297</v>
       </c>
@@ -12919,7 +13015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="43.5">
+    <row r="331" spans="1:6" ht="45">
       <c r="A331" t="s">
         <v>297</v>
       </c>
@@ -12939,7 +13035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="29">
+    <row r="332" spans="1:6" ht="30">
       <c r="A332" t="s">
         <v>297</v>
       </c>
@@ -12959,7 +13055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="29">
+    <row r="333" spans="1:6" ht="45">
       <c r="A333" t="s">
         <v>297</v>
       </c>
@@ -12979,7 +13075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="29">
+    <row r="334" spans="1:6" ht="30">
       <c r="A334" t="s">
         <v>297</v>
       </c>
@@ -12999,7 +13095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="29">
+    <row r="335" spans="1:6" ht="30">
       <c r="A335" t="s">
         <v>297</v>
       </c>
@@ -13019,7 +13115,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="29">
+    <row r="336" spans="1:6" ht="30">
       <c r="A336" t="s">
         <v>297</v>
       </c>
@@ -13039,7 +13135,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="29">
+    <row r="337" spans="1:6" ht="30">
       <c r="A337" t="s">
         <v>297</v>
       </c>
@@ -13239,7 +13335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="29">
+    <row r="347" spans="1:6" ht="30">
       <c r="A347" t="s">
         <v>297</v>
       </c>
@@ -13339,7 +13435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="29">
+    <row r="352" spans="1:6" ht="30">
       <c r="A352" t="s">
         <v>298</v>
       </c>
@@ -13359,7 +13455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="29">
+    <row r="353" spans="1:6" ht="30">
       <c r="A353" t="s">
         <v>298</v>
       </c>
@@ -13379,7 +13475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="29">
+    <row r="354" spans="1:6" ht="30">
       <c r="A354" t="s">
         <v>298</v>
       </c>
@@ -13399,7 +13495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="29">
+    <row r="355" spans="1:6" ht="30">
       <c r="A355" t="s">
         <v>298</v>
       </c>
@@ -13419,7 +13515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="29">
+    <row r="356" spans="1:6" ht="30">
       <c r="A356" t="s">
         <v>298</v>
       </c>
@@ -13459,7 +13555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="29">
+    <row r="358" spans="1:6" ht="30">
       <c r="A358" t="s">
         <v>298</v>
       </c>
@@ -13479,7 +13575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="29">
+    <row r="359" spans="1:6" ht="30">
       <c r="A359" t="s">
         <v>298</v>
       </c>
@@ -13499,7 +13595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="29">
+    <row r="360" spans="1:6" ht="30">
       <c r="A360" t="s">
         <v>298</v>
       </c>
@@ -13519,7 +13615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="29">
+    <row r="361" spans="1:6" ht="30">
       <c r="A361" t="s">
         <v>298</v>
       </c>
@@ -13539,7 +13635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="29">
+    <row r="362" spans="1:6" ht="30">
       <c r="A362" t="s">
         <v>298</v>
       </c>
@@ -13559,7 +13655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="29">
+    <row r="363" spans="1:6" ht="30">
       <c r="A363" t="s">
         <v>298</v>
       </c>
@@ -13579,7 +13675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="29">
+    <row r="364" spans="1:6" ht="30">
       <c r="A364" t="s">
         <v>298</v>
       </c>
@@ -13599,7 +13695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="29">
+    <row r="365" spans="1:6" ht="30">
       <c r="A365" t="s">
         <v>298</v>
       </c>
@@ -13619,7 +13715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="29">
+    <row r="366" spans="1:6" ht="30">
       <c r="A366" t="s">
         <v>298</v>
       </c>
@@ -13639,7 +13735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="29">
+    <row r="367" spans="1:6" ht="30">
       <c r="A367" t="s">
         <v>298</v>
       </c>
@@ -13659,7 +13755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="29">
+    <row r="368" spans="1:6" ht="30">
       <c r="A368" t="s">
         <v>298</v>
       </c>
@@ -13679,7 +13775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="29">
+    <row r="369" spans="1:6" ht="30">
       <c r="A369" t="s">
         <v>298</v>
       </c>
@@ -13699,7 +13795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="29">
+    <row r="370" spans="1:6" ht="30">
       <c r="A370" t="s">
         <v>298</v>
       </c>
@@ -13719,7 +13815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="29">
+    <row r="371" spans="1:6" ht="30">
       <c r="A371" t="s">
         <v>298</v>
       </c>
@@ -13739,7 +13835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" ht="30">
       <c r="A372" t="s">
         <v>298</v>
       </c>
@@ -13759,7 +13855,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="29">
+    <row r="373" spans="1:6" ht="30">
       <c r="A373" t="s">
         <v>298</v>
       </c>
@@ -13779,7 +13875,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="29">
+    <row r="374" spans="1:6" ht="30">
       <c r="A374" t="s">
         <v>298</v>
       </c>
@@ -13799,7 +13895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="29">
+    <row r="375" spans="1:6" ht="30">
       <c r="A375" t="s">
         <v>298</v>
       </c>
@@ -13819,7 +13915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="29">
+    <row r="376" spans="1:6" ht="30">
       <c r="A376" t="s">
         <v>298</v>
       </c>
@@ -13839,7 +13935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="29">
+    <row r="377" spans="1:6" ht="30">
       <c r="A377" t="s">
         <v>298</v>
       </c>
@@ -13859,7 +13955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="29">
+    <row r="378" spans="1:6" ht="30">
       <c r="A378" t="s">
         <v>298</v>
       </c>
@@ -13899,7 +13995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="29">
+    <row r="380" spans="1:6" ht="30">
       <c r="A380" t="s">
         <v>298</v>
       </c>
@@ -13919,7 +14015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="29">
+    <row r="381" spans="1:6" ht="30">
       <c r="A381" t="s">
         <v>298</v>
       </c>
@@ -13939,7 +14035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="29">
+    <row r="382" spans="1:6" ht="30">
       <c r="A382" t="s">
         <v>298</v>
       </c>
@@ -13959,7 +14055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="29">
+    <row r="383" spans="1:6" ht="30">
       <c r="A383" t="s">
         <v>298</v>
       </c>
@@ -14039,7 +14135,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="29">
+    <row r="387" spans="1:6" ht="30">
       <c r="A387" t="s">
         <v>298</v>
       </c>
@@ -14059,7 +14155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="29">
+    <row r="388" spans="1:6" ht="30">
       <c r="A388" t="s">
         <v>298</v>
       </c>
@@ -14079,7 +14175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" ht="30">
       <c r="A389" t="s">
         <v>298</v>
       </c>
@@ -14099,7 +14195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" ht="30">
       <c r="A390" t="s">
         <v>298</v>
       </c>
@@ -14119,7 +14215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="29">
+    <row r="391" spans="1:6" ht="30">
       <c r="A391" t="s">
         <v>298</v>
       </c>
@@ -14239,7 +14335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="29">
+    <row r="397" spans="1:6" ht="30">
       <c r="A397" t="s">
         <v>298</v>
       </c>
@@ -14259,7 +14355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="29">
+    <row r="398" spans="1:6" ht="30">
       <c r="A398" t="s">
         <v>298</v>
       </c>
@@ -14279,7 +14375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" ht="30">
       <c r="A399" t="s">
         <v>298</v>
       </c>
@@ -14299,7 +14395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="29">
+    <row r="400" spans="1:6" ht="30">
       <c r="A400" t="s">
         <v>298</v>
       </c>
@@ -14319,7 +14415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="29">
+    <row r="401" spans="1:6" ht="30">
       <c r="A401" t="s">
         <v>298</v>
       </c>
@@ -14339,7 +14435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="29">
+    <row r="402" spans="1:6" ht="30">
       <c r="A402" t="s">
         <v>298</v>
       </c>
@@ -14359,7 +14455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="29">
+    <row r="403" spans="1:6" ht="30">
       <c r="A403" t="s">
         <v>298</v>
       </c>
@@ -14379,7 +14475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="29">
+    <row r="404" spans="1:6" ht="30">
       <c r="A404" t="s">
         <v>298</v>
       </c>
@@ -14399,7 +14495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="29">
+    <row r="405" spans="1:6" ht="30">
       <c r="A405" t="s">
         <v>298</v>
       </c>
@@ -14419,7 +14515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="29">
+    <row r="406" spans="1:6" ht="30">
       <c r="A406" t="s">
         <v>298</v>
       </c>
@@ -14439,7 +14535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="29">
+    <row r="407" spans="1:6" ht="30">
       <c r="A407" t="s">
         <v>298</v>
       </c>
@@ -14459,7 +14555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="29">
+    <row r="408" spans="1:6" ht="45">
       <c r="A408" t="s">
         <v>298</v>
       </c>
@@ -14479,7 +14575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="29">
+    <row r="409" spans="1:6" ht="30">
       <c r="A409" t="s">
         <v>298</v>
       </c>
@@ -14499,7 +14595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="29">
+    <row r="410" spans="1:6" ht="30">
       <c r="A410" t="s">
         <v>298</v>
       </c>
@@ -14519,7 +14615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="29">
+    <row r="411" spans="1:6" ht="30">
       <c r="A411" t="s">
         <v>298</v>
       </c>
@@ -14539,7 +14635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="29">
+    <row r="412" spans="1:6" ht="30">
       <c r="A412" t="s">
         <v>298</v>
       </c>
@@ -14559,7 +14655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="43.5">
+    <row r="413" spans="1:6" ht="45">
       <c r="A413" t="s">
         <v>298</v>
       </c>
@@ -14579,7 +14675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="29">
+    <row r="414" spans="1:6" ht="30">
       <c r="A414" t="s">
         <v>298</v>
       </c>
@@ -14599,7 +14695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="43.5">
+    <row r="415" spans="1:6" ht="45">
       <c r="A415" t="s">
         <v>298</v>
       </c>
@@ -14619,7 +14715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="29">
+    <row r="416" spans="1:6" ht="30">
       <c r="A416" t="s">
         <v>298</v>
       </c>
@@ -14639,7 +14735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="29">
+    <row r="417" spans="1:6" ht="30">
       <c r="A417" t="s">
         <v>298</v>
       </c>
@@ -14659,7 +14755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="29">
+    <row r="418" spans="1:6" ht="30">
       <c r="A418" t="s">
         <v>298</v>
       </c>
@@ -14679,7 +14775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="29">
+    <row r="419" spans="1:6" ht="30">
       <c r="A419" t="s">
         <v>298</v>
       </c>
@@ -14699,7 +14795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="29">
+    <row r="420" spans="1:6" ht="30">
       <c r="A420" t="s">
         <v>298</v>
       </c>
@@ -14739,7 +14835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="29">
+    <row r="422" spans="1:6" ht="30">
       <c r="A422" t="s">
         <v>298</v>
       </c>
@@ -14799,7 +14895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" ht="30">
       <c r="A425" t="s">
         <v>298</v>
       </c>
@@ -14819,7 +14915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="29">
+    <row r="426" spans="1:6" ht="30">
       <c r="A426" t="s">
         <v>298</v>
       </c>
@@ -14919,7 +15015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="43.5">
+    <row r="431" spans="1:6" ht="45">
       <c r="A431" t="s">
         <v>298</v>
       </c>
@@ -14979,7 +15075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="29">
+    <row r="434" spans="1:6" ht="45">
       <c r="A434" t="s">
         <v>298</v>
       </c>
@@ -14999,7 +15095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="29">
+    <row r="435" spans="1:6" ht="30">
       <c r="A435" t="s">
         <v>298</v>
       </c>
@@ -15059,7 +15155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="29">
+    <row r="438" spans="1:6" ht="30">
       <c r="A438" t="s">
         <v>298</v>
       </c>
@@ -15079,7 +15175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="43.5">
+    <row r="439" spans="1:6" ht="45">
       <c r="A439" t="s">
         <v>298</v>
       </c>
@@ -15099,7 +15195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="29">
+    <row r="440" spans="1:6" ht="30">
       <c r="A440" t="s">
         <v>298</v>
       </c>
@@ -15119,7 +15215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="43.5">
+    <row r="441" spans="1:6" ht="45">
       <c r="A441" t="s">
         <v>299</v>
       </c>
@@ -15139,7 +15235,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="43.5">
+    <row r="442" spans="1:6" ht="45">
       <c r="A442" t="s">
         <v>299</v>
       </c>
@@ -15159,7 +15255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="43.5">
+    <row r="443" spans="1:6" ht="45">
       <c r="A443" t="s">
         <v>299</v>
       </c>
@@ -15179,7 +15275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="43.5">
+    <row r="444" spans="1:6" ht="45">
       <c r="A444" t="s">
         <v>299</v>
       </c>
@@ -15199,7 +15295,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="29">
+    <row r="445" spans="1:6" ht="45">
       <c r="A445" t="s">
         <v>299</v>
       </c>
@@ -15219,7 +15315,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="29">
+    <row r="446" spans="1:6" ht="30">
       <c r="A446" t="s">
         <v>299</v>
       </c>
@@ -15239,7 +15335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="58">
+    <row r="447" spans="1:6" ht="60">
       <c r="A447" t="s">
         <v>299</v>
       </c>
@@ -15259,7 +15355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="43.5">
+    <row r="448" spans="1:6" ht="45">
       <c r="A448" t="s">
         <v>299</v>
       </c>
@@ -15279,7 +15375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="43.5">
+    <row r="449" spans="1:6" ht="45">
       <c r="A449" t="s">
         <v>299</v>
       </c>
@@ -15299,7 +15395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="58">
+    <row r="450" spans="1:6" ht="60">
       <c r="A450" t="s">
         <v>299</v>
       </c>
@@ -15319,7 +15415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="58">
+    <row r="451" spans="1:6" ht="60">
       <c r="A451" t="s">
         <v>299</v>
       </c>
@@ -15339,7 +15435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="58">
+    <row r="452" spans="1:6" ht="60">
       <c r="A452" t="s">
         <v>299</v>
       </c>
@@ -15359,7 +15455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="58">
+    <row r="453" spans="1:6" ht="60">
       <c r="A453" t="s">
         <v>299</v>
       </c>
@@ -15379,7 +15475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="43.5">
+    <row r="454" spans="1:6" ht="45">
       <c r="A454" t="s">
         <v>299</v>
       </c>
@@ -15399,7 +15495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="58">
+    <row r="455" spans="1:6" ht="75">
       <c r="A455" t="s">
         <v>299</v>
       </c>
@@ -15419,7 +15515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="58">
+    <row r="456" spans="1:6" ht="75">
       <c r="A456" t="s">
         <v>299</v>
       </c>
@@ -15439,7 +15535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="29">
+    <row r="457" spans="1:6" ht="30">
       <c r="A457" t="s">
         <v>299</v>
       </c>
@@ -15459,7 +15555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="72.5">
+    <row r="458" spans="1:6" ht="75">
       <c r="A458" t="s">
         <v>299</v>
       </c>
@@ -15479,7 +15575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="72.5">
+    <row r="459" spans="1:6" ht="75">
       <c r="A459" t="s">
         <v>299</v>
       </c>
@@ -15499,7 +15595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="58">
+    <row r="460" spans="1:6" ht="60">
       <c r="A460" t="s">
         <v>299</v>
       </c>
@@ -15519,7 +15615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="43.5">
+    <row r="461" spans="1:6" ht="45">
       <c r="A461" t="s">
         <v>299</v>
       </c>
@@ -15539,7 +15635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="43.5">
+    <row r="462" spans="1:6" ht="45">
       <c r="A462" t="s">
         <v>299</v>
       </c>
@@ -15559,7 +15655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="43.5">
+    <row r="463" spans="1:6" ht="45">
       <c r="A463" t="s">
         <v>299</v>
       </c>
@@ -15579,7 +15675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="43.5">
+    <row r="464" spans="1:6" ht="45">
       <c r="A464" t="s">
         <v>299</v>
       </c>
@@ -15599,7 +15695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="29">
+    <row r="465" spans="1:6" ht="30">
       <c r="A465" t="s">
         <v>299</v>
       </c>
@@ -15619,7 +15715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="58">
+    <row r="466" spans="1:6" ht="60">
       <c r="A466" t="s">
         <v>299</v>
       </c>
@@ -15639,7 +15735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="29">
+    <row r="467" spans="1:6" ht="30">
       <c r="A467" s="5" t="s">
         <v>299</v>
       </c>
@@ -15659,7 +15755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="29">
+    <row r="468" spans="1:6" ht="30">
       <c r="A468" t="s">
         <v>299</v>
       </c>
@@ -15679,7 +15775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="43.5">
+    <row r="469" spans="1:6" ht="45">
       <c r="A469" t="s">
         <v>299</v>
       </c>
@@ -15699,7 +15795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="43.5">
+    <row r="470" spans="1:6" ht="60">
       <c r="A470" t="s">
         <v>299</v>
       </c>
@@ -15719,7 +15815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="58">
+    <row r="471" spans="1:6" ht="60">
       <c r="A471" t="s">
         <v>299</v>
       </c>
@@ -15799,7 +15895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="29">
+    <row r="475" spans="1:6" ht="45">
       <c r="A475" t="s">
         <v>299</v>
       </c>
@@ -15819,7 +15915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="29">
+    <row r="476" spans="1:6" ht="45">
       <c r="A476" t="s">
         <v>299</v>
       </c>
@@ -15839,7 +15935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="29">
+    <row r="477" spans="1:6" ht="45">
       <c r="A477" t="s">
         <v>299</v>
       </c>
@@ -15859,7 +15955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="43.5">
+    <row r="478" spans="1:6" ht="45">
       <c r="A478" t="s">
         <v>299</v>
       </c>
@@ -15879,7 +15975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="43.5">
+    <row r="479" spans="1:6" ht="45">
       <c r="A479" t="s">
         <v>299</v>
       </c>
@@ -15899,7 +15995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="29">
+    <row r="480" spans="1:6" ht="30">
       <c r="A480" t="s">
         <v>299</v>
       </c>
@@ -15919,7 +16015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" ht="30">
       <c r="A481" t="s">
         <v>299</v>
       </c>
@@ -16019,7 +16115,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="43.5">
+    <row r="486" spans="1:6" ht="45">
       <c r="A486" t="s">
         <v>299</v>
       </c>
@@ -16059,7 +16155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="29">
+    <row r="488" spans="1:6" ht="45">
       <c r="A488" t="s">
         <v>299</v>
       </c>
@@ -16079,7 +16175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="58">
+    <row r="489" spans="1:6" ht="60">
       <c r="A489" t="s">
         <v>299</v>
       </c>
@@ -16099,7 +16195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="43.5">
+    <row r="490" spans="1:6" ht="45">
       <c r="A490" t="s">
         <v>299</v>
       </c>
@@ -16119,7 +16215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="72.5">
+    <row r="491" spans="1:6" ht="75">
       <c r="A491" t="s">
         <v>299</v>
       </c>
@@ -16139,7 +16235,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="43.5">
+    <row r="492" spans="1:6" ht="60">
       <c r="A492" t="s">
         <v>299</v>
       </c>
@@ -16159,7 +16255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="43.5">
+    <row r="493" spans="1:6" ht="60">
       <c r="A493" t="s">
         <v>299</v>
       </c>
@@ -16179,7 +16275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="72.5">
+    <row r="494" spans="1:6" ht="75">
       <c r="A494" t="s">
         <v>299</v>
       </c>
@@ -16199,7 +16295,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="72.5">
+    <row r="495" spans="1:6" ht="90">
       <c r="A495" t="s">
         <v>299</v>
       </c>
@@ -16219,7 +16315,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="58">
+    <row r="496" spans="1:6" ht="75">
       <c r="A496" t="s">
         <v>299</v>
       </c>
@@ -16239,7 +16335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="72.5">
+    <row r="497" spans="1:6" ht="75">
       <c r="A497" t="s">
         <v>299</v>
       </c>
@@ -16259,7 +16355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="58">
+    <row r="498" spans="1:6" ht="75">
       <c r="A498" t="s">
         <v>299</v>
       </c>
@@ -16279,7 +16375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="72.5">
+    <row r="499" spans="1:6" ht="75">
       <c r="A499" t="s">
         <v>299</v>
       </c>
@@ -16299,7 +16395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="58">
+    <row r="500" spans="1:6" ht="60">
       <c r="A500" t="s">
         <v>299</v>
       </c>
@@ -16319,7 +16415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="72.5">
+    <row r="501" spans="1:6" ht="75">
       <c r="A501" t="s">
         <v>299</v>
       </c>
@@ -16339,7 +16435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="72.5">
+    <row r="502" spans="1:6" ht="75">
       <c r="A502" t="s">
         <v>299</v>
       </c>
@@ -16359,7 +16455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="43.5">
+    <row r="503" spans="1:6" ht="60">
       <c r="A503" t="s">
         <v>299</v>
       </c>
@@ -16379,7 +16475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="87">
+    <row r="504" spans="1:6" ht="90">
       <c r="A504" t="s">
         <v>299</v>
       </c>
@@ -16399,7 +16495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="43.5">
+    <row r="505" spans="1:6" ht="60">
       <c r="A505" t="s">
         <v>299</v>
       </c>
@@ -16419,7 +16515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="58">
+    <row r="506" spans="1:6" ht="75">
       <c r="A506" t="s">
         <v>299</v>
       </c>
@@ -16439,7 +16535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="58">
+    <row r="507" spans="1:6" ht="90">
       <c r="A507" t="s">
         <v>299</v>
       </c>
@@ -16459,7 +16555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="58">
+    <row r="508" spans="1:6" ht="90">
       <c r="A508" t="s">
         <v>299</v>
       </c>
@@ -16479,7 +16575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="43.5">
+    <row r="509" spans="1:6" ht="75">
       <c r="A509" t="s">
         <v>299</v>
       </c>
@@ -16499,7 +16595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="29">
+    <row r="510" spans="1:6" ht="30">
       <c r="A510" t="s">
         <v>299</v>
       </c>
@@ -16519,7 +16615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="29">
+    <row r="511" spans="1:6" ht="30">
       <c r="A511" t="s">
         <v>299</v>
       </c>
@@ -16539,7 +16635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="29">
+    <row r="512" spans="1:6" ht="30">
       <c r="A512" t="s">
         <v>299</v>
       </c>
@@ -16559,7 +16655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" ht="30">
       <c r="A513" t="s">
         <v>299</v>
       </c>
@@ -16579,7 +16675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="29">
+    <row r="514" spans="1:6" ht="30">
       <c r="A514" t="s">
         <v>299</v>
       </c>
@@ -16599,7 +16695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="29">
+    <row r="515" spans="1:6" ht="30">
       <c r="A515" t="s">
         <v>299</v>
       </c>
@@ -56196,6 +56292,486 @@
         <v>1391</v>
       </c>
       <c r="F2494" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:6">
+      <c r="A2495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D2495" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:6">
+      <c r="A2496" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D2496" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:6">
+      <c r="A2497" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D2497" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:6">
+      <c r="A2498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D2498" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:6">
+      <c r="A2499" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D2499" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:6">
+      <c r="A2500" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2500" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:6">
+      <c r="A2501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D2501" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:6">
+      <c r="A2502" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D2502" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:6">
+      <c r="A2503" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D2503" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:6">
+      <c r="A2504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D2504" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:6">
+      <c r="A2505" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D2505" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:6">
+      <c r="A2506" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D2506" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:6">
+      <c r="A2507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D2507" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:6">
+      <c r="A2508" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D2508" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:6">
+      <c r="A2509" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D2509" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2509" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:6">
+      <c r="A2510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D2510" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:6">
+      <c r="A2511" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2511" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:6">
+      <c r="A2512" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D2512" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2512" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:6">
+      <c r="A2513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D2513" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2513" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:6">
+      <c r="A2514" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D2514" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2514" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:6">
+      <c r="A2515" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2515" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:6">
+      <c r="A2516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D2516" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:6">
+      <c r="A2517" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D2517" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:6">
+      <c r="A2518" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D2518" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2518" t="s">
         <v>1392</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBD232-C82B-47AC-B317-F76556C5A17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95166E-6361-4800-BC8F-6E5490572258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14964" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15108" uniqueCount="1431">
   <si>
     <t>lang_code</t>
   </si>
@@ -5837,6 +5837,102 @@
   </si>
   <si>
     <t>Authentication positive summary</t>
+  </si>
+  <si>
+    <t>ROOT_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for root certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration du certificat racine</t>
+  </si>
+  <si>
+    <t>نموذج لانتهاء صلاحية شهادة الجذر</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for intermediate certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration de certificat intermédiaire</t>
+  </si>
+  <si>
+    <t>نموذج انتهاء صلاحية الشهادة المتوسطة</t>
+  </si>
+  <si>
+    <t>PARTNER_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for partner certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration du certificat de partenaire</t>
+  </si>
+  <si>
+    <t>نموذج انتهاء صلاحية شهادة الشريك</t>
+  </si>
+  <si>
+    <t>WEEKLY_SUMMARY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for weekly summary notifications</t>
+  </si>
+  <si>
+    <t>Modèle pour les notifications récapitulatives hebdomadaires</t>
+  </si>
+  <si>
+    <t>نموذج لإشعارات الملخص الأسبوعية</t>
+  </si>
+  <si>
+    <t>ROOT_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for root certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat racine</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية شهادة الجذر</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for intermediate certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat intermédiaire</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية الشهادة المتوسطة</t>
+  </si>
+  <si>
+    <t>PARTNER_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for partner certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat du partenaire</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية شهادة الشريك</t>
+  </si>
+  <si>
+    <t>WEEKLY_SUMMARY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for weekly summary notifications</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour les notifications récapitulatives hebdomadaires</t>
+  </si>
+  <si>
+    <t>قالب موضوعي لإشعارات الملخص الأسبوعي</t>
   </si>
 </sst>
 </file>
@@ -6305,17 +6401,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2494"/>
+  <dimension ref="A1:F2518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2478" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2493" sqref="B2493"/>
+    <sheetView tabSelected="1" topLeftCell="A2502" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2495" sqref="B2495"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6879,7 +6975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.5">
+    <row r="29" spans="1:6" ht="29.25">
       <c r="A29" t="s">
         <v>291</v>
       </c>
@@ -6919,7 +7015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="29.25">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -6959,7 +7055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.5">
+    <row r="33" spans="1:6" ht="29.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7359,7 +7455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.5">
+    <row r="53" spans="1:6" ht="29.25">
       <c r="A53" t="s">
         <v>291</v>
       </c>
@@ -7379,7 +7475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.5">
+    <row r="54" spans="1:6" ht="29.25">
       <c r="A54" t="s">
         <v>291</v>
       </c>
@@ -7419,7 +7515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.5">
+    <row r="56" spans="1:6" ht="29.25">
       <c r="A56" t="s">
         <v>291</v>
       </c>
@@ -7439,7 +7535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="29">
+    <row r="57" spans="1:6" ht="30">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -7479,7 +7575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.5">
+    <row r="59" spans="1:6" ht="29.25">
       <c r="A59" t="s">
         <v>291</v>
       </c>
@@ -7499,7 +7595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.5">
+    <row r="60" spans="1:6" ht="29.25">
       <c r="A60" t="s">
         <v>291</v>
       </c>
@@ -7799,7 +7895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="29.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -7819,7 +7915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.5">
+    <row r="76" spans="1:6" ht="29.25">
       <c r="A76" t="s">
         <v>291</v>
       </c>
@@ -7839,7 +7935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.5">
+    <row r="77" spans="1:6" ht="29.25">
       <c r="A77" t="s">
         <v>291</v>
       </c>
@@ -7939,7 +8035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.5">
+    <row r="82" spans="1:6" ht="29.25">
       <c r="A82" t="s">
         <v>291</v>
       </c>
@@ -8119,7 +8215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.5">
+    <row r="91" spans="1:6" ht="29.25">
       <c r="A91" t="s">
         <v>291</v>
       </c>
@@ -8239,7 +8335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="29">
+    <row r="97" spans="1:6" ht="30">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -8479,7 +8575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.5">
+    <row r="109" spans="1:6" ht="29.25">
       <c r="A109" t="s">
         <v>291</v>
       </c>
@@ -8539,7 +8635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="28.5">
+    <row r="112" spans="1:6" ht="29.25">
       <c r="A112" t="s">
         <v>291</v>
       </c>
@@ -8719,7 +8815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="30">
       <c r="A121" t="s">
         <v>291</v>
       </c>
@@ -9199,7 +9295,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="29">
+    <row r="145" spans="1:6" ht="30">
       <c r="A145" t="s">
         <v>291</v>
       </c>
@@ -9259,7 +9355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="28.5">
+    <row r="148" spans="1:6" ht="29.25">
       <c r="A148" t="s">
         <v>291</v>
       </c>
@@ -9319,7 +9415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="29">
+    <row r="151" spans="1:6" ht="30">
       <c r="A151" t="s">
         <v>291</v>
       </c>
@@ -9379,7 +9475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="28.5">
+    <row r="154" spans="1:6" ht="29.25">
       <c r="A154" t="s">
         <v>291</v>
       </c>
@@ -9439,7 +9535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28.5">
+    <row r="157" spans="1:6" ht="29.25">
       <c r="A157" t="s">
         <v>291</v>
       </c>
@@ -9499,7 +9595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="28.5">
+    <row r="160" spans="1:6" ht="29.25">
       <c r="A160" t="s">
         <v>291</v>
       </c>
@@ -9559,7 +9655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="29">
+    <row r="163" spans="1:6" ht="30">
       <c r="A163" t="s">
         <v>291</v>
       </c>
@@ -9619,7 +9715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="28.5">
+    <row r="166" spans="1:6" ht="29.25">
       <c r="A166" t="s">
         <v>291</v>
       </c>
@@ -9679,7 +9775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="29">
+    <row r="169" spans="1:6" ht="30">
       <c r="A169" t="s">
         <v>291</v>
       </c>
@@ -9739,7 +9835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="42.5">
+    <row r="172" spans="1:6" ht="43.5">
       <c r="A172" t="s">
         <v>291</v>
       </c>
@@ -9799,7 +9895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="29">
+    <row r="175" spans="1:6" ht="30">
       <c r="A175" t="s">
         <v>291</v>
       </c>
@@ -9859,7 +9955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="28.5">
+    <row r="178" spans="1:6" ht="29.25">
       <c r="A178" t="s">
         <v>291</v>
       </c>
@@ -9919,7 +10015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="29">
+    <row r="181" spans="1:6" ht="30">
       <c r="A181" t="s">
         <v>291</v>
       </c>
@@ -9979,7 +10075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="28.5">
+    <row r="184" spans="1:6" ht="29.25">
       <c r="A184" t="s">
         <v>291</v>
       </c>
@@ -10039,7 +10135,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="43">
+    <row r="187" spans="1:6" ht="44.25">
       <c r="A187" t="s">
         <v>291</v>
       </c>
@@ -10099,7 +10195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="28.5">
+    <row r="190" spans="1:6" ht="29.25">
       <c r="A190" t="s">
         <v>291</v>
       </c>
@@ -10159,7 +10255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="28.5">
+    <row r="193" spans="1:6" ht="29.25">
       <c r="A193" t="s">
         <v>291</v>
       </c>
@@ -10219,7 +10315,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="28.5">
+    <row r="196" spans="1:6" ht="29.25">
       <c r="A196" t="s">
         <v>291</v>
       </c>
@@ -10279,7 +10375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="42.5">
+    <row r="199" spans="1:6" ht="43.5">
       <c r="A199" t="s">
         <v>291</v>
       </c>
@@ -10339,7 +10435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="42.5">
+    <row r="202" spans="1:6" ht="43.5">
       <c r="A202" t="s">
         <v>291</v>
       </c>
@@ -10399,7 +10495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="28.5">
+    <row r="205" spans="1:6" ht="29.25">
       <c r="A205" t="s">
         <v>291</v>
       </c>
@@ -10459,7 +10555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="42.5">
+    <row r="208" spans="1:6" ht="43.5">
       <c r="A208" t="s">
         <v>291</v>
       </c>
@@ -10999,7 +11095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="28.5">
+    <row r="235" spans="1:6" ht="29.25">
       <c r="A235" t="s">
         <v>291</v>
       </c>
@@ -11059,7 +11155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="28.5">
+    <row r="238" spans="1:6" ht="29.25">
       <c r="A238" t="s">
         <v>291</v>
       </c>
@@ -11119,7 +11215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="28.5">
+    <row r="241" spans="1:6" ht="29.25">
       <c r="A241" t="s">
         <v>291</v>
       </c>
@@ -11179,7 +11275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" ht="29.25">
       <c r="A244" t="s">
         <v>291</v>
       </c>
@@ -11479,7 +11575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="28.5">
+    <row r="259" spans="1:6" ht="29.25">
       <c r="A259" t="s">
         <v>291</v>
       </c>
@@ -11559,7 +11655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="29">
+    <row r="263" spans="1:6" ht="30">
       <c r="A263" t="s">
         <v>297</v>
       </c>
@@ -11579,7 +11675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="29">
+    <row r="264" spans="1:6" ht="30">
       <c r="A264" t="s">
         <v>297</v>
       </c>
@@ -11599,7 +11695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="29">
+    <row r="265" spans="1:6" ht="30">
       <c r="A265" t="s">
         <v>297</v>
       </c>
@@ -11619,7 +11715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="29">
+    <row r="266" spans="1:6" ht="30">
       <c r="A266" t="s">
         <v>297</v>
       </c>
@@ -11639,7 +11735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="29">
+    <row r="267" spans="1:6" ht="30">
       <c r="A267" t="s">
         <v>297</v>
       </c>
@@ -11659,7 +11755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="29">
+    <row r="268" spans="1:6" ht="30">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -11679,7 +11775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="29">
+    <row r="269" spans="1:6" ht="30">
       <c r="A269" t="s">
         <v>297</v>
       </c>
@@ -11699,7 +11795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="29">
+    <row r="270" spans="1:6" ht="30">
       <c r="A270" t="s">
         <v>297</v>
       </c>
@@ -11719,7 +11815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="29">
+    <row r="271" spans="1:6" ht="30">
       <c r="A271" t="s">
         <v>297</v>
       </c>
@@ -11739,7 +11835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="29">
+    <row r="272" spans="1:6" ht="45">
       <c r="A272" t="s">
         <v>297</v>
       </c>
@@ -11759,7 +11855,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="29">
+    <row r="273" spans="1:6" ht="45">
       <c r="A273" t="s">
         <v>297</v>
       </c>
@@ -11779,7 +11875,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="43.5">
+    <row r="274" spans="1:6" ht="45">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -11799,7 +11895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="43.5">
+    <row r="275" spans="1:6" ht="45">
       <c r="A275" t="s">
         <v>297</v>
       </c>
@@ -11819,7 +11915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="29">
+    <row r="276" spans="1:6" ht="30">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -11839,7 +11935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="29">
+    <row r="277" spans="1:6" ht="30">
       <c r="A277" t="s">
         <v>297</v>
       </c>
@@ -11859,7 +11955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="29">
+    <row r="278" spans="1:6" ht="30">
       <c r="A278" t="s">
         <v>297</v>
       </c>
@@ -11899,7 +11995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="43.5">
+    <row r="280" spans="1:6" ht="60">
       <c r="A280" t="s">
         <v>297</v>
       </c>
@@ -11919,7 +12015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="43.5">
+    <row r="281" spans="1:6" ht="60">
       <c r="A281" t="s">
         <v>297</v>
       </c>
@@ -11939,7 +12035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="43.5">
+    <row r="282" spans="1:6" ht="45">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -11959,7 +12055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="29">
+    <row r="283" spans="1:6" ht="30">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -11979,7 +12075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="29">
+    <row r="284" spans="1:6" ht="30">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -11999,7 +12095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="29">
+    <row r="285" spans="1:6" ht="30">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -12019,7 +12115,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="29">
+    <row r="286" spans="1:6" ht="30">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -12059,7 +12155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="29">
+    <row r="288" spans="1:6" ht="30">
       <c r="A288" t="s">
         <v>297</v>
       </c>
@@ -12079,7 +12175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="29">
+    <row r="289" spans="1:6" ht="30">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -12099,7 +12195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15">
+    <row r="290" spans="1:6">
       <c r="A290" s="5" t="s">
         <v>297</v>
       </c>
@@ -12119,7 +12215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="29">
+    <row r="291" spans="1:6" ht="45">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -12139,7 +12235,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="29">
+    <row r="292" spans="1:6" ht="30">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -12159,7 +12255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="29">
+    <row r="293" spans="1:6" ht="45">
       <c r="A293" t="s">
         <v>297</v>
       </c>
@@ -12179,7 +12275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="43.5">
+    <row r="294" spans="1:6" ht="45">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -12239,7 +12335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="29">
+    <row r="297" spans="1:6" ht="30">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -12259,7 +12355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="29">
+    <row r="298" spans="1:6" ht="30">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12279,7 +12375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="29">
+    <row r="299" spans="1:6" ht="30">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -12299,7 +12395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="29">
+    <row r="300" spans="1:6" ht="30">
       <c r="A300" t="s">
         <v>297</v>
       </c>
@@ -12319,7 +12415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="29">
+    <row r="301" spans="1:6" ht="30">
       <c r="A301" t="s">
         <v>297</v>
       </c>
@@ -12339,7 +12435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="29">
+    <row r="302" spans="1:6" ht="30">
       <c r="A302" t="s">
         <v>297</v>
       </c>
@@ -12459,7 +12555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="29">
+    <row r="308" spans="1:6" ht="45">
       <c r="A308" t="s">
         <v>297</v>
       </c>
@@ -12479,7 +12575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="29">
+    <row r="309" spans="1:6" ht="30">
       <c r="A309" t="s">
         <v>297</v>
       </c>
@@ -12499,7 +12595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="29">
+    <row r="310" spans="1:6" ht="30">
       <c r="A310" t="s">
         <v>297</v>
       </c>
@@ -12519,7 +12615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="43.5">
+    <row r="311" spans="1:6" ht="45">
       <c r="A311" t="s">
         <v>297</v>
       </c>
@@ -12539,7 +12635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="43.5">
+    <row r="312" spans="1:6" ht="45">
       <c r="A312" t="s">
         <v>297</v>
       </c>
@@ -12559,7 +12655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="43.5">
+    <row r="313" spans="1:6" ht="60">
       <c r="A313" t="s">
         <v>297</v>
       </c>
@@ -12579,7 +12675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="43.5">
+    <row r="314" spans="1:6" ht="60">
       <c r="A314" t="s">
         <v>297</v>
       </c>
@@ -12599,7 +12695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="43.5">
+    <row r="315" spans="1:6" ht="45">
       <c r="A315" t="s">
         <v>297</v>
       </c>
@@ -12619,7 +12715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="43.5">
+    <row r="316" spans="1:6" ht="45">
       <c r="A316" t="s">
         <v>297</v>
       </c>
@@ -12639,7 +12735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="43.5">
+    <row r="317" spans="1:6" ht="60">
       <c r="A317" t="s">
         <v>297</v>
       </c>
@@ -12659,7 +12755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="43.5">
+    <row r="318" spans="1:6" ht="45">
       <c r="A318" t="s">
         <v>297</v>
       </c>
@@ -12679,7 +12775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="43.5">
+    <row r="319" spans="1:6" ht="60">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -12719,7 +12815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="43.5">
+    <row r="321" spans="1:6" ht="60">
       <c r="A321" t="s">
         <v>297</v>
       </c>
@@ -12739,7 +12835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="43.5">
+    <row r="322" spans="1:6" ht="60">
       <c r="A322" t="s">
         <v>297</v>
       </c>
@@ -12759,7 +12855,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="43.5">
+    <row r="323" spans="1:6" ht="60">
       <c r="A323" t="s">
         <v>297</v>
       </c>
@@ -12779,7 +12875,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="43.5">
+    <row r="324" spans="1:6" ht="45">
       <c r="A324" t="s">
         <v>297</v>
       </c>
@@ -12799,7 +12895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="43.5">
+    <row r="325" spans="1:6" ht="45">
       <c r="A325" t="s">
         <v>297</v>
       </c>
@@ -12819,7 +12915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="43.5">
+    <row r="326" spans="1:6" ht="60">
       <c r="A326" t="s">
         <v>297</v>
       </c>
@@ -12839,7 +12935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="43.5">
+    <row r="327" spans="1:6" ht="45">
       <c r="A327" t="s">
         <v>297</v>
       </c>
@@ -12859,7 +12955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="43.5">
+    <row r="328" spans="1:6" ht="60">
       <c r="A328" t="s">
         <v>297</v>
       </c>
@@ -12879,7 +12975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="43.5">
+    <row r="329" spans="1:6" ht="60">
       <c r="A329" t="s">
         <v>297</v>
       </c>
@@ -12899,7 +12995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="43.5">
+    <row r="330" spans="1:6" ht="60">
       <c r="A330" t="s">
         <v>297</v>
       </c>
@@ -12919,7 +13015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="43.5">
+    <row r="331" spans="1:6" ht="45">
       <c r="A331" t="s">
         <v>297</v>
       </c>
@@ -12939,7 +13035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="29">
+    <row r="332" spans="1:6" ht="30">
       <c r="A332" t="s">
         <v>297</v>
       </c>
@@ -12959,7 +13055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="29">
+    <row r="333" spans="1:6" ht="45">
       <c r="A333" t="s">
         <v>297</v>
       </c>
@@ -12979,7 +13075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="29">
+    <row r="334" spans="1:6" ht="30">
       <c r="A334" t="s">
         <v>297</v>
       </c>
@@ -12999,7 +13095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="29">
+    <row r="335" spans="1:6" ht="30">
       <c r="A335" t="s">
         <v>297</v>
       </c>
@@ -13019,7 +13115,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="29">
+    <row r="336" spans="1:6" ht="30">
       <c r="A336" t="s">
         <v>297</v>
       </c>
@@ -13039,7 +13135,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="29">
+    <row r="337" spans="1:6" ht="30">
       <c r="A337" t="s">
         <v>297</v>
       </c>
@@ -13239,7 +13335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="29">
+    <row r="347" spans="1:6" ht="30">
       <c r="A347" t="s">
         <v>297</v>
       </c>
@@ -13339,7 +13435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="29">
+    <row r="352" spans="1:6" ht="30">
       <c r="A352" t="s">
         <v>298</v>
       </c>
@@ -13359,7 +13455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="29">
+    <row r="353" spans="1:6" ht="30">
       <c r="A353" t="s">
         <v>298</v>
       </c>
@@ -13379,7 +13475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="29">
+    <row r="354" spans="1:6" ht="30">
       <c r="A354" t="s">
         <v>298</v>
       </c>
@@ -13399,7 +13495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="29">
+    <row r="355" spans="1:6" ht="30">
       <c r="A355" t="s">
         <v>298</v>
       </c>
@@ -13419,7 +13515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="29">
+    <row r="356" spans="1:6" ht="30">
       <c r="A356" t="s">
         <v>298</v>
       </c>
@@ -13459,7 +13555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="29">
+    <row r="358" spans="1:6" ht="30">
       <c r="A358" t="s">
         <v>298</v>
       </c>
@@ -13479,7 +13575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="29">
+    <row r="359" spans="1:6" ht="30">
       <c r="A359" t="s">
         <v>298</v>
       </c>
@@ -13499,7 +13595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="29">
+    <row r="360" spans="1:6" ht="30">
       <c r="A360" t="s">
         <v>298</v>
       </c>
@@ -13519,7 +13615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="29">
+    <row r="361" spans="1:6" ht="30">
       <c r="A361" t="s">
         <v>298</v>
       </c>
@@ -13539,7 +13635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="29">
+    <row r="362" spans="1:6" ht="30">
       <c r="A362" t="s">
         <v>298</v>
       </c>
@@ -13559,7 +13655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="29">
+    <row r="363" spans="1:6" ht="30">
       <c r="A363" t="s">
         <v>298</v>
       </c>
@@ -13579,7 +13675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="29">
+    <row r="364" spans="1:6" ht="30">
       <c r="A364" t="s">
         <v>298</v>
       </c>
@@ -13599,7 +13695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="29">
+    <row r="365" spans="1:6" ht="30">
       <c r="A365" t="s">
         <v>298</v>
       </c>
@@ -13619,7 +13715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="29">
+    <row r="366" spans="1:6" ht="30">
       <c r="A366" t="s">
         <v>298</v>
       </c>
@@ -13639,7 +13735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="29">
+    <row r="367" spans="1:6" ht="30">
       <c r="A367" t="s">
         <v>298</v>
       </c>
@@ -13659,7 +13755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="29">
+    <row r="368" spans="1:6" ht="30">
       <c r="A368" t="s">
         <v>298</v>
       </c>
@@ -13679,7 +13775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="29">
+    <row r="369" spans="1:6" ht="30">
       <c r="A369" t="s">
         <v>298</v>
       </c>
@@ -13699,7 +13795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="29">
+    <row r="370" spans="1:6" ht="30">
       <c r="A370" t="s">
         <v>298</v>
       </c>
@@ -13719,7 +13815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="29">
+    <row r="371" spans="1:6" ht="30">
       <c r="A371" t="s">
         <v>298</v>
       </c>
@@ -13739,7 +13835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" ht="30">
       <c r="A372" t="s">
         <v>298</v>
       </c>
@@ -13759,7 +13855,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="29">
+    <row r="373" spans="1:6" ht="30">
       <c r="A373" t="s">
         <v>298</v>
       </c>
@@ -13779,7 +13875,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="29">
+    <row r="374" spans="1:6" ht="30">
       <c r="A374" t="s">
         <v>298</v>
       </c>
@@ -13799,7 +13895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="29">
+    <row r="375" spans="1:6" ht="30">
       <c r="A375" t="s">
         <v>298</v>
       </c>
@@ -13819,7 +13915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="29">
+    <row r="376" spans="1:6" ht="30">
       <c r="A376" t="s">
         <v>298</v>
       </c>
@@ -13839,7 +13935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="29">
+    <row r="377" spans="1:6" ht="30">
       <c r="A377" t="s">
         <v>298</v>
       </c>
@@ -13859,7 +13955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="29">
+    <row r="378" spans="1:6" ht="30">
       <c r="A378" t="s">
         <v>298</v>
       </c>
@@ -13899,7 +13995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="29">
+    <row r="380" spans="1:6" ht="30">
       <c r="A380" t="s">
         <v>298</v>
       </c>
@@ -13919,7 +14015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="29">
+    <row r="381" spans="1:6" ht="30">
       <c r="A381" t="s">
         <v>298</v>
       </c>
@@ -13939,7 +14035,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="29">
+    <row r="382" spans="1:6" ht="30">
       <c r="A382" t="s">
         <v>298</v>
       </c>
@@ -13959,7 +14055,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="29">
+    <row r="383" spans="1:6" ht="30">
       <c r="A383" t="s">
         <v>298</v>
       </c>
@@ -14039,7 +14135,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="29">
+    <row r="387" spans="1:6" ht="30">
       <c r="A387" t="s">
         <v>298</v>
       </c>
@@ -14059,7 +14155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="29">
+    <row r="388" spans="1:6" ht="30">
       <c r="A388" t="s">
         <v>298</v>
       </c>
@@ -14079,7 +14175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" ht="30">
       <c r="A389" t="s">
         <v>298</v>
       </c>
@@ -14099,7 +14195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" ht="30">
       <c r="A390" t="s">
         <v>298</v>
       </c>
@@ -14119,7 +14215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="29">
+    <row r="391" spans="1:6" ht="30">
       <c r="A391" t="s">
         <v>298</v>
       </c>
@@ -14239,7 +14335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="29">
+    <row r="397" spans="1:6" ht="30">
       <c r="A397" t="s">
         <v>298</v>
       </c>
@@ -14259,7 +14355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="29">
+    <row r="398" spans="1:6" ht="30">
       <c r="A398" t="s">
         <v>298</v>
       </c>
@@ -14279,7 +14375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" ht="30">
       <c r="A399" t="s">
         <v>298</v>
       </c>
@@ -14299,7 +14395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="29">
+    <row r="400" spans="1:6" ht="30">
       <c r="A400" t="s">
         <v>298</v>
       </c>
@@ -14319,7 +14415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="29">
+    <row r="401" spans="1:6" ht="30">
       <c r="A401" t="s">
         <v>298</v>
       </c>
@@ -14339,7 +14435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="29">
+    <row r="402" spans="1:6" ht="30">
       <c r="A402" t="s">
         <v>298</v>
       </c>
@@ -14359,7 +14455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="29">
+    <row r="403" spans="1:6" ht="30">
       <c r="A403" t="s">
         <v>298</v>
       </c>
@@ -14379,7 +14475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="29">
+    <row r="404" spans="1:6" ht="30">
       <c r="A404" t="s">
         <v>298</v>
       </c>
@@ -14399,7 +14495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="29">
+    <row r="405" spans="1:6" ht="30">
       <c r="A405" t="s">
         <v>298</v>
       </c>
@@ -14419,7 +14515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="29">
+    <row r="406" spans="1:6" ht="30">
       <c r="A406" t="s">
         <v>298</v>
       </c>
@@ -14439,7 +14535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="29">
+    <row r="407" spans="1:6" ht="30">
       <c r="A407" t="s">
         <v>298</v>
       </c>
@@ -14459,7 +14555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="29">
+    <row r="408" spans="1:6" ht="45">
       <c r="A408" t="s">
         <v>298</v>
       </c>
@@ -14479,7 +14575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="29">
+    <row r="409" spans="1:6" ht="30">
       <c r="A409" t="s">
         <v>298</v>
       </c>
@@ -14499,7 +14595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="29">
+    <row r="410" spans="1:6" ht="30">
       <c r="A410" t="s">
         <v>298</v>
       </c>
@@ -14519,7 +14615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="29">
+    <row r="411" spans="1:6" ht="30">
       <c r="A411" t="s">
         <v>298</v>
       </c>
@@ -14539,7 +14635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="29">
+    <row r="412" spans="1:6" ht="30">
       <c r="A412" t="s">
         <v>298</v>
       </c>
@@ -14559,7 +14655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="43.5">
+    <row r="413" spans="1:6" ht="45">
       <c r="A413" t="s">
         <v>298</v>
       </c>
@@ -14579,7 +14675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="29">
+    <row r="414" spans="1:6" ht="30">
       <c r="A414" t="s">
         <v>298</v>
       </c>
@@ -14599,7 +14695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="43.5">
+    <row r="415" spans="1:6" ht="45">
       <c r="A415" t="s">
         <v>298</v>
       </c>
@@ -14619,7 +14715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="29">
+    <row r="416" spans="1:6" ht="30">
       <c r="A416" t="s">
         <v>298</v>
       </c>
@@ -14639,7 +14735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="29">
+    <row r="417" spans="1:6" ht="30">
       <c r="A417" t="s">
         <v>298</v>
       </c>
@@ -14659,7 +14755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="29">
+    <row r="418" spans="1:6" ht="30">
       <c r="A418" t="s">
         <v>298</v>
       </c>
@@ -14679,7 +14775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="29">
+    <row r="419" spans="1:6" ht="30">
       <c r="A419" t="s">
         <v>298</v>
       </c>
@@ -14699,7 +14795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="29">
+    <row r="420" spans="1:6" ht="30">
       <c r="A420" t="s">
         <v>298</v>
       </c>
@@ -14739,7 +14835,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="29">
+    <row r="422" spans="1:6" ht="30">
       <c r="A422" t="s">
         <v>298</v>
       </c>
@@ -14799,7 +14895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" ht="30">
       <c r="A425" t="s">
         <v>298</v>
       </c>
@@ -14819,7 +14915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="29">
+    <row r="426" spans="1:6" ht="30">
       <c r="A426" t="s">
         <v>298</v>
       </c>
@@ -14919,7 +15015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="43.5">
+    <row r="431" spans="1:6" ht="45">
       <c r="A431" t="s">
         <v>298</v>
       </c>
@@ -14979,7 +15075,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="29">
+    <row r="434" spans="1:6" ht="45">
       <c r="A434" t="s">
         <v>298</v>
       </c>
@@ -14999,7 +15095,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="29">
+    <row r="435" spans="1:6" ht="30">
       <c r="A435" t="s">
         <v>298</v>
       </c>
@@ -15059,7 +15155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="29">
+    <row r="438" spans="1:6" ht="30">
       <c r="A438" t="s">
         <v>298</v>
       </c>
@@ -15079,7 +15175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="43.5">
+    <row r="439" spans="1:6" ht="45">
       <c r="A439" t="s">
         <v>298</v>
       </c>
@@ -15099,7 +15195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="29">
+    <row r="440" spans="1:6" ht="30">
       <c r="A440" t="s">
         <v>298</v>
       </c>
@@ -15119,7 +15215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="43.5">
+    <row r="441" spans="1:6" ht="45">
       <c r="A441" t="s">
         <v>299</v>
       </c>
@@ -15139,7 +15235,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="43.5">
+    <row r="442" spans="1:6" ht="45">
       <c r="A442" t="s">
         <v>299</v>
       </c>
@@ -15159,7 +15255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="43.5">
+    <row r="443" spans="1:6" ht="45">
       <c r="A443" t="s">
         <v>299</v>
       </c>
@@ -15179,7 +15275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="43.5">
+    <row r="444" spans="1:6" ht="45">
       <c r="A444" t="s">
         <v>299</v>
       </c>
@@ -15199,7 +15295,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="29">
+    <row r="445" spans="1:6" ht="45">
       <c r="A445" t="s">
         <v>299</v>
       </c>
@@ -15219,7 +15315,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="29">
+    <row r="446" spans="1:6" ht="30">
       <c r="A446" t="s">
         <v>299</v>
       </c>
@@ -15239,7 +15335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="58">
+    <row r="447" spans="1:6" ht="60">
       <c r="A447" t="s">
         <v>299</v>
       </c>
@@ -15259,7 +15355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="43.5">
+    <row r="448" spans="1:6" ht="45">
       <c r="A448" t="s">
         <v>299</v>
       </c>
@@ -15279,7 +15375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="43.5">
+    <row r="449" spans="1:6" ht="45">
       <c r="A449" t="s">
         <v>299</v>
       </c>
@@ -15299,7 +15395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="58">
+    <row r="450" spans="1:6" ht="60">
       <c r="A450" t="s">
         <v>299</v>
       </c>
@@ -15319,7 +15415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="58">
+    <row r="451" spans="1:6" ht="60">
       <c r="A451" t="s">
         <v>299</v>
       </c>
@@ -15339,7 +15435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="58">
+    <row r="452" spans="1:6" ht="60">
       <c r="A452" t="s">
         <v>299</v>
       </c>
@@ -15359,7 +15455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="58">
+    <row r="453" spans="1:6" ht="60">
       <c r="A453" t="s">
         <v>299</v>
       </c>
@@ -15379,7 +15475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="43.5">
+    <row r="454" spans="1:6" ht="45">
       <c r="A454" t="s">
         <v>299</v>
       </c>
@@ -15399,7 +15495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="58">
+    <row r="455" spans="1:6" ht="75">
       <c r="A455" t="s">
         <v>299</v>
       </c>
@@ -15419,7 +15515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="58">
+    <row r="456" spans="1:6" ht="75">
       <c r="A456" t="s">
         <v>299</v>
       </c>
@@ -15439,7 +15535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="29">
+    <row r="457" spans="1:6" ht="30">
       <c r="A457" t="s">
         <v>299</v>
       </c>
@@ -15459,7 +15555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="72.5">
+    <row r="458" spans="1:6" ht="75">
       <c r="A458" t="s">
         <v>299</v>
       </c>
@@ -15479,7 +15575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="72.5">
+    <row r="459" spans="1:6" ht="75">
       <c r="A459" t="s">
         <v>299</v>
       </c>
@@ -15499,7 +15595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="58">
+    <row r="460" spans="1:6" ht="60">
       <c r="A460" t="s">
         <v>299</v>
       </c>
@@ -15519,7 +15615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="43.5">
+    <row r="461" spans="1:6" ht="45">
       <c r="A461" t="s">
         <v>299</v>
       </c>
@@ -15539,7 +15635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="43.5">
+    <row r="462" spans="1:6" ht="45">
       <c r="A462" t="s">
         <v>299</v>
       </c>
@@ -15559,7 +15655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="43.5">
+    <row r="463" spans="1:6" ht="45">
       <c r="A463" t="s">
         <v>299</v>
       </c>
@@ -15579,7 +15675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="43.5">
+    <row r="464" spans="1:6" ht="45">
       <c r="A464" t="s">
         <v>299</v>
       </c>
@@ -15599,7 +15695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="29">
+    <row r="465" spans="1:6" ht="30">
       <c r="A465" t="s">
         <v>299</v>
       </c>
@@ -15619,7 +15715,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="58">
+    <row r="466" spans="1:6" ht="60">
       <c r="A466" t="s">
         <v>299</v>
       </c>
@@ -15639,7 +15735,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="29">
+    <row r="467" spans="1:6" ht="30">
       <c r="A467" s="5" t="s">
         <v>299</v>
       </c>
@@ -15659,7 +15755,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="29">
+    <row r="468" spans="1:6" ht="30">
       <c r="A468" t="s">
         <v>299</v>
       </c>
@@ -15679,7 +15775,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="43.5">
+    <row r="469" spans="1:6" ht="45">
       <c r="A469" t="s">
         <v>299</v>
       </c>
@@ -15699,7 +15795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="43.5">
+    <row r="470" spans="1:6" ht="60">
       <c r="A470" t="s">
         <v>299</v>
       </c>
@@ -15719,7 +15815,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="58">
+    <row r="471" spans="1:6" ht="60">
       <c r="A471" t="s">
         <v>299</v>
       </c>
@@ -15799,7 +15895,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="29">
+    <row r="475" spans="1:6" ht="45">
       <c r="A475" t="s">
         <v>299</v>
       </c>
@@ -15819,7 +15915,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="29">
+    <row r="476" spans="1:6" ht="45">
       <c r="A476" t="s">
         <v>299</v>
       </c>
@@ -15839,7 +15935,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="29">
+    <row r="477" spans="1:6" ht="45">
       <c r="A477" t="s">
         <v>299</v>
       </c>
@@ -15859,7 +15955,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="43.5">
+    <row r="478" spans="1:6" ht="45">
       <c r="A478" t="s">
         <v>299</v>
       </c>
@@ -15879,7 +15975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="43.5">
+    <row r="479" spans="1:6" ht="45">
       <c r="A479" t="s">
         <v>299</v>
       </c>
@@ -15899,7 +15995,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="29">
+    <row r="480" spans="1:6" ht="30">
       <c r="A480" t="s">
         <v>299</v>
       </c>
@@ -15919,7 +16015,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" ht="30">
       <c r="A481" t="s">
         <v>299</v>
       </c>
@@ -16019,7 +16115,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="43.5">
+    <row r="486" spans="1:6" ht="45">
       <c r="A486" t="s">
         <v>299</v>
       </c>
@@ -16059,7 +16155,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="29">
+    <row r="488" spans="1:6" ht="45">
       <c r="A488" t="s">
         <v>299</v>
       </c>
@@ -16079,7 +16175,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="58">
+    <row r="489" spans="1:6" ht="60">
       <c r="A489" t="s">
         <v>299</v>
       </c>
@@ -16099,7 +16195,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="43.5">
+    <row r="490" spans="1:6" ht="45">
       <c r="A490" t="s">
         <v>299</v>
       </c>
@@ -16119,7 +16215,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="72.5">
+    <row r="491" spans="1:6" ht="75">
       <c r="A491" t="s">
         <v>299</v>
       </c>
@@ -16139,7 +16235,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="43.5">
+    <row r="492" spans="1:6" ht="60">
       <c r="A492" t="s">
         <v>299</v>
       </c>
@@ -16159,7 +16255,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="43.5">
+    <row r="493" spans="1:6" ht="60">
       <c r="A493" t="s">
         <v>299</v>
       </c>
@@ -16179,7 +16275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="72.5">
+    <row r="494" spans="1:6" ht="75">
       <c r="A494" t="s">
         <v>299</v>
       </c>
@@ -16199,7 +16295,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="72.5">
+    <row r="495" spans="1:6" ht="90">
       <c r="A495" t="s">
         <v>299</v>
       </c>
@@ -16219,7 +16315,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="58">
+    <row r="496" spans="1:6" ht="75">
       <c r="A496" t="s">
         <v>299</v>
       </c>
@@ -16239,7 +16335,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="72.5">
+    <row r="497" spans="1:6" ht="75">
       <c r="A497" t="s">
         <v>299</v>
       </c>
@@ -16259,7 +16355,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="58">
+    <row r="498" spans="1:6" ht="75">
       <c r="A498" t="s">
         <v>299</v>
       </c>
@@ -16279,7 +16375,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="72.5">
+    <row r="499" spans="1:6" ht="75">
       <c r="A499" t="s">
         <v>299</v>
       </c>
@@ -16299,7 +16395,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="58">
+    <row r="500" spans="1:6" ht="60">
       <c r="A500" t="s">
         <v>299</v>
       </c>
@@ -16319,7 +16415,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="72.5">
+    <row r="501" spans="1:6" ht="75">
       <c r="A501" t="s">
         <v>299</v>
       </c>
@@ -16339,7 +16435,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="72.5">
+    <row r="502" spans="1:6" ht="75">
       <c r="A502" t="s">
         <v>299</v>
       </c>
@@ -16359,7 +16455,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="43.5">
+    <row r="503" spans="1:6" ht="60">
       <c r="A503" t="s">
         <v>299</v>
       </c>
@@ -16379,7 +16475,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="87">
+    <row r="504" spans="1:6" ht="90">
       <c r="A504" t="s">
         <v>299</v>
       </c>
@@ -16399,7 +16495,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="43.5">
+    <row r="505" spans="1:6" ht="60">
       <c r="A505" t="s">
         <v>299</v>
       </c>
@@ -16419,7 +16515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="58">
+    <row r="506" spans="1:6" ht="75">
       <c r="A506" t="s">
         <v>299</v>
       </c>
@@ -16439,7 +16535,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="58">
+    <row r="507" spans="1:6" ht="90">
       <c r="A507" t="s">
         <v>299</v>
       </c>
@@ -16459,7 +16555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="58">
+    <row r="508" spans="1:6" ht="90">
       <c r="A508" t="s">
         <v>299</v>
       </c>
@@ -16479,7 +16575,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="43.5">
+    <row r="509" spans="1:6" ht="75">
       <c r="A509" t="s">
         <v>299</v>
       </c>
@@ -16499,7 +16595,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="29">
+    <row r="510" spans="1:6" ht="30">
       <c r="A510" t="s">
         <v>299</v>
       </c>
@@ -16519,7 +16615,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="29">
+    <row r="511" spans="1:6" ht="30">
       <c r="A511" t="s">
         <v>299</v>
       </c>
@@ -16539,7 +16635,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="29">
+    <row r="512" spans="1:6" ht="30">
       <c r="A512" t="s">
         <v>299</v>
       </c>
@@ -16559,7 +16655,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" ht="30">
       <c r="A513" t="s">
         <v>299</v>
       </c>
@@ -16579,7 +16675,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="29">
+    <row r="514" spans="1:6" ht="30">
       <c r="A514" t="s">
         <v>299</v>
       </c>
@@ -16599,7 +16695,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="29">
+    <row r="515" spans="1:6" ht="30">
       <c r="A515" t="s">
         <v>299</v>
       </c>
@@ -56196,6 +56292,486 @@
         <v>1391</v>
       </c>
       <c r="F2494" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:6">
+      <c r="A2495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D2495" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:6">
+      <c r="A2496" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D2496" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:6">
+      <c r="A2497" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D2497" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:6">
+      <c r="A2498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D2498" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:6">
+      <c r="A2499" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D2499" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:6">
+      <c r="A2500" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D2500" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:6">
+      <c r="A2501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D2501" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:6">
+      <c r="A2502" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D2502" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:6">
+      <c r="A2503" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D2503" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:6">
+      <c r="A2504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2504" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:6">
+      <c r="A2505" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D2505" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:6">
+      <c r="A2506" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D2506" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:6">
+      <c r="A2507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D2507" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:6">
+      <c r="A2508" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D2508" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:6">
+      <c r="A2509" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D2509" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2509" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:6">
+      <c r="A2510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D2510" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:6">
+      <c r="A2511" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D2511" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:6">
+      <c r="A2512" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D2512" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2512" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:6">
+      <c r="A2513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D2513" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2513" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:6">
+      <c r="A2514" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D2514" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2514" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:6">
+      <c r="A2515" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D2515" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:6">
+      <c r="A2516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D2516" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:6">
+      <c r="A2517" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D2517" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:6">
+      <c r="A2518" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D2518" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2518" t="s">
         <v>1392</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2569C69-C9F3-4645-BAB1-9AE72E65D57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF45C81-6880-4123-B7BE-9F6CE6B1ADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15108" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14964" uniqueCount="1399">
   <si>
     <t>lang_code</t>
   </si>
@@ -5837,102 +5837,6 @@
   </si>
   <si>
     <t>Authentication positive summary</t>
-  </si>
-  <si>
-    <t>ROOT_CERT_EXPIRY_TEMPLATE</t>
-  </si>
-  <si>
-    <t>INTERMEDIATE_CERT_EXPIRY_TEMPLATE</t>
-  </si>
-  <si>
-    <t>PARTNER_CERT_EXPIRY_TEMPLATE</t>
-  </si>
-  <si>
-    <t>WEEKLY_SUMMARY_TEMPLATE</t>
-  </si>
-  <si>
-    <t>ROOT_CERT_EXPIRY_SUBJECT</t>
-  </si>
-  <si>
-    <t>INTERMEDIATE_CERT_EXPIRY_SUBJECT</t>
-  </si>
-  <si>
-    <t>PARTNER_CERT_EXPIRY_SUBJECT</t>
-  </si>
-  <si>
-    <t>WEEKLY_SUMMARY_SUBJECT</t>
-  </si>
-  <si>
-    <t>Template for root certificate expiry</t>
-  </si>
-  <si>
-    <t>Modèle d'expiration du certificat racine</t>
-  </si>
-  <si>
-    <t>نموذج لانتهاء صلاحية شهادة الجذر</t>
-  </si>
-  <si>
-    <t>Template for intermediate certificate expiry</t>
-  </si>
-  <si>
-    <t>Modèle d'expiration de certificat intermédiaire</t>
-  </si>
-  <si>
-    <t>نموذج انتهاء صلاحية الشهادة المتوسطة</t>
-  </si>
-  <si>
-    <t>Template for partner certificate expiry</t>
-  </si>
-  <si>
-    <t>Modèle d'expiration du certificat de partenaire</t>
-  </si>
-  <si>
-    <t>نموذج انتهاء صلاحية شهادة الشريك</t>
-  </si>
-  <si>
-    <t>Template for weekly summary notifications</t>
-  </si>
-  <si>
-    <t>Modèle pour les notifications récapitulatives hebdomadaires</t>
-  </si>
-  <si>
-    <t>نموذج لإشعارات الملخص الأسبوعية</t>
-  </si>
-  <si>
-    <t>Subject template for root certificate expiry</t>
-  </si>
-  <si>
-    <t>Modèle de sujet pour l'expiration du certificat racine</t>
-  </si>
-  <si>
-    <t>نموذج موضوعي لانتهاء صلاحية شهادة الجذر</t>
-  </si>
-  <si>
-    <t>Subject template for intermediate certificate expiry</t>
-  </si>
-  <si>
-    <t>Modèle de sujet pour l'expiration du certificat intermédiaire</t>
-  </si>
-  <si>
-    <t>نموذج موضوعي لانتهاء صلاحية الشهادة المتوسطة</t>
-  </si>
-  <si>
-    <t>Subject template for partner certificate expiry</t>
-  </si>
-  <si>
-    <t>Modèle de sujet pour l'expiration du certificat du partenaire</t>
-  </si>
-  <si>
-    <t>نموذج موضوعي لانتهاء صلاحية شهادة الشريك</t>
-  </si>
-  <si>
-    <t>Subject template for weekly summary notifications</t>
-  </si>
-  <si>
-    <t>Modèle de sujet pour les notifications récapitulatives hebdomadaires</t>
-  </si>
-  <si>
-    <t>قالب موضوعي لإشعارات الملخص الأسبوعي</t>
   </si>
 </sst>
 </file>
@@ -6401,10 +6305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2518"/>
+  <dimension ref="A1:F2494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2510" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2518" sqref="D2518"/>
+    <sheetView tabSelected="1" topLeftCell="A2486" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2494" sqref="A2494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -56295,486 +56199,6 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="2495" spans="1:6">
-      <c r="A2495" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2495" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C2495" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D2495" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2495" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2495" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2496" spans="1:6">
-      <c r="A2496" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2496" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C2496" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D2496" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2496" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2496" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2497" spans="1:6">
-      <c r="A2497" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2497" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C2497" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D2497" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2497" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2497" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2498" spans="1:6">
-      <c r="A2498" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2498" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C2498" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D2498" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2498" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2498" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2499" spans="1:6">
-      <c r="A2499" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2499" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C2499" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D2499" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2499" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2499" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:6">
-      <c r="A2500" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2500" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C2500" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D2500" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2500" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2500" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2501" spans="1:6">
-      <c r="A2501" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2501" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C2501" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D2501" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2501" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2501" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2502" spans="1:6">
-      <c r="A2502" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2502" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C2502" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D2502" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2502" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2502" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:6">
-      <c r="A2503" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2503" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C2503" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D2503" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2503" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2503" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2504" spans="1:6">
-      <c r="A2504" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2504" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C2504" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D2504" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2504" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2504" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2505" spans="1:6">
-      <c r="A2505" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2505" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C2505" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D2505" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2505" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2505" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2506" spans="1:6">
-      <c r="A2506" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2506" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C2506" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D2506" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2506" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2506" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2507" spans="1:6">
-      <c r="A2507" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2507" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C2507" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D2507" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2507" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2507" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2508" spans="1:6">
-      <c r="A2508" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2508" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C2508" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D2508" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2508" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2508" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2509" spans="1:6">
-      <c r="A2509" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2509" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C2509" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D2509" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2509" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2509" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2510" spans="1:6">
-      <c r="A2510" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2510" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C2510" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D2510" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2510" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2510" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2511" spans="1:6">
-      <c r="A2511" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2511" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C2511" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D2511" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2511" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2511" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2512" spans="1:6">
-      <c r="A2512" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2512" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C2512" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D2512" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2512" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2512" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2513" spans="1:6">
-      <c r="A2513" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2513" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C2513" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D2513" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2513" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2513" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2514" spans="1:6">
-      <c r="A2514" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2514" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C2514" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D2514" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2514" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2514" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2515" spans="1:6">
-      <c r="A2515" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2515" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C2515" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D2515" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2515" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2515" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2516" spans="1:6">
-      <c r="A2516" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2516" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C2516" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D2516" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2516" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2516" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2517" spans="1:6">
-      <c r="A2517" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2517" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C2517" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D2517" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2517" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2517" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="2518" spans="1:6">
-      <c r="A2518" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2518" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C2518" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D2518" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2518" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2518" t="s">
-        <v>1392</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:D365" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF45C81-6880-4123-B7BE-9F6CE6B1ADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A89C4-95B5-421B-9706-6D277F1A82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14964" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15252" uniqueCount="1455">
   <si>
     <t>lang_code</t>
   </si>
@@ -5837,6 +5837,174 @@
   </si>
   <si>
     <t>Authentication positive summary</t>
+  </si>
+  <si>
+    <t>ROOT_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for root certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration du certificat racine</t>
+  </si>
+  <si>
+    <t>نموذج لانتهاء صلاحية شهادة الجذر</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for intermediate certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration de certificat intermédiaire</t>
+  </si>
+  <si>
+    <t>نموذج انتهاء صلاحية الشهادة المتوسطة</t>
+  </si>
+  <si>
+    <t>PARTNER_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for partner certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration du certificat de partenaire</t>
+  </si>
+  <si>
+    <t>نموذج انتهاء صلاحية شهادة الشريك</t>
+  </si>
+  <si>
+    <t>WEEKLY_SUMMARY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for weekly summary notifications</t>
+  </si>
+  <si>
+    <t>Modèle pour les notifications récapitulatives hebdomadaires</t>
+  </si>
+  <si>
+    <t>نموذج لإشعارات الملخص الأسبوعية</t>
+  </si>
+  <si>
+    <t>ROOT_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for root certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat racine</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية شهادة الجذر</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for intermediate certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat intermédiaire</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية الشهادة المتوسطة</t>
+  </si>
+  <si>
+    <t>PARTNER_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for partner certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat du partenaire</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية شهادة الشريك</t>
+  </si>
+  <si>
+    <t>WEEKLY_SUMMARY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for weekly summary notifications</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour les notifications récapitulatives hebdomadaires</t>
+  </si>
+  <si>
+    <t>قالب موضوعي لإشعارات الملخص الأسبوعي</t>
+  </si>
+  <si>
+    <t>ரூட் சான்றிதழ் காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>रूट प्रमाणपत्र समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ಮೂಲ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯ ದಿನಾಂಕದ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>ಮಧ್ಯಂತರ ಪ್ರಮಾಣಪತ್ರ ಮುಕ್ತಾಯಕ್ಕಾಗಿ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>मध्यवर्ती प्रमाणपत्र समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>இடைநிலை சான்றிதழ் காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>கூட்டாளர் சான்றிதழ் காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>ಪಾಲುದಾರ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯ ದಿನಾಂಕದ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>भागीदार प्रमाणपत्र समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>साप्ताहिक सारांश अधिसूचनाओं के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ವಾರದ ಸಾರಾಂಶ ಅಧಿಸೂಚನೆಗಳಿಗಾಗಿ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>வாராந்திர சுருக்க அறிவிப்புகளுக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>மூலச் சான்றிதழ் காலாவதிக்கான பொருள் டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>रूट प्रमाणपत्र समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ಮೂಲ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯ ದಿನಾಂಕದ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>ಮಧ್ಯಂತರ ಪ್ರಮಾಣಪತ್ರ ಮುಕ್ತಾಯಕ್ಕಾಗಿ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>इंटरमीडिएट प्रमाणपत्र समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>இடைநிலை சான்றிதழ் காலாவதிக்கான பொருள் வார்ப்புரு</t>
+  </si>
+  <si>
+    <t>கூட்டாளர் சான்றிதழ் காலாவதிக்கான பொருள் டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>ಪಾಲುದಾರ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯದ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>भागीदार प्रमाणपत्र समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>साप्ताहिक सारांश अधिसूचनाओं के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ವಾರದ ಸಾರಾಂಶ ಅಧಿಸೂಚನೆಗಳಿಗಾಗಿ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>வாராந்திர சுருக்க அறிவிப்புகளுக்கான தலைப்பு டெம்ப்ளேட்</t>
   </si>
 </sst>
 </file>
@@ -6305,17 +6473,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2494"/>
+  <dimension ref="A1:F2542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2486" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2494" sqref="A2494"/>
+    <sheetView tabSelected="1" topLeftCell="A2489" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2541" sqref="B2541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -56199,6 +56367,966 @@
         <v>1392</v>
       </c>
     </row>
+    <row r="2495" spans="1:6">
+      <c r="A2495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D2495" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:6">
+      <c r="A2496" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D2496" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:6">
+      <c r="A2497" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D2497" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:6">
+      <c r="A2498" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D2498" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:6">
+      <c r="A2499" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D2499" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:6">
+      <c r="A2500" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D2500" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:6">
+      <c r="A2501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D2501" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:6">
+      <c r="A2502" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D2502" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:6">
+      <c r="A2503" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D2503" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:6">
+      <c r="A2504" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D2504" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:6">
+      <c r="A2505" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D2505" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:6">
+      <c r="A2506" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D2506" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:6">
+      <c r="A2507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D2507" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:6">
+      <c r="A2508" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D2508" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:6">
+      <c r="A2509" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D2509" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2509" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:6">
+      <c r="A2510" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D2510" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:6">
+      <c r="A2511" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D2511" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:6">
+      <c r="A2512" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D2512" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2512" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:6">
+      <c r="A2513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2513" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2513" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:6">
+      <c r="A2514" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D2514" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2514" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:6">
+      <c r="A2515" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D2515" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:6">
+      <c r="A2516" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D2516" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:6">
+      <c r="A2517" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D2517" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:6">
+      <c r="A2518" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D2518" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2518" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:6">
+      <c r="A2519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D2519" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2519" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:6">
+      <c r="A2520" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D2520" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2520" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:6">
+      <c r="A2521" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D2521" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2521" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:6">
+      <c r="A2522" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D2522" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2522" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:6">
+      <c r="A2523" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D2523" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2523" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:6">
+      <c r="A2524" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D2524" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2524" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:6">
+      <c r="A2525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D2525" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2525" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:6">
+      <c r="A2526" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D2526" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2526" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:6">
+      <c r="A2527" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D2527" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2527" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:6">
+      <c r="A2528" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D2528" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2528" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:6">
+      <c r="A2529" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D2529" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2529" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:6">
+      <c r="A2530" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D2530" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2530" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:6">
+      <c r="A2531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D2531" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2531" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:6">
+      <c r="A2532" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D2532" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2532" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:6">
+      <c r="A2533" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D2533" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2533" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:6">
+      <c r="A2534" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D2534" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2534" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:6">
+      <c r="A2535" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D2535" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2535" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:6">
+      <c r="A2536" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D2536" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2536" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D2537" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2537" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:6">
+      <c r="A2538" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D2538" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2538" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:6">
+      <c r="A2539" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D2539" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2539" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:6">
+      <c r="A2540" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D2540" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2540" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:6">
+      <c r="A2541" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D2541" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2541" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:6">
+      <c r="A2542" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2542" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2542" t="s">
+        <v>1392</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D365" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95166E-6361-4800-BC8F-6E5490572258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A89C4-95B5-421B-9706-6D277F1A82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15108" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15252" uniqueCount="1455">
   <si>
     <t>lang_code</t>
   </si>
@@ -5933,6 +5933,78 @@
   </si>
   <si>
     <t>قالب موضوعي لإشعارات الملخص الأسبوعي</t>
+  </si>
+  <si>
+    <t>ரூட் சான்றிதழ் காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>रूट प्रमाणपत्र समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ಮೂಲ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯ ದಿನಾಂಕದ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>ಮಧ್ಯಂತರ ಪ್ರಮಾಣಪತ್ರ ಮುಕ್ತಾಯಕ್ಕಾಗಿ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>मध्यवर्ती प्रमाणपत्र समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>இடைநிலை சான்றிதழ் காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>கூட்டாளர் சான்றிதழ் காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>ಪಾಲುದಾರ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯ ದಿನಾಂಕದ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>भागीदार प्रमाणपत्र समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>साप्ताहिक सारांश अधिसूचनाओं के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ವಾರದ ಸಾರಾಂಶ ಅಧಿಸೂಚನೆಗಳಿಗಾಗಿ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>வாராந்திர சுருக்க அறிவிப்புகளுக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>மூலச் சான்றிதழ் காலாவதிக்கான பொருள் டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>रूट प्रमाणपत्र समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ಮೂಲ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯ ದಿನಾಂಕದ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>ಮಧ್ಯಂತರ ಪ್ರಮಾಣಪತ್ರ ಮುಕ್ತಾಯಕ್ಕಾಗಿ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>इंटरमीडिएट प्रमाणपत्र समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>இடைநிலை சான்றிதழ் காலாவதிக்கான பொருள் வார்ப்புரு</t>
+  </si>
+  <si>
+    <t>கூட்டாளர் சான்றிதழ் காலாவதிக்கான பொருள் டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>ಪಾಲುದಾರ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯದ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>भागीदार प्रमाणपत्र समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>साप्ताहिक सारांश अधिसूचनाओं के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ವಾರದ ಸಾರಾಂಶ ಅಧಿಸೂಚನೆಗಳಿಗಾಗಿ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>வாராந்திர சுருக்க அறிவிப்புகளுக்கான தலைப்பு டெம்ப்ளேட்</t>
   </si>
 </sst>
 </file>
@@ -6401,17 +6473,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2518"/>
+  <dimension ref="A1:F2542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2502" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2495" sqref="B2495"/>
+    <sheetView tabSelected="1" topLeftCell="A2489" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2541" sqref="B2541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -56357,13 +56429,13 @@
     </row>
     <row r="2498" spans="1:6">
       <c r="A2498" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="B2498" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C2498" t="s">
-        <v>1404</v>
+        <v>1432</v>
       </c>
       <c r="D2498" s="1" t="s">
         <v>7</v>
@@ -56377,13 +56449,13 @@
     </row>
     <row r="2499" spans="1:6">
       <c r="A2499" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B2499" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C2499" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
       <c r="D2499" s="1" t="s">
         <v>7</v>
@@ -56397,13 +56469,13 @@
     </row>
     <row r="2500" spans="1:6">
       <c r="A2500" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B2500" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C2500" t="s">
-        <v>1406</v>
+        <v>1431</v>
       </c>
       <c r="D2500" s="1" t="s">
         <v>7</v>
@@ -56420,10 +56492,10 @@
         <v>4</v>
       </c>
       <c r="B2501" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C2501" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D2501" s="1" t="s">
         <v>7</v>
@@ -56440,10 +56512,10 @@
         <v>290</v>
       </c>
       <c r="B2502" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C2502" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D2502" s="1" t="s">
         <v>7</v>
@@ -56460,10 +56532,10 @@
         <v>291</v>
       </c>
       <c r="B2503" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C2503" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D2503" s="1" t="s">
         <v>7</v>
@@ -56477,13 +56549,13 @@
     </row>
     <row r="2504" spans="1:6">
       <c r="A2504" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="B2504" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="C2504" t="s">
-        <v>1412</v>
+        <v>1435</v>
       </c>
       <c r="D2504" s="1" t="s">
         <v>7</v>
@@ -56497,13 +56569,13 @@
     </row>
     <row r="2505" spans="1:6">
       <c r="A2505" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B2505" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="C2505" t="s">
-        <v>1413</v>
+        <v>1434</v>
       </c>
       <c r="D2505" s="1" t="s">
         <v>7</v>
@@ -56517,13 +56589,13 @@
     </row>
     <row r="2506" spans="1:6">
       <c r="A2506" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B2506" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="C2506" t="s">
-        <v>1414</v>
+        <v>1436</v>
       </c>
       <c r="D2506" s="1" t="s">
         <v>7</v>
@@ -56540,10 +56612,10 @@
         <v>4</v>
       </c>
       <c r="B2507" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="C2507" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="D2507" s="1" t="s">
         <v>7</v>
@@ -56560,10 +56632,10 @@
         <v>290</v>
       </c>
       <c r="B2508" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="C2508" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="D2508" s="1" t="s">
         <v>7</v>
@@ -56580,10 +56652,10 @@
         <v>291</v>
       </c>
       <c r="B2509" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="C2509" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="D2509" s="1" t="s">
         <v>7</v>
@@ -56597,13 +56669,13 @@
     </row>
     <row r="2510" spans="1:6">
       <c r="A2510" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="B2510" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="C2510" t="s">
-        <v>1420</v>
+        <v>1439</v>
       </c>
       <c r="D2510" s="1" t="s">
         <v>7</v>
@@ -56617,13 +56689,13 @@
     </row>
     <row r="2511" spans="1:6">
       <c r="A2511" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B2511" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="C2511" t="s">
-        <v>1421</v>
+        <v>1438</v>
       </c>
       <c r="D2511" s="1" t="s">
         <v>7</v>
@@ -56637,13 +56709,13 @@
     </row>
     <row r="2512" spans="1:6">
       <c r="A2512" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B2512" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="C2512" t="s">
-        <v>1422</v>
+        <v>1437</v>
       </c>
       <c r="D2512" s="1" t="s">
         <v>7</v>
@@ -56660,10 +56732,10 @@
         <v>4</v>
       </c>
       <c r="B2513" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="C2513" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="D2513" s="1" t="s">
         <v>7</v>
@@ -56680,10 +56752,10 @@
         <v>290</v>
       </c>
       <c r="B2514" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="C2514" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="D2514" s="1" t="s">
         <v>7</v>
@@ -56700,10 +56772,10 @@
         <v>291</v>
       </c>
       <c r="B2515" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="C2515" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="D2515" s="1" t="s">
         <v>7</v>
@@ -56717,13 +56789,13 @@
     </row>
     <row r="2516" spans="1:6">
       <c r="A2516" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="B2516" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="C2516" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
       <c r="D2516" s="1" t="s">
         <v>7</v>
@@ -56737,13 +56809,13 @@
     </row>
     <row r="2517" spans="1:6">
       <c r="A2517" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B2517" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="C2517" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="D2517" s="1" t="s">
         <v>7</v>
@@ -56757,21 +56829,501 @@
     </row>
     <row r="2518" spans="1:6">
       <c r="A2518" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D2518" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2518" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:6">
+      <c r="A2519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D2519" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2519" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:6">
+      <c r="A2520" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D2520" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2520" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:6">
+      <c r="A2521" t="s">
         <v>291</v>
       </c>
-      <c r="B2518" t="s">
+      <c r="B2521" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D2521" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2521" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:6">
+      <c r="A2522" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D2522" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2522" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:6">
+      <c r="A2523" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D2523" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2523" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:6">
+      <c r="A2524" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D2524" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2524" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:6">
+      <c r="A2525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D2525" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2525" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:6">
+      <c r="A2526" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D2526" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2526" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:6">
+      <c r="A2527" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D2527" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2527" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:6">
+      <c r="A2528" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D2528" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2528" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:6">
+      <c r="A2529" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D2529" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2529" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:6">
+      <c r="A2530" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D2530" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2530" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:6">
+      <c r="A2531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D2531" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2531" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:6">
+      <c r="A2532" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D2532" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2532" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:6">
+      <c r="A2533" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D2533" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2533" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:6">
+      <c r="A2534" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D2534" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2534" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:6">
+      <c r="A2535" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D2535" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2535" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:6">
+      <c r="A2536" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D2536" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2536" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2537" t="s">
         <v>1427</v>
       </c>
-      <c r="C2518" t="s">
+      <c r="C2537" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D2537" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2537" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:6">
+      <c r="A2538" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D2538" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2538" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:6">
+      <c r="A2539" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2539" t="s">
         <v>1430</v>
       </c>
-      <c r="D2518" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2518" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F2518" t="s">
+      <c r="D2539" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2539" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:6">
+      <c r="A2540" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D2540" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2540" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:6">
+      <c r="A2541" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D2541" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2541" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:6">
+      <c r="A2542" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2542" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2542" t="s">
         <v>1392</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A89C4-95B5-421B-9706-6D277F1A82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493FBBA-311F-4FC6-980D-93205FF0EC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15252" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15468" uniqueCount="1497">
   <si>
     <t>lang_code</t>
   </si>
@@ -6005,6 +6005,132 @@
   </si>
   <si>
     <t>வாராந்திர சுருக்க அறிவிப்புகளுக்கான தலைப்பு டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>FTM_CHIP_CERT_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for FTM chip certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle d'expiration du certificat de puce FTM</t>
+  </si>
+  <si>
+    <t>نموذج لانتهاء صلاحية شهادة شريحة FTM</t>
+  </si>
+  <si>
+    <t>FTM चिप प्रमाणपत्र समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>FTM ಚಿಪ್ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯದ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>FTM சிப் சான்றிதழ் காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>API_KEY_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for API key expiry</t>
+  </si>
+  <si>
+    <t>Modèle pour l'expiration de la clé API</t>
+  </si>
+  <si>
+    <t>قالب لانتهاء صلاحية مفتاح API</t>
+  </si>
+  <si>
+    <t>API कुंजी समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>API ಕೀ ಅವಧಿ ಮುಗಿಯುವ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>API விசை காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>SBI_EXPIRY_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Template for SBI expiry</t>
+  </si>
+  <si>
+    <t>Modèle pour l'expiration du SBI</t>
+  </si>
+  <si>
+    <t>نموذج لانتهاء صلاحية SBI</t>
+  </si>
+  <si>
+    <t>एसबीआई समाप्ति के लिए टेम्पलेट</t>
+  </si>
+  <si>
+    <t>ಎಸ್‌ಬಿಐ ಅವಧಿ ಮುಗಿಯುವ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>எஸ்பிஐ காலாவதிக்கான டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>FTM_CHIP_CERT_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for FTM chip certificate expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du certificat de puce FTM</t>
+  </si>
+  <si>
+    <t>نموذج موضوعي لانتهاء صلاحية شهادة شريحة FTM</t>
+  </si>
+  <si>
+    <t>एफटीएम चिप प्रमाणपत्र समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>FTM ಚಿಪ್ ಪ್ರಮಾಣಪತ್ರದ ಮುಕ್ತಾಯದ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>FTM சிப் சான்றிதழ் காலாவதிக்கான பொருள் டெம்ப்ளேட்.</t>
+  </si>
+  <si>
+    <t>API_KEY_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for API key expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration de la clé API</t>
+  </si>
+  <si>
+    <t>قالب موضوع لانتهاء صلاحية مفتاح API</t>
+  </si>
+  <si>
+    <t>API कुंजी समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>API ಕೀ ಅವಧಿ ಮುಗಿಯುವ ವಿಷಯ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>API விசை காலாவதிக்கான பொருள் டெம்ப்ளேட்</t>
+  </si>
+  <si>
+    <t>SBI_EXPIRY_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject template for SBI expiry</t>
+  </si>
+  <si>
+    <t>Modèle de sujet pour l'expiration du SBI</t>
+  </si>
+  <si>
+    <t>نموذج موضوع لانتهاء صلاحية بنك SBI</t>
+  </si>
+  <si>
+    <t>एसबीआई समाप्ति के लिए विषय टेम्पलेट</t>
+  </si>
+  <si>
+    <t>SBI ಅವಧಿ ಮುಗಿಯುವ ವಿಷಯದ ಟೆಂಪ್ಲೇಟ್</t>
+  </si>
+  <si>
+    <t>எஸ்பிஐ காலாவதிக்கான பாட வார்ப்புரு</t>
   </si>
 </sst>
 </file>
@@ -6473,10 +6599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2542"/>
+  <dimension ref="A1:F2578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2489" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2541" sqref="B2541"/>
+    <sheetView tabSelected="1" topLeftCell="A2539" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2572" sqref="F2572:F2578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -7047,7 +7173,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>291</v>
       </c>
@@ -7087,7 +7213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -7127,7 +7253,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="29.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7527,7 +7653,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>291</v>
       </c>
@@ -7547,7 +7673,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="29.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>291</v>
       </c>
@@ -7587,7 +7713,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="29.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>291</v>
       </c>
@@ -7607,7 +7733,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -7647,7 +7773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="29.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>291</v>
       </c>
@@ -7667,7 +7793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="29.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>291</v>
       </c>
@@ -7967,7 +8093,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="29.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -7987,7 +8113,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="29.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>291</v>
       </c>
@@ -8007,7 +8133,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="29.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>291</v>
       </c>
@@ -8107,7 +8233,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="29.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>291</v>
       </c>
@@ -8287,7 +8413,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="29.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>291</v>
       </c>
@@ -8407,7 +8533,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -8647,7 +8773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="29.25">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>291</v>
       </c>
@@ -8707,7 +8833,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="29.25">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>291</v>
       </c>
@@ -8887,7 +9013,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>291</v>
       </c>
@@ -9367,7 +9493,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>291</v>
       </c>
@@ -9427,7 +9553,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="29.25">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>291</v>
       </c>
@@ -9487,7 +9613,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>291</v>
       </c>
@@ -9547,7 +9673,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="29.25">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>291</v>
       </c>
@@ -9607,7 +9733,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="29.25">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>291</v>
       </c>
@@ -9667,7 +9793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="29.25">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>291</v>
       </c>
@@ -9727,7 +9853,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="30">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>291</v>
       </c>
@@ -9787,7 +9913,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="29.25">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>291</v>
       </c>
@@ -9847,7 +9973,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>291</v>
       </c>
@@ -9907,7 +10033,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="43.5">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>291</v>
       </c>
@@ -9967,7 +10093,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="30">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>291</v>
       </c>
@@ -10027,7 +10153,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="29.25">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>291</v>
       </c>
@@ -10087,7 +10213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="30">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>291</v>
       </c>
@@ -10147,7 +10273,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="29.25">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>291</v>
       </c>
@@ -10207,7 +10333,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="44.25">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>291</v>
       </c>
@@ -10267,7 +10393,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="29.25">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>291</v>
       </c>
@@ -10327,7 +10453,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="29.25">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>291</v>
       </c>
@@ -10387,7 +10513,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="29.25">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>291</v>
       </c>
@@ -10447,7 +10573,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="43.5">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>291</v>
       </c>
@@ -10507,7 +10633,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="43.5">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>291</v>
       </c>
@@ -10567,7 +10693,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="29.25">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>291</v>
       </c>
@@ -10627,7 +10753,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="43.5">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>291</v>
       </c>
@@ -11167,7 +11293,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="29.25">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>291</v>
       </c>
@@ -11227,7 +11353,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="29.25">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>291</v>
       </c>
@@ -11287,7 +11413,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="29.25">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>291</v>
       </c>
@@ -11347,7 +11473,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="29.25">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>291</v>
       </c>
@@ -11647,7 +11773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="29.25">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>291</v>
       </c>
@@ -11727,7 +11853,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="30">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>297</v>
       </c>
@@ -11747,7 +11873,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>297</v>
       </c>
@@ -11767,7 +11893,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="30">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>297</v>
       </c>
@@ -11787,7 +11913,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="30">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>297</v>
       </c>
@@ -11807,7 +11933,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="30">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>297</v>
       </c>
@@ -11827,7 +11953,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="30">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -11847,7 +11973,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>297</v>
       </c>
@@ -11867,7 +11993,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="30">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>297</v>
       </c>
@@ -11887,7 +12013,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="30">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>297</v>
       </c>
@@ -11907,7 +12033,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="45">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>297</v>
       </c>
@@ -11927,7 +12053,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="45">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>297</v>
       </c>
@@ -11947,7 +12073,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="45">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -11967,7 +12093,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="45">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>297</v>
       </c>
@@ -11987,7 +12113,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="30">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -12007,7 +12133,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="30">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>297</v>
       </c>
@@ -12027,7 +12153,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="30">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>297</v>
       </c>
@@ -12067,7 +12193,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="60">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>297</v>
       </c>
@@ -12087,7 +12213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="60">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>297</v>
       </c>
@@ -12107,7 +12233,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="45">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -12127,7 +12253,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="30">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -12147,7 +12273,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -12167,7 +12293,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="30">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -12187,7 +12313,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="30">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -12227,7 +12353,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>297</v>
       </c>
@@ -12247,7 +12373,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30">
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -12287,7 +12413,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="45">
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -12307,7 +12433,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30">
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -12327,7 +12453,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="45">
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>297</v>
       </c>
@@ -12347,7 +12473,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="45">
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -12407,7 +12533,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="30">
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -12427,7 +12553,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30">
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12447,7 +12573,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30">
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -12467,7 +12593,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="30">
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>297</v>
       </c>
@@ -12487,7 +12613,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="30">
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>297</v>
       </c>
@@ -12507,7 +12633,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="30">
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>297</v>
       </c>
@@ -12627,7 +12753,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="45">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>297</v>
       </c>
@@ -12647,7 +12773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="30">
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>297</v>
       </c>
@@ -12667,7 +12793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30">
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>297</v>
       </c>
@@ -12687,7 +12813,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="45">
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>297</v>
       </c>
@@ -12707,7 +12833,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="45">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>297</v>
       </c>
@@ -12727,7 +12853,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="60">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>297</v>
       </c>
@@ -12747,7 +12873,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="60">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>297</v>
       </c>
@@ -12767,7 +12893,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="45">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>297</v>
       </c>
@@ -12787,7 +12913,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="45">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>297</v>
       </c>
@@ -12807,7 +12933,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="60">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>297</v>
       </c>
@@ -12827,7 +12953,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="45">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>297</v>
       </c>
@@ -12847,7 +12973,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="60">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -12887,7 +13013,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="60">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>297</v>
       </c>
@@ -12907,7 +13033,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="60">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>297</v>
       </c>
@@ -12927,7 +13053,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="60">
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>297</v>
       </c>
@@ -12947,7 +13073,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="45">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>297</v>
       </c>
@@ -12967,7 +13093,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="45">
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>297</v>
       </c>
@@ -12987,7 +13113,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="60">
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>297</v>
       </c>
@@ -13007,7 +13133,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="45">
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>297</v>
       </c>
@@ -13027,7 +13153,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="60">
+    <row r="328" spans="1:6" ht="30">
       <c r="A328" t="s">
         <v>297</v>
       </c>
@@ -13047,7 +13173,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="60">
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>297</v>
       </c>
@@ -13067,7 +13193,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="60">
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>297</v>
       </c>
@@ -13087,7 +13213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="45">
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>297</v>
       </c>
@@ -13107,7 +13233,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>297</v>
       </c>
@@ -13127,7 +13253,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="45">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>297</v>
       </c>
@@ -13147,7 +13273,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>297</v>
       </c>
@@ -13167,7 +13293,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>297</v>
       </c>
@@ -13187,7 +13313,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="30">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>297</v>
       </c>
@@ -13207,7 +13333,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="30">
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>297</v>
       </c>
@@ -13407,7 +13533,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="30">
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>297</v>
       </c>
@@ -13507,7 +13633,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="30">
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>298</v>
       </c>
@@ -13527,7 +13653,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="30">
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>298</v>
       </c>
@@ -13547,7 +13673,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="30">
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>298</v>
       </c>
@@ -13567,7 +13693,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="30">
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>298</v>
       </c>
@@ -13587,7 +13713,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30">
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>298</v>
       </c>
@@ -13627,7 +13753,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="30">
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>298</v>
       </c>
@@ -13647,7 +13773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="30">
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>298</v>
       </c>
@@ -13667,7 +13793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="30">
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>298</v>
       </c>
@@ -13687,7 +13813,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="30">
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>298</v>
       </c>
@@ -13707,7 +13833,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="30">
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>298</v>
       </c>
@@ -13727,7 +13853,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="30">
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>298</v>
       </c>
@@ -13747,7 +13873,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="30">
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>298</v>
       </c>
@@ -13767,7 +13893,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="30">
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>298</v>
       </c>
@@ -13787,7 +13913,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="30">
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>298</v>
       </c>
@@ -13807,7 +13933,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30">
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>298</v>
       </c>
@@ -13827,7 +13953,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="30">
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>298</v>
       </c>
@@ -13847,7 +13973,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="30">
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>298</v>
       </c>
@@ -13867,7 +13993,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="30">
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>298</v>
       </c>
@@ -13887,7 +14013,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="30">
+    <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>298</v>
       </c>
@@ -13907,7 +14033,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="30">
+    <row r="372" spans="1:6">
       <c r="A372" t="s">
         <v>298</v>
       </c>
@@ -13927,7 +14053,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30">
+    <row r="373" spans="1:6">
       <c r="A373" t="s">
         <v>298</v>
       </c>
@@ -13947,7 +14073,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="30">
+    <row r="374" spans="1:6">
       <c r="A374" t="s">
         <v>298</v>
       </c>
@@ -13967,7 +14093,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="30">
+    <row r="375" spans="1:6">
       <c r="A375" t="s">
         <v>298</v>
       </c>
@@ -13987,7 +14113,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="30">
+    <row r="376" spans="1:6">
       <c r="A376" t="s">
         <v>298</v>
       </c>
@@ -14007,7 +14133,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="30">
+    <row r="377" spans="1:6">
       <c r="A377" t="s">
         <v>298</v>
       </c>
@@ -14027,7 +14153,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="30">
+    <row r="378" spans="1:6">
       <c r="A378" t="s">
         <v>298</v>
       </c>
@@ -14067,7 +14193,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30">
+    <row r="380" spans="1:6">
       <c r="A380" t="s">
         <v>298</v>
       </c>
@@ -14087,7 +14213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="30">
+    <row r="381" spans="1:6">
       <c r="A381" t="s">
         <v>298</v>
       </c>
@@ -14107,7 +14233,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="30">
+    <row r="382" spans="1:6">
       <c r="A382" t="s">
         <v>298</v>
       </c>
@@ -14127,7 +14253,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="30">
+    <row r="383" spans="1:6">
       <c r="A383" t="s">
         <v>298</v>
       </c>
@@ -14207,7 +14333,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="30">
+    <row r="387" spans="1:6">
       <c r="A387" t="s">
         <v>298</v>
       </c>
@@ -14227,7 +14353,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="30">
+    <row r="388" spans="1:6">
       <c r="A388" t="s">
         <v>298</v>
       </c>
@@ -14247,7 +14373,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30">
+    <row r="389" spans="1:6">
       <c r="A389" t="s">
         <v>298</v>
       </c>
@@ -14267,7 +14393,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="30">
+    <row r="390" spans="1:6">
       <c r="A390" t="s">
         <v>298</v>
       </c>
@@ -14287,7 +14413,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="30">
+    <row r="391" spans="1:6">
       <c r="A391" t="s">
         <v>298</v>
       </c>
@@ -14407,7 +14533,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="30">
+    <row r="397" spans="1:6">
       <c r="A397" t="s">
         <v>298</v>
       </c>
@@ -14427,7 +14553,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="30">
+    <row r="398" spans="1:6">
       <c r="A398" t="s">
         <v>298</v>
       </c>
@@ -14447,7 +14573,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="30">
+    <row r="399" spans="1:6">
       <c r="A399" t="s">
         <v>298</v>
       </c>
@@ -14467,7 +14593,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30">
+    <row r="400" spans="1:6">
       <c r="A400" t="s">
         <v>298</v>
       </c>
@@ -14487,7 +14613,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="30">
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>298</v>
       </c>
@@ -14507,7 +14633,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30">
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>298</v>
       </c>
@@ -14527,7 +14653,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30">
+    <row r="403" spans="1:6">
       <c r="A403" t="s">
         <v>298</v>
       </c>
@@ -14547,7 +14673,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30">
+    <row r="404" spans="1:6">
       <c r="A404" t="s">
         <v>298</v>
       </c>
@@ -14567,7 +14693,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="30">
+    <row r="405" spans="1:6">
       <c r="A405" t="s">
         <v>298</v>
       </c>
@@ -14587,7 +14713,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="30">
+    <row r="406" spans="1:6">
       <c r="A406" t="s">
         <v>298</v>
       </c>
@@ -14607,7 +14733,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="30">
+    <row r="407" spans="1:6">
       <c r="A407" t="s">
         <v>298</v>
       </c>
@@ -14627,7 +14753,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="45">
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>298</v>
       </c>
@@ -14647,7 +14773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="30">
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>298</v>
       </c>
@@ -14667,7 +14793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="30">
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>298</v>
       </c>
@@ -14687,7 +14813,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30">
+    <row r="411" spans="1:6">
       <c r="A411" t="s">
         <v>298</v>
       </c>
@@ -14707,7 +14833,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="30">
+    <row r="412" spans="1:6">
       <c r="A412" t="s">
         <v>298</v>
       </c>
@@ -14727,7 +14853,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="45">
+    <row r="413" spans="1:6">
       <c r="A413" t="s">
         <v>298</v>
       </c>
@@ -14747,7 +14873,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="30">
+    <row r="414" spans="1:6">
       <c r="A414" t="s">
         <v>298</v>
       </c>
@@ -14767,7 +14893,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="45">
+    <row r="415" spans="1:6">
       <c r="A415" t="s">
         <v>298</v>
       </c>
@@ -14787,7 +14913,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="30">
+    <row r="416" spans="1:6">
       <c r="A416" t="s">
         <v>298</v>
       </c>
@@ -14807,7 +14933,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="30">
+    <row r="417" spans="1:6">
       <c r="A417" t="s">
         <v>298</v>
       </c>
@@ -14827,7 +14953,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="30">
+    <row r="418" spans="1:6">
       <c r="A418" t="s">
         <v>298</v>
       </c>
@@ -14847,7 +14973,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="30">
+    <row r="419" spans="1:6">
       <c r="A419" t="s">
         <v>298</v>
       </c>
@@ -14867,7 +14993,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="30">
+    <row r="420" spans="1:6">
       <c r="A420" t="s">
         <v>298</v>
       </c>
@@ -14907,7 +15033,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="30">
+    <row r="422" spans="1:6">
       <c r="A422" t="s">
         <v>298</v>
       </c>
@@ -14967,7 +15093,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="30">
+    <row r="425" spans="1:6">
       <c r="A425" t="s">
         <v>298</v>
       </c>
@@ -14987,7 +15113,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="30">
+    <row r="426" spans="1:6">
       <c r="A426" t="s">
         <v>298</v>
       </c>
@@ -15087,7 +15213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="45">
+    <row r="431" spans="1:6">
       <c r="A431" t="s">
         <v>298</v>
       </c>
@@ -15147,7 +15273,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="45">
+    <row r="434" spans="1:6">
       <c r="A434" t="s">
         <v>298</v>
       </c>
@@ -15167,7 +15293,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="30">
+    <row r="435" spans="1:6">
       <c r="A435" t="s">
         <v>298</v>
       </c>
@@ -15227,7 +15353,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30">
+    <row r="438" spans="1:6">
       <c r="A438" t="s">
         <v>298</v>
       </c>
@@ -15247,7 +15373,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="45">
+    <row r="439" spans="1:6">
       <c r="A439" t="s">
         <v>298</v>
       </c>
@@ -15267,7 +15393,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="30">
+    <row r="440" spans="1:6">
       <c r="A440" t="s">
         <v>298</v>
       </c>
@@ -15287,7 +15413,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="45">
+    <row r="441" spans="1:6">
       <c r="A441" t="s">
         <v>299</v>
       </c>
@@ -15307,7 +15433,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="45">
+    <row r="442" spans="1:6">
       <c r="A442" t="s">
         <v>299</v>
       </c>
@@ -15327,7 +15453,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="45">
+    <row r="443" spans="1:6">
       <c r="A443" t="s">
         <v>299</v>
       </c>
@@ -15347,7 +15473,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="45">
+    <row r="444" spans="1:6">
       <c r="A444" t="s">
         <v>299</v>
       </c>
@@ -15367,7 +15493,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="45">
+    <row r="445" spans="1:6">
       <c r="A445" t="s">
         <v>299</v>
       </c>
@@ -15387,7 +15513,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="30">
+    <row r="446" spans="1:6">
       <c r="A446" t="s">
         <v>299</v>
       </c>
@@ -15407,7 +15533,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="60">
+    <row r="447" spans="1:6" ht="30">
       <c r="A447" t="s">
         <v>299</v>
       </c>
@@ -15427,7 +15553,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="45">
+    <row r="448" spans="1:6">
       <c r="A448" t="s">
         <v>299</v>
       </c>
@@ -15447,7 +15573,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="45">
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>299</v>
       </c>
@@ -15467,7 +15593,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="60">
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>299</v>
       </c>
@@ -15487,7 +15613,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="60">
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>299</v>
       </c>
@@ -15507,7 +15633,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="60">
+    <row r="452" spans="1:6" ht="30">
       <c r="A452" t="s">
         <v>299</v>
       </c>
@@ -15527,7 +15653,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="60">
+    <row r="453" spans="1:6" ht="30">
       <c r="A453" t="s">
         <v>299</v>
       </c>
@@ -15547,7 +15673,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="45">
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>299</v>
       </c>
@@ -15567,7 +15693,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="75">
+    <row r="455" spans="1:6" ht="30">
       <c r="A455" t="s">
         <v>299</v>
       </c>
@@ -15587,7 +15713,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="75">
+    <row r="456" spans="1:6" ht="30">
       <c r="A456" t="s">
         <v>299</v>
       </c>
@@ -15607,7 +15733,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="30">
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>299</v>
       </c>
@@ -15627,7 +15753,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="75">
+    <row r="458" spans="1:6" ht="30">
       <c r="A458" t="s">
         <v>299</v>
       </c>
@@ -15647,7 +15773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="75">
+    <row r="459" spans="1:6" ht="30">
       <c r="A459" t="s">
         <v>299</v>
       </c>
@@ -15667,7 +15793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="60">
+    <row r="460" spans="1:6">
       <c r="A460" t="s">
         <v>299</v>
       </c>
@@ -15687,7 +15813,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="45">
+    <row r="461" spans="1:6">
       <c r="A461" t="s">
         <v>299</v>
       </c>
@@ -15707,7 +15833,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="45">
+    <row r="462" spans="1:6">
       <c r="A462" t="s">
         <v>299</v>
       </c>
@@ -15727,7 +15853,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45">
+    <row r="463" spans="1:6">
       <c r="A463" t="s">
         <v>299</v>
       </c>
@@ -15747,7 +15873,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="45">
+    <row r="464" spans="1:6">
       <c r="A464" t="s">
         <v>299</v>
       </c>
@@ -15767,7 +15893,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="30">
+    <row r="465" spans="1:6">
       <c r="A465" t="s">
         <v>299</v>
       </c>
@@ -15787,7 +15913,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="60">
+    <row r="466" spans="1:6" ht="30">
       <c r="A466" t="s">
         <v>299</v>
       </c>
@@ -15807,7 +15933,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="30">
+    <row r="467" spans="1:6">
       <c r="A467" s="5" t="s">
         <v>299</v>
       </c>
@@ -15827,7 +15953,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="30">
+    <row r="468" spans="1:6">
       <c r="A468" t="s">
         <v>299</v>
       </c>
@@ -15847,7 +15973,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="45">
+    <row r="469" spans="1:6">
       <c r="A469" t="s">
         <v>299</v>
       </c>
@@ -15867,7 +15993,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="60">
+    <row r="470" spans="1:6">
       <c r="A470" t="s">
         <v>299</v>
       </c>
@@ -15887,7 +16013,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="60">
+    <row r="471" spans="1:6" ht="30">
       <c r="A471" t="s">
         <v>299</v>
       </c>
@@ -15967,7 +16093,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="45">
+    <row r="475" spans="1:6">
       <c r="A475" t="s">
         <v>299</v>
       </c>
@@ -15987,7 +16113,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="45">
+    <row r="476" spans="1:6">
       <c r="A476" t="s">
         <v>299</v>
       </c>
@@ -16007,7 +16133,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="45">
+    <row r="477" spans="1:6">
       <c r="A477" t="s">
         <v>299</v>
       </c>
@@ -16027,7 +16153,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="45">
+    <row r="478" spans="1:6">
       <c r="A478" t="s">
         <v>299</v>
       </c>
@@ -16047,7 +16173,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="45">
+    <row r="479" spans="1:6">
       <c r="A479" t="s">
         <v>299</v>
       </c>
@@ -16067,7 +16193,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="30">
+    <row r="480" spans="1:6">
       <c r="A480" t="s">
         <v>299</v>
       </c>
@@ -16087,7 +16213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="30">
+    <row r="481" spans="1:6">
       <c r="A481" t="s">
         <v>299</v>
       </c>
@@ -16187,7 +16313,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="45">
+    <row r="486" spans="1:6">
       <c r="A486" t="s">
         <v>299</v>
       </c>
@@ -16227,7 +16353,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="45">
+    <row r="488" spans="1:6">
       <c r="A488" t="s">
         <v>299</v>
       </c>
@@ -16247,7 +16373,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="60">
+    <row r="489" spans="1:6">
       <c r="A489" t="s">
         <v>299</v>
       </c>
@@ -16267,7 +16393,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="45">
+    <row r="490" spans="1:6">
       <c r="A490" t="s">
         <v>299</v>
       </c>
@@ -16287,7 +16413,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="75">
+    <row r="491" spans="1:6" ht="30">
       <c r="A491" t="s">
         <v>299</v>
       </c>
@@ -16307,7 +16433,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="60">
+    <row r="492" spans="1:6">
       <c r="A492" t="s">
         <v>299</v>
       </c>
@@ -16327,7 +16453,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="60">
+    <row r="493" spans="1:6">
       <c r="A493" t="s">
         <v>299</v>
       </c>
@@ -16347,7 +16473,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="75">
+    <row r="494" spans="1:6" ht="30">
       <c r="A494" t="s">
         <v>299</v>
       </c>
@@ -16367,7 +16493,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="90">
+    <row r="495" spans="1:6" ht="30">
       <c r="A495" t="s">
         <v>299</v>
       </c>
@@ -16387,7 +16513,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="75">
+    <row r="496" spans="1:6" ht="30">
       <c r="A496" t="s">
         <v>299</v>
       </c>
@@ -16407,7 +16533,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="75">
+    <row r="497" spans="1:6" ht="30">
       <c r="A497" t="s">
         <v>299</v>
       </c>
@@ -16427,7 +16553,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="75">
+    <row r="498" spans="1:6" ht="30">
       <c r="A498" t="s">
         <v>299</v>
       </c>
@@ -16447,7 +16573,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="75">
+    <row r="499" spans="1:6" ht="30">
       <c r="A499" t="s">
         <v>299</v>
       </c>
@@ -16467,7 +16593,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="60">
+    <row r="500" spans="1:6" ht="30">
       <c r="A500" t="s">
         <v>299</v>
       </c>
@@ -16487,7 +16613,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="75">
+    <row r="501" spans="1:6" ht="30">
       <c r="A501" t="s">
         <v>299</v>
       </c>
@@ -16507,7 +16633,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="75">
+    <row r="502" spans="1:6" ht="30">
       <c r="A502" t="s">
         <v>299</v>
       </c>
@@ -16527,7 +16653,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="60">
+    <row r="503" spans="1:6">
       <c r="A503" t="s">
         <v>299</v>
       </c>
@@ -16547,7 +16673,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="90">
+    <row r="504" spans="1:6" ht="30">
       <c r="A504" t="s">
         <v>299</v>
       </c>
@@ -16567,7 +16693,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="60">
+    <row r="505" spans="1:6" ht="30">
       <c r="A505" t="s">
         <v>299</v>
       </c>
@@ -16587,7 +16713,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="75">
+    <row r="506" spans="1:6" ht="30">
       <c r="A506" t="s">
         <v>299</v>
       </c>
@@ -16607,7 +16733,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="90">
+    <row r="507" spans="1:6" ht="30">
       <c r="A507" t="s">
         <v>299</v>
       </c>
@@ -16627,7 +16753,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="90">
+    <row r="508" spans="1:6" ht="30">
       <c r="A508" t="s">
         <v>299</v>
       </c>
@@ -16647,7 +16773,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="75">
+    <row r="509" spans="1:6" ht="30">
       <c r="A509" t="s">
         <v>299</v>
       </c>
@@ -16667,7 +16793,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="30">
+    <row r="510" spans="1:6">
       <c r="A510" t="s">
         <v>299</v>
       </c>
@@ -16687,7 +16813,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="30">
+    <row r="511" spans="1:6">
       <c r="A511" t="s">
         <v>299</v>
       </c>
@@ -16707,7 +16833,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="30">
+    <row r="512" spans="1:6">
       <c r="A512" t="s">
         <v>299</v>
       </c>
@@ -16727,7 +16853,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="30">
+    <row r="513" spans="1:6">
       <c r="A513" t="s">
         <v>299</v>
       </c>
@@ -16747,7 +16873,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="30">
+    <row r="514" spans="1:6">
       <c r="A514" t="s">
         <v>299</v>
       </c>
@@ -16767,7 +16893,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="30">
+    <row r="515" spans="1:6">
       <c r="A515" t="s">
         <v>299</v>
       </c>
@@ -57324,6 +57450,726 @@
         <v>1391</v>
       </c>
       <c r="F2542" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:6">
+      <c r="A2543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D2543" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2543" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:6">
+      <c r="A2544" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D2544" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2544" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:6">
+      <c r="A2545" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D2545" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2545" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:6">
+      <c r="A2546" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D2546" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2546" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:6">
+      <c r="A2547" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D2547" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2547" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:6">
+      <c r="A2548" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D2548" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2548" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:6">
+      <c r="A2549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D2549" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2549" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2549" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:6">
+      <c r="A2550" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D2550" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2550" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2550" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:6">
+      <c r="A2551" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D2551" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2551" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2551" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:6">
+      <c r="A2552" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D2552" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2552" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2552" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:6">
+      <c r="A2553" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D2553" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2553" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2553" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:6">
+      <c r="A2554" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D2554" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2554" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2554" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:6">
+      <c r="A2555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D2555" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2555" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2555" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:6">
+      <c r="A2556" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D2556" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2556" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2556" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:6">
+      <c r="A2557" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D2557" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2557" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:6">
+      <c r="A2558" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D2558" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2558" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:6">
+      <c r="A2559" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D2559" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2559" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:6">
+      <c r="A2560" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D2560" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2560" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2560" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:6">
+      <c r="A2561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D2561" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2561" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:6">
+      <c r="A2562" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D2562" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2562" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2562" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:6">
+      <c r="A2563" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2563" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2563" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:6">
+      <c r="A2564" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D2564" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2564" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:6">
+      <c r="A2565" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D2565" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2565" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:6">
+      <c r="A2566" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D2566" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2566" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:6">
+      <c r="A2567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D2567" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2567" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:6">
+      <c r="A2568" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D2568" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2568" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:6">
+      <c r="A2569" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D2569" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2569" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:6">
+      <c r="A2570" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D2570" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2570" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:6">
+      <c r="A2571" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D2571" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2571" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:6">
+      <c r="A2572" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D2572" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2572" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:6">
+      <c r="A2573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D2573" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2573" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:6">
+      <c r="A2574" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D2574" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2574" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:6">
+      <c r="A2575" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D2575" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2575" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:6">
+      <c r="A2576" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D2576" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2576" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:6">
+      <c r="A2577" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D2577" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2577" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:6">
+      <c r="A2578" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D2578" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2578" t="s">
         <v>1392</v>
       </c>
     </row>
